--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06185476386403051</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01259060692783105</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009401486342168633</v>
+        <v>0.00998505077193268</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001938658627854146</v>
+        <v>0.001802219001483585</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007766831460505226</v>
+        <v>0.0007792992852512934</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001861304928574781</v>
+        <v>0.002999999999999975</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007848576676578348</v>
+        <v>0.0004806397306397264</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00562660990748251</v>
+        <v>0.009640346078776063</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007430839527018069</v>
+        <v>0.0007671423330167664</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008604876134111594</v>
+        <v>0.001802219001483585</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007728236287295086</v>
+        <v>0.0007792992852512934</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001757005657024906</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001553366292101045</v>
+        <v>0.001903333333333332</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003812547139013293</v>
+        <v>0.008000658534140587</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00156971533531567</v>
+        <v>0.001541225978635094</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0112397452936337</v>
+        <v>0.0189230260055312</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001486167905403614</v>
+        <v>0.001534284666033533</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01768665226608684</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001545647257459017</v>
+        <v>0.001903333333333332</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004334729488828903</v>
+        <v>0.004447436852892027</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002330049438151568</v>
+        <v>0.00233789785575388</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00544380312155502</v>
+        <v>0.01120832924474477</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002354573002973504</v>
+        <v>0.002311838967952642</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01599999999999999</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002328236493374106</v>
+        <v>0.002095412844036699</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02453635373705454</v>
+        <v>0.004447436852892027</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002318470886188526</v>
+        <v>0.00233789785575388</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.005655235185168417</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003133828780722877</v>
+        <v>0.003117197141005174</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.01459381624363451</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003330833333333333</v>
+        <v>0.003082451957270189</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01792309631354866</v>
+        <v>0.02973528003103476</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002972335810807228</v>
+        <v>0.003068569332067065</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.005655235185168417</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003172222222222225</v>
+        <v>0.003117197141005174</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003133828780722877</v>
+        <v>0.001903333333333332</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006467252732712619</v>
+        <v>0.006794833027232113</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003883415730252613</v>
+        <v>0.003896496426256466</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007708193550345598</v>
+        <v>0.01780808940752837</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003924288338289174</v>
+        <v>0.003853064946587736</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02029504127369924</v>
+        <v>0.03354751597639788</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003715419763509034</v>
+        <v>0.003835711665083832</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03218933403850938</v>
+        <v>0.006794833027232113</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003864118143647543</v>
+        <v>0.003896496426256466</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007260845403261947</v>
+        <v>0.007666421028083022</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004660098876303136</v>
+        <v>0.00467579571150776</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008534845218620135</v>
+        <v>0.02040211861314498</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004709146005947009</v>
+        <v>0.004623677935905283</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02240973784890934</v>
+        <v>0.03645851026688557</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004458503716210841</v>
+        <v>0.004602853998100598</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03416938985367401</v>
+        <v>0.007666421028083022</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004636941772377052</v>
+        <v>0.00467579571150776</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007956289719786618</v>
+        <v>0.008470189836721022</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005436782022353658</v>
+        <v>0.005455094996759054</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009058183245216019</v>
+        <v>0.02262687373720296</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005494003673604843</v>
+        <v>0.005394290925222831</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02365094467382639</v>
+        <v>0.03896205946218384</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005201587668912648</v>
+        <v>0.005369996331117365</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03631666255045279</v>
+        <v>0.008470189836721022</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00540976540110656</v>
+        <v>0.005455094996759054</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0095773726418584</v>
+        <v>0.009306330102146008</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006213465168404181</v>
+        <v>0.006234394282010347</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009902051047435932</v>
+        <v>0.02443332465642076</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006278861341262678</v>
+        <v>0.006164903914540378</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02520242038309806</v>
+        <v>0.04034714691192021</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005944671621614456</v>
+        <v>0.005871106240241191</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03765204088413932</v>
+        <v>0.009306330102146008</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006182589029836069</v>
+        <v>0.006234394282010347</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.00914788112904899</v>
+        <v>0.01007503247335787</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006990148314454703</v>
+        <v>0.00701369356726164</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01049029204258254</v>
+        <v>0.02646887691987565</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007063719008920512</v>
+        <v>0.00706777437394734</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02646887691987565</v>
+        <v>0.04204988703838947</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006419354706612722</v>
+        <v>0.006904280997150898</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04034714691192021</v>
+        <v>0.01007503247335787</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007110562002069888</v>
+        <v>0.00701369356726164</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009691602140930164</v>
+        <v>0.0109764875993565</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007766831460505226</v>
+        <v>0.007792992852512933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01084674964795852</v>
+        <v>0.02717237892706256</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007848576676578348</v>
+        <v>0.007706129893175473</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02798757000608784</v>
+        <v>0.04397799032391392</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007430839527018069</v>
+        <v>0.007671423330167664</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04148709775912784</v>
+        <v>0.0109764875993565</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007728236287295086</v>
+        <v>0.007792992852512933</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01123232263707366</v>
+        <v>0.01141088612914178</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008543514606555749</v>
+        <v>0.008572292137764228</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01149526728086654</v>
+        <v>0.02824302292108682</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008633434344236182</v>
+        <v>0.008476742882493019</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02912335382912312</v>
+        <v>0.04537760624703263</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008173923479719876</v>
+        <v>0.00843856566318443</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0433463276365661</v>
+        <v>0.01141088612914178</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008501059916024595</v>
+        <v>0.008572292137764228</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01217841871171361</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009401486342168633</v>
+        <v>0.00935159142301552</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01205968835860929</v>
+        <v>0.02939167755703931</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009418292011894017</v>
+        <v>0.009247355871810567</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03055395037227387</v>
+        <v>0.04654856286894637</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008917007432421683</v>
+        <v>0.009205707996201197</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04515804784317801</v>
+        <v>0.01217841871171361</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009273883544754103</v>
+        <v>0.00935159142301552</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01239135217067829</v>
+        <v>0.01259060692783105</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01009688089865679</v>
+        <v>0.00998505077193268</v>
       </c>
       <c r="J78" t="n">
+        <v>0.0303182817897657</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01001796886112811</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.04829068825085592</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.009972850329217962</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.01259060692783105</v>
       </c>
-      <c r="K78" t="n">
+      <c r="O78" t="n">
         <v>0.00998505077193268</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.03187496641085352</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.00966009138512349</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.04730990906128124</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.01004670717348361</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01201826409344228</v>
+        <v>0.01315775974860821</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01087356404470732</v>
+        <v>0.01091018999351811</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01331153229554517</v>
+        <v>0.03122277457411202</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01098800734720969</v>
+        <v>0.01078858185044566</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03318200872017538</v>
+        <v>0.04930381045396187</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0104031753378253</v>
+        <v>0.01073999266223473</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04898956197319376</v>
+        <v>0.01315775974860821</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01081953080221312</v>
+        <v>0.01091018999351811</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01266866425987202</v>
+        <v>0.01363102285824064</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01165024719075784</v>
+        <v>0.0116894892787694</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01399593162047254</v>
+        <v>0.03250509486492401</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01177286501486752</v>
+        <v>0.01155919483976321</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03437068407555294</v>
+        <v>0.05058775753946498</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0111462592905271</v>
+        <v>0.0115071349952515</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05148465726123347</v>
+        <v>0.01363102285824064</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01159235443094263</v>
+        <v>0.0116894892787694</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01333671443707571</v>
+        <v>0.01409981575266311</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01242693033680836</v>
+        <v>0.01246878856402069</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01480905511249611</v>
+        <v>0.03346518161704753</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01255772268252536</v>
+        <v>0.01232980782908076</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03563659925229959</v>
+        <v>0.0525423575685659</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01188934324322891</v>
+        <v>0.01227427732826826</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05288284560771839</v>
+        <v>0.01409981575266311</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01236517805967214</v>
+        <v>0.01246878856402069</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01501657639216156</v>
+        <v>0.01446378951766961</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01320361348285888</v>
+        <v>0.01324808784927199</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01554345046936191</v>
+        <v>0.03420297378532849</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01334258035018319</v>
+        <v>0.0131004208183983</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03697536102572865</v>
+        <v>0.05386743860246535</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01263242719593072</v>
+        <v>0.01304141966128503</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05527177769496627</v>
+        <v>0.01446378951766961</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01313800168840165</v>
+        <v>0.01324808784927199</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0137024118922378</v>
+        <v>0.01492259523905402</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01398029662890941</v>
+        <v>0.01402738713452328</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01609166538881589</v>
+        <v>0.03501841032461273</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01412743801784102</v>
+        <v>0.01387103380771585</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03808257617115363</v>
+        <v>0.05456282870236401</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01337551114863252</v>
+        <v>0.0138085619943018</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05733910420529509</v>
+        <v>0.01492259523905402</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01391082531713116</v>
+        <v>0.01402738713452328</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01638838270441262</v>
+        <v>0.0154758840026103</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01475697977495993</v>
+        <v>0.01480668641977457</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01694624756860415</v>
+        <v>0.03581143018974606</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01491229568549886</v>
+        <v>0.0146416467970334</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03955385146388785</v>
+        <v>0.05622835592946257</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01411859510133433</v>
+        <v>0.01457570432731856</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0591724758210227</v>
+        <v>0.0154758840026103</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01468364894586066</v>
+        <v>0.01480668641977457</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01506865059579426</v>
+        <v>0.01572330689413239</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01553366292101045</v>
+        <v>0.01558598570502587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01759974470647263</v>
+        <v>0.03668197233557433</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0156971533531567</v>
+        <v>0.01541225978635095</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04058479367924475</v>
+        <v>0.05756384834496181</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01486167905403614</v>
+        <v>0.01534284666033533</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06065954322446693</v>
+        <v>0.01572330689413239</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01545647257459017</v>
+        <v>0.01558598570502587</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0177373773334909</v>
+        <v>0.01616451499941422</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01631034606706097</v>
+        <v>0.01636528499027716</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01834470450016737</v>
+        <v>0.03792997571694343</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01648201102081453</v>
+        <v>0.01618287277566849</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04147100959253772</v>
+        <v>0.05826913401006234</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01560476300673794</v>
+        <v>0.01610998899335209</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06258795709794579</v>
+        <v>0.01616451499941422</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01622929620331968</v>
+        <v>0.01636528499027716</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01738872468461079</v>
+        <v>0.01659915940424973</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0170870292131115</v>
+        <v>0.01714458427552846</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01927367464743442</v>
+        <v>0.03825537928869921</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01726686868847236</v>
+        <v>0.01695348576498604</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04250810597908011</v>
+        <v>0.05924404098596486</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01634784695943975</v>
+        <v>0.01687713132636886</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06474536812377713</v>
+        <v>0.01659915940424973</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01700211983204919</v>
+        <v>0.01714458427552846</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01901685441626211</v>
+        <v>0.01702689119443286</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01786371235916202</v>
+        <v>0.01792388356077975</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01977920284601972</v>
+        <v>0.03955812200568745</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0180517263561302</v>
+        <v>0.01772409875430359</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0434916896141854</v>
+        <v>0.06038839733387008</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01709093091214156</v>
+        <v>0.01764427365938563</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06621942698427896</v>
+        <v>0.01702689119443286</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0177749434607787</v>
+        <v>0.01792388356077975</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0196159282955531</v>
+        <v>0.01764736145575756</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01864039550521254</v>
+        <v>0.01870318284603104</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02045383679366934</v>
+        <v>0.03983814282275411</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01883658402378803</v>
+        <v>0.01849471174362113</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04461736727316692</v>
+        <v>0.06170203111497879</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01783401486484337</v>
+        <v>0.01841141599240239</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06789778436176896</v>
+        <v>0.01764736145575756</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01854776708950821</v>
+        <v>0.01870318284603104</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01818010808959196</v>
+        <v>0.01796022127401772</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01941707865126307</v>
+        <v>0.01948248213128233</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02119012418812927</v>
+        <v>0.04089538069474496</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01962144169144587</v>
+        <v>0.01926532473293868</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0453807457313381</v>
+        <v>0.06328477039049152</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01857709881754517</v>
+        <v>0.01917855832541916</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06946809093856515</v>
+        <v>0.01796022127401772</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01932059071823771</v>
+        <v>0.01948248213128233</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0187035555654869</v>
+        <v>0.01826512173500731</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02019376179731359</v>
+        <v>0.02026178141653363</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02188061272714552</v>
+        <v>0.04182977457650588</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0204062993591037</v>
+        <v>0.02003593772225623</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04647743176401239</v>
+        <v>0.06393644322160907</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01932018277024698</v>
+        <v>0.01994570065843592</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0709179973969854</v>
+        <v>0.01826512173500731</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02009341434696722</v>
+        <v>0.02026178141653363</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02118043249034617</v>
+        <v>0.01886171392452027</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02097044494336411</v>
+        <v>0.02104108070178492</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0222178501084641</v>
+        <v>0.04204126342288275</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02119115702676154</v>
+        <v>0.02080655071157378</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04680303214650311</v>
+        <v>0.0651568776695321</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02006326672294879</v>
+        <v>0.02071284299145269</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07193515441934772</v>
+        <v>0.01886171392452027</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02086623797569673</v>
+        <v>0.02104108070178492</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02060490063127793</v>
+        <v>0.01904964892835052</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02174712808941463</v>
+        <v>0.02182037998703621</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02269438402983104</v>
+        <v>0.04272978618872139</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02197601469441937</v>
+        <v>0.02157716370089132</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04755315365412366</v>
+        <v>0.06584590179546135</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02080635067565059</v>
+        <v>0.02147998532446946</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07270721268796976</v>
+        <v>0.01904964892835052</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02163906160442624</v>
+        <v>0.02182037998703621</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0219711217553904</v>
+        <v>0.01952857783229202</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02252381123546516</v>
+        <v>0.02259967927228751</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02330276218899235</v>
+        <v>0.04369528182886759</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02276087236207721</v>
+        <v>0.02234777669020887</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04842340306218748</v>
+        <v>0.06670334366059744</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0215494346283524</v>
+        <v>0.02224712765748622</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07402182288516962</v>
+        <v>0.01952857783229202</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02241188523315575</v>
+        <v>0.02259967927228751</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02227325762979185</v>
+        <v>0.01989815172213867</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02330049438151568</v>
+        <v>0.0233789785575388</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02363553228369403</v>
+        <v>0.04453768929816732</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02354573002973504</v>
+        <v>0.02311838967952642</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04860938714600799</v>
+        <v>0.06822903132614111</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02229251858105421</v>
+        <v>0.02301426999050299</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07436663569326524</v>
+        <v>0.01989815172213867</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02318470886188526</v>
+        <v>0.0233789785575388</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02150547002159044</v>
+        <v>0.02025802168368446</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0240771775275662</v>
+        <v>0.02415827784279009</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0238852420116821</v>
+        <v>0.04485694755146638</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02433058769739288</v>
+        <v>0.02388900266884396</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04930671268089851</v>
+        <v>0.06862279285329315</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02303560253375601</v>
+        <v>0.02378141232351976</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0749293017945743</v>
+        <v>0.02025802168368446</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02395753249061476</v>
+        <v>0.02415827784279009</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02066192069789438</v>
+        <v>0.02050783880272325</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02485386067361672</v>
+        <v>0.02493757712804139</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02404443907070257</v>
+        <v>0.04535299554361055</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02511544536505071</v>
+        <v>0.02465961565816151</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04921098644217251</v>
+        <v>0.06928445630325403</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02377868648645782</v>
+        <v>0.02454855465653652</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07559747187141486</v>
+        <v>0.02050783880272325</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02473035611934428</v>
+        <v>0.02493757712804139</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02073677142581191</v>
+        <v>0.02104725416504905</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02563054381966725</v>
+        <v>0.02571687641329268</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02410567115850144</v>
+        <v>0.04632577222944581</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02590030303270854</v>
+        <v>0.02543022864747906</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04981781520514336</v>
+        <v>0.07081384973722471</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02452177043915963</v>
+        <v>0.02531569698955329</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07565879660610469</v>
+        <v>0.02104725416504905</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02550317974807378</v>
+        <v>0.02571687641329268</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0207332796351366</v>
+        <v>0.02117591885645576</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02640722696571777</v>
+        <v>0.02649617569854398</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02397887387115206</v>
+        <v>0.04637521656381791</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02668516070036638</v>
+        <v>0.0262008416367966</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05002280574512444</v>
+        <v>0.07111080121640567</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02526485439186144</v>
+        <v>0.02608283932257006</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07591986230399039</v>
+        <v>0.02117591885645576</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02627600337680329</v>
+        <v>0.02649617569854398</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02168287246673793</v>
+        <v>0.02149348396273731</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02718391011176829</v>
+        <v>0.02727547498379527</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02379005806516264</v>
+        <v>0.04740126750157275</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02747001836802421</v>
+        <v>0.02697145462611416</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0498199234178206</v>
+        <v>0.07167513880199772</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02600793834456324</v>
+        <v>0.02684998165558682</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07532633923308929</v>
+        <v>0.02149348396273731</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0270488270055328</v>
+        <v>0.02727547498379527</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02159253072708665</v>
+        <v>0.02199960056968767</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02796059325781881</v>
+        <v>0.02805477426904656</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02374647234777655</v>
+        <v>0.04750386399755618</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02825487603568205</v>
+        <v>0.0277420676154317</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04950095876596047</v>
+        <v>0.07310669055520153</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02675102229726505</v>
+        <v>0.02761712398860359</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07479232416776044</v>
+        <v>0.02199960056968767</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02782165063426231</v>
+        <v>0.02805477426904656</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02246650858789771</v>
+        <v>0.02229391976310073</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02873727640386934</v>
+        <v>0.02883407355429786</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02365520604785928</v>
+        <v>0.04818294500661405</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02903973370333989</v>
+        <v>0.02851268060474925</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04927429650857454</v>
+        <v>0.0733052845372178</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02749410624996685</v>
+        <v>0.02838426632162035</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07443019242584209</v>
+        <v>0.02229391976310073</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02859447426299182</v>
+        <v>0.02883407355429786</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02130906022088602</v>
+        <v>0.02247609262877047</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02951395954991986</v>
+        <v>0.02961337283954915</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02332334849427634</v>
+        <v>0.04863844948359219</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02982459137099772</v>
+        <v>0.02928329359406679</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04935043604589479</v>
+        <v>0.07407074880924719</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02823719020266866</v>
+        <v>0.02915140865463712</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07405231932517248</v>
+        <v>0.02247609262877047</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02936729789172133</v>
+        <v>0.02961337283954915</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02112443979776656</v>
+        <v>0.02264577025249082</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03029064269597038</v>
+        <v>0.03039267212480044</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02315798901589328</v>
+        <v>0.04897031638333649</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03060944903865555</v>
+        <v>0.03005390658338434</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04843987677815323</v>
+        <v>0.07520291143249042</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02898027415537047</v>
+        <v>0.02991855098765389</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07317108018359009</v>
+        <v>0.02264577025249082</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03014012152045083</v>
+        <v>0.03039267212480044</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02191690149025424</v>
+        <v>0.02290260372005569</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0310673258420209</v>
+        <v>0.03117197141005173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02286621694157556</v>
+        <v>0.04967848466069272</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03139430670631339</v>
+        <v>0.03082451957270189</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04825311810558186</v>
+        <v>0.07530160046814827</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02972335810807228</v>
+        <v>0.03068569332067066</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07239885031893306</v>
+        <v>0.02290260372005569</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03091294514918035</v>
+        <v>0.03117197141005173</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02069069947006401</v>
+        <v>0.02334624411725902</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03184400898807143</v>
+        <v>0.03195127069530303</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02235512160018875</v>
+        <v>0.05006289327050684</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03217916437397123</v>
+        <v>0.03159513256201944</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04790065942841276</v>
+        <v>0.0760666439774213</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03046644206077408</v>
+        <v>0.03145283565368742</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07174800504903972</v>
+        <v>0.02334624411725902</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03168576877790985</v>
+        <v>0.03195127069530303</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02145008790891083</v>
+        <v>0.02337634252989478</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03262069213412195</v>
+        <v>0.03273056998055433</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02223179232059833</v>
+        <v>0.05032348116762464</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03296402204162906</v>
+        <v>0.03236574555133698</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04689300014687786</v>
+        <v>0.07659787002151025</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03120952601347589</v>
+        <v>0.03221997798670419</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07093091969174853</v>
+        <v>0.02337634252989478</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03245859240663936</v>
+        <v>0.03273056998055433</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02119932097850963</v>
+        <v>0.02369255004375687</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03339737528017248</v>
+        <v>0.03350986926580562</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02170331843166981</v>
+        <v>0.05056018730689193</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0337488797092869</v>
+        <v>0.03313635854065453</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04664063966120927</v>
+        <v>0.07689510666161592</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03195260996617769</v>
+        <v>0.03298712031972095</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06955996956489752</v>
+        <v>0.02369255004375687</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03323141603536887</v>
+        <v>0.03350986926580562</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02094265285057532</v>
+        <v>0.02389451774463923</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03417405842622299</v>
+        <v>0.03428916855105691</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02137678926226874</v>
+        <v>0.05057295064315467</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03453373737694473</v>
+        <v>0.03390697152997207</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04595407737163892</v>
+        <v>0.07705818195893888</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03269569391887951</v>
+        <v>0.03375426265273772</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06874752998632516</v>
+        <v>0.02389451774463923</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03400423966409838</v>
+        <v>0.03428916855105691</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0196843376968229</v>
+        <v>0.02398189671833582</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03495074157227352</v>
+        <v>0.0350684678363082</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02105929414126061</v>
+        <v>0.05096171013125861</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03531859504460257</v>
+        <v>0.03467758451928962</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04504381267839885</v>
+        <v>0.07788692397467989</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03343877787158131</v>
+        <v>0.03452140498575449</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06800597627386973</v>
+        <v>0.02398189671833582</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03477706329282788</v>
+        <v>0.0350684678363082</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02042862968896728</v>
+        <v>0.02425433805064058</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03572742471832404</v>
+        <v>0.03584776712155949</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02095792239751094</v>
+        <v>0.05162640472604968</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0361034527122604</v>
+        <v>0.03544819750860717</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04442034498172112</v>
+        <v>0.07808116077003957</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03418186182428312</v>
+        <v>0.03528854731877126</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06674768374536949</v>
+        <v>0.02425433805064058</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0355498869215574</v>
+        <v>0.03584776712155949</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0191797829987234</v>
+        <v>0.02441149282734741</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03650410786437457</v>
+        <v>0.03662706640681079</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02067976335988524</v>
+        <v>0.05136697338237364</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03688831037991823</v>
+        <v>0.03621881049792472</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0436941736818377</v>
+        <v>0.07884072040621876</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03492494577698493</v>
+        <v>0.03605568965178801</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06598502771866283</v>
+        <v>0.02441149282734741</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0363227105502869</v>
+        <v>0.03662706640681079</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01794205179780622</v>
+        <v>0.02445301213425027</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03728079101042509</v>
+        <v>0.03740636569206208</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02043190635724902</v>
+        <v>0.05168335505507643</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03767316804757607</v>
+        <v>0.03698942348724227</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04277579817898058</v>
+        <v>0.07866543094441797</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03566802972968673</v>
+        <v>0.03682283198480479</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06413038351158795</v>
+        <v>0.02445301213425027</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03709553417901641</v>
+        <v>0.03740636569206208</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01771969025793066</v>
+        <v>0.0245785470571431</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0380574741564756</v>
+        <v>0.03818566497731337</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02002144071846781</v>
+        <v>0.05227548869900386</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0384580257152339</v>
+        <v>0.03776003647655981</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04207571787338185</v>
+        <v>0.079155120445838</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03641111368238854</v>
+        <v>0.03758997431782155</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06339612644198322</v>
+        <v>0.0245785470571431</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03786835780774592</v>
+        <v>0.03818566497731337</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01851695255081166</v>
+        <v>0.02488774868181982</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03883415730252613</v>
+        <v>0.03896496426256466</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02005545577240712</v>
+        <v>0.05234331326900185</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03924288338289174</v>
+        <v>0.03853064946587736</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04130443216527344</v>
+        <v>0.07920961697167961</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03715419763509034</v>
+        <v>0.03835711665083832</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06279463182768691</v>
+        <v>0.02488774868181982</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03864118143647543</v>
+        <v>0.03896496426256466</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01733809284816419</v>
+        <v>0.02488026809407437</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03961084044857665</v>
+        <v>0.03974426354781596</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01974104084793246</v>
+        <v>0.05258676771991611</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04002774105054957</v>
+        <v>0.03930126245519491</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04057244045488748</v>
+        <v>0.07992874858314336</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03789728158779215</v>
+        <v>0.03912425898385509</v>
       </c>
       <c r="N116" t="n">
-        <v>0.06133827498653727</v>
+        <v>0.02488026809407437</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03941400506520493</v>
+        <v>0.03974426354781596</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01918736532170316</v>
+        <v>0.02505575637970071</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04038752359462718</v>
+        <v>0.04052356283306726</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01988528527390936</v>
+        <v>0.05260579100659257</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0408125987182074</v>
+        <v>0.04007187544451245</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04029024214245586</v>
+        <v>0.07961234334143008</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03864036554049396</v>
+        <v>0.03989140131687185</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06093943123637269</v>
+        <v>0.02505575637970071</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04018682869393445</v>
+        <v>0.04052356283306726</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01806902414314354</v>
+        <v>0.02501386462449275</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04116420674067769</v>
+        <v>0.04130286211831855</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01978858731927133</v>
+        <v>0.0526003220838771</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04159745638586524</v>
+        <v>0.04084248843383</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03966833662821068</v>
+        <v>0.08036022930774028</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03938344949319577</v>
+        <v>0.04065854364988861</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0599104758950314</v>
+        <v>0.02501386462449275</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04095965232266395</v>
+        <v>0.04130286211831855</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01798732348420025</v>
+        <v>0.02505424391424442</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04194088988672822</v>
+        <v>0.04208216140356984</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01992993237926612</v>
+        <v>0.05287029990661554</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04238231405352308</v>
+        <v>0.04161310142314755</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03911722331238388</v>
+        <v>0.08037223454327491</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04012653344589757</v>
+        <v>0.04142568598290539</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05906378428035175</v>
+        <v>0.02505424391424442</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04173247595139346</v>
+        <v>0.04208216140356984</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01694651751658824</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04271757303277874</v>
+        <v>0.04286146068882114</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01990488755913984</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04316717172118091</v>
+        <v>0.0423837144124651</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03884740159520758</v>
+        <v>0.08044818710923446</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04086961739859938</v>
+        <v>0.04219282831592215</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05801173171017204</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04250529958012297</v>
+        <v>0.04286146068882114</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01895003252832657</v>
+        <v>0.02518098843326033</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04349425617882927</v>
+        <v>0.04364075997407243</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01991091244358997</v>
+        <v>0.05273635160783757</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04395202938883874</v>
+        <v>0.04315432740178265</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03876937087691371</v>
+        <v>0.08069429382384041</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04161270135130118</v>
+        <v>0.04295997064893892</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05816669350233056</v>
+        <v>0.02518098843326033</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04327812320885248</v>
+        <v>0.04364075997407243</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01799536942488349</v>
+        <v>0.02497682152409361</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04427093932487979</v>
+        <v>0.04442005925932372</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02004546661731396</v>
+        <v>0.05273485843960762</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04473688705649658</v>
+        <v>0.0439249403911002</v>
       </c>
       <c r="L122" t="n">
-        <v>0.03849363055773428</v>
+        <v>0.08068815162172038</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04235578530400299</v>
+        <v>0.04372711298195568</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05734104497466563</v>
+        <v>0.02497682152409361</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04405094683758198</v>
+        <v>0.04442005925932372</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01707897228627102</v>
+        <v>0.02516750019681628</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04504762247093031</v>
+        <v>0.04519935854457501</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02030600966500928</v>
+        <v>0.05261969990539447</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04552174472415441</v>
+        <v>0.04469555338041774</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03863068003790138</v>
+        <v>0.0798226669778816</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0430988692567048</v>
+        <v>0.04449425531497245</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0573471614450155</v>
+        <v>0.02516750019681628</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0448237704663115</v>
+        <v>0.04519935854457501</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01719747498898612</v>
+        <v>0.02505315648559665</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04582430561698083</v>
+        <v>0.0459786578298263</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02049000117137337</v>
+        <v>0.05239185181762704</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04630660239181225</v>
+        <v>0.04546616636973529</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03859678227274846</v>
+        <v>0.080488930254279</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04384195320940661</v>
+        <v>0.04526139764798922</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05709741823121839</v>
+        <v>0.02505315648559665</v>
       </c>
       <c r="O124" t="n">
-        <v>0.045596594095041</v>
+        <v>0.0459786578298263</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01834751140952572</v>
+        <v>0.02503392242460313</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04660098876303136</v>
+        <v>0.0467579571150776</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02069490072110367</v>
+        <v>0.05275163940893229</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04709146005947008</v>
+        <v>0.04623677935905283</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03869438157508528</v>
+        <v>0.07949115465511364</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04458503716210841</v>
+        <v>0.04602853998100599</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05662552451937414</v>
+        <v>0.02503392242460313</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04636941772377051</v>
+        <v>0.0467579571150776</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01752571542438673</v>
+        <v>0.02490993004800406</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04737767190908188</v>
+        <v>0.04753725640032889</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02081816789889764</v>
+        <v>0.05229938791193706</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04787631772712792</v>
+        <v>0.04700739234837038</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0390118266297608</v>
+        <v>0.07933355338458659</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04532812111481022</v>
+        <v>0.04679568231402275</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05723725637079669</v>
+        <v>0.02490993004800406</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04714224135250002</v>
+        <v>0.04753725640032889</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01772872091006612</v>
+        <v>0.0250813113899678</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0481543550551324</v>
+        <v>0.04831655568558019</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02115726228945275</v>
+        <v>0.05223542255926825</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04866117539478575</v>
+        <v>0.04777800533768792</v>
       </c>
       <c r="L127" t="n">
-        <v>0.03963746014280514</v>
+        <v>0.07932033964689861</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04607120506751203</v>
+        <v>0.04756282464703952</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05801975256112302</v>
+        <v>0.0250813113899678</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04791506498122953</v>
+        <v>0.04831655568558019</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01795316174306083</v>
+        <v>0.02504819848466271</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04893103820118292</v>
+        <v>0.04909585497083149</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02150964347746642</v>
+        <v>0.05216006858355277</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04944603306244359</v>
+        <v>0.04854861832700547</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04015962482024849</v>
+        <v>0.07855572664625088</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04681428902021384</v>
+        <v>0.04832996698005628</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05864297897908027</v>
+        <v>0.02504819848466271</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04868788860995904</v>
+        <v>0.04909585497083149</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02019567179986778</v>
+        <v>0.02491072336625716</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04970772134723345</v>
+        <v>0.04987515425608278</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02167277104763612</v>
+        <v>0.05207365121741747</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05023089073010142</v>
+        <v>0.04931923131632302</v>
       </c>
       <c r="L129" t="n">
-        <v>0.040366663368121</v>
+        <v>0.07824392758684434</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04755737297291564</v>
+        <v>0.04909710931307305</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05987690151339514</v>
+        <v>0.02491072336625716</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04946071223868855</v>
+        <v>0.04987515425608278</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01845288495698391</v>
+        <v>0.0247690180689195</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05048440449328397</v>
+        <v>0.05065445354133407</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02204410458465933</v>
+        <v>0.05207649569348927</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05101574839775926</v>
+        <v>0.05008984430564057</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04094691849245294</v>
+        <v>0.07808915567288</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04830045692561744</v>
+        <v>0.04986425164608982</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06129148605279466</v>
+        <v>0.0247690180689195</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05023353586741806</v>
+        <v>0.05065445354133407</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01872143509090618</v>
+        <v>0.0249232146268181</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05126108763933449</v>
+        <v>0.05143375282658536</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02212110367323346</v>
+        <v>0.05196892724439503</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05180060606541709</v>
+        <v>0.05086045729495812</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04168873289927447</v>
+        <v>0.07729562410855884</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04904354087831925</v>
+        <v>0.05063139397910658</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06215669848600558</v>
+        <v>0.0249232146268181</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05100635949614757</v>
+        <v>0.05143375282658536</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0189979560781315</v>
+        <v>0.02477344507412133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05203777078538502</v>
+        <v>0.05221305211183665</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02260122789805601</v>
+        <v>0.05175127110276168</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05258546373307493</v>
+        <v>0.05163107028427566</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04288044929461579</v>
+        <v>0.07716754609808174</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04978662483102106</v>
+        <v>0.05139853631212334</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06394250470175483</v>
+        <v>0.02477344507412133</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05177918312487708</v>
+        <v>0.05221305211183665</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01927908179515682</v>
+        <v>0.02481984144499752</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05281445393143554</v>
+        <v>0.05299235139708795</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02268193684382439</v>
+        <v>0.05192385250121603</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05337032140073276</v>
+        <v>0.05240168327359321</v>
       </c>
       <c r="L133" t="n">
-        <v>0.043810410384507</v>
+        <v>0.07670913484565001</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05052970878372287</v>
+        <v>0.05216567864514011</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06541887058876927</v>
+        <v>0.02481984144499752</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05255200675360659</v>
+        <v>0.05299235139708795</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02156144611847909</v>
+        <v>0.02456253577361506</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05359113707748606</v>
+        <v>0.05377165068233924</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02316069009523605</v>
+        <v>0.05178699667238504</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0541551790683906</v>
+        <v>0.05317229626291076</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04446695887497837</v>
+        <v>0.07572460355546434</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05127279273642468</v>
+        <v>0.05293282097815687</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0670557620357759</v>
+        <v>0.02456253577361506</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0533248303823361</v>
+        <v>0.05377165068233924</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02184168292459523</v>
+        <v>0.02470166009414231</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05436782022353658</v>
+        <v>0.05455094996759054</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02323494723698848</v>
+        <v>0.05134102884889558</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05494003673604843</v>
+        <v>0.05394290925222831</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0455384374720601</v>
+        <v>0.07571816543172588</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05201587668912648</v>
+        <v>0.05369996331117365</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06912314493150151</v>
+        <v>0.02470166009414231</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0540976540110656</v>
+        <v>0.05455094996759054</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02111642609000219</v>
+        <v>0.02453734644074762</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0551445033695871</v>
+        <v>0.05533024925284182</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02350216785377912</v>
+        <v>0.05118627426337452</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05572489440370627</v>
+        <v>0.05471352224154585</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04611318888178231</v>
+        <v>0.07509403367863554</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05275896064182829</v>
+        <v>0.05446710564419041</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07029098516467303</v>
+        <v>0.02453734644074762</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05487047763979511</v>
+        <v>0.05533024925284182</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02238230949119691</v>
+        <v>0.02436972684759935</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05592118651563763</v>
+        <v>0.05610954853809312</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02395981153030541</v>
+        <v>0.05102305814844874</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0565097520713641</v>
+        <v>0.0554841352308634</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04727955581017526</v>
+        <v>0.07375642150039435</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0535020445945301</v>
+        <v>0.05523424797720718</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07172924862401731</v>
+        <v>0.02436972684759935</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05564330126852463</v>
+        <v>0.05610954853809312</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02163596700467632</v>
+        <v>0.02449893334886588</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05669786966168815</v>
+        <v>0.05688884782334441</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02410533785126481</v>
+        <v>0.05125170573674515</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05729460973902193</v>
+        <v>0.05625474822018095</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04812588096326909</v>
+        <v>0.07380954210120333</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0542451285472319</v>
+        <v>0.05600139031022394</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07380790119826131</v>
+        <v>0.02449893334886588</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05641612489725413</v>
+        <v>0.05688884782334441</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02087403250693734</v>
+        <v>0.02442509797871555</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05747455280773867</v>
+        <v>0.05766814710859571</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02423620640135479</v>
+        <v>0.05087254226089064</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05807946740667978</v>
+        <v>0.0570253612094985</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04844050704709396</v>
+        <v>0.07255760868526345</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05498821249993371</v>
+        <v>0.05676853264324071</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07499690877613174</v>
+        <v>0.02442509797871555</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05718894852598363</v>
+        <v>0.05766814710859571</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02109313987447695</v>
+        <v>0.02424835277131673</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05825123595378919</v>
+        <v>0.058447446393847</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02464987676527278</v>
+        <v>0.05098589295351202</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05886432507433761</v>
+        <v>0.05779597419881605</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0497117767676801</v>
+        <v>0.07250483445677569</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05573129645263551</v>
+        <v>0.05753567497625748</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07676623724635573</v>
+        <v>0.02424835277131673</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05796177215471314</v>
+        <v>0.058447446393847</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02128992298379208</v>
+        <v>0.02426882976083779</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05902791909983972</v>
+        <v>0.0592267456790983</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02474380852771625</v>
+        <v>0.05059208304723634</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05964918274199543</v>
+        <v>0.05856658718813359</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04992803283105773</v>
+        <v>0.07115543261994112</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05647438040533732</v>
+        <v>0.05830281730927424</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07788585249766</v>
+        <v>0.02426882976083779</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05873459578344266</v>
+        <v>0.0592267456790983</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02146101571137964</v>
+        <v>0.0239866609814471</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05980460224589024</v>
+        <v>0.06000604496434959</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02481546127338262</v>
+        <v>0.05019143777469029</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06043404040965328</v>
+        <v>0.05933720017745114</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05107761794325702</v>
+        <v>0.0704136163789606</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05721746435803914</v>
+        <v>0.05906995964229102</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07892572041877149</v>
+        <v>0.0239866609814471</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05950741941217216</v>
+        <v>0.06000604496434959</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02260305193373659</v>
+        <v>0.02410197846731298</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06058128539194076</v>
+        <v>0.06078534424960088</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02518121385566212</v>
+        <v>0.04988428236850095</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06121889807731111</v>
+        <v>0.06010781316676869</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05134887481030809</v>
+        <v>0.06998359893803524</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05796054831074094</v>
+        <v>0.05983710197530778</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07915580689841706</v>
+        <v>0.02410197846731298</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06028024304090167</v>
+        <v>0.06078534424960088</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02370952772806101</v>
+        <v>0.02381491425260382</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06135796853799128</v>
+        <v>0.06156464353485218</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02519281603212574</v>
+        <v>0.05017094206129505</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06200375574496894</v>
+        <v>0.06087842615608623</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05173014613824117</v>
+        <v>0.06946959350136606</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05870363226344275</v>
+        <v>0.06060424430832454</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08069429382384041</v>
+        <v>0.02381491425260382</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06105306666963117</v>
+        <v>0.06156464353485218</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02380588198487263</v>
+        <v>0.02392560037148798</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06213465168404181</v>
+        <v>0.06234394282010346</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02522442876333118</v>
+        <v>0.04945174208569955</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06278861341262679</v>
+        <v>0.06164903914540378</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0523097746330865</v>
+        <v>0.06887581327315395</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05944671621614455</v>
+        <v>0.06137138664134131</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08032366692526199</v>
+        <v>0.02392560037148798</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06182589029836069</v>
+        <v>0.06234394282010346</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02189834558193517</v>
+        <v>0.02363416885813382</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06291133483009233</v>
+        <v>0.06312324210535476</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02535692435080651</v>
+        <v>0.04922700767434135</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06357347108028462</v>
+        <v>0.06241965213472132</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05247610300087419</v>
+        <v>0.06880647145759988</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06018980016884636</v>
+        <v>0.06213852897435807</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08127622559008563</v>
+        <v>0.02363416885813382</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0625987139270902</v>
+        <v>0.06312324210535476</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02298980410091099</v>
+        <v>0.02354075174670971</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06368801797614286</v>
+        <v>0.06390254139060605</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02548978990364587</v>
+        <v>0.0494970640598473</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06435832874794245</v>
+        <v>0.06319026512403887</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05293775383975127</v>
+        <v>0.06806578125890506</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06093288412154817</v>
+        <v>0.06290567130737484</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08092113662970019</v>
+        <v>0.02354075174670971</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0633715375558197</v>
+        <v>0.06390254139060605</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02407998520529833</v>
+        <v>0.02344548107138399</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06446470112219338</v>
+        <v>0.06468184067585735</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02572251253094333</v>
+        <v>0.04926223647484432</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06514318641560028</v>
+        <v>0.06396087811335642</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05283585576736527</v>
+        <v>0.06715795588127021</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06167596807424997</v>
+        <v>0.06367281364039161</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08135825106431083</v>
+        <v>0.02344548107138399</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06414436118454921</v>
+        <v>0.06468184067585735</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02416861655859548</v>
+        <v>0.02334848886632504</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0652413842682439</v>
+        <v>0.06546113996110865</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02595457934179304</v>
+        <v>0.04872285015195923</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06592804408325811</v>
+        <v>0.06473149110267397</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05251917135899928</v>
+        <v>0.06708720852889655</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06241905202695178</v>
+        <v>0.06443995597340837</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08178741991412303</v>
+        <v>0.02334848886632504</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06491718481327872</v>
+        <v>0.06546113996110865</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02425542582430071</v>
+        <v>0.02334990716570122</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06601806741429442</v>
+        <v>0.06624043924635993</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02598547744528913</v>
+        <v>0.04867923032381899</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06671290175091595</v>
+        <v>0.06550210409199152</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05258609848394877</v>
+        <v>0.06605775240598488</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06316213597965359</v>
+        <v>0.06520709830642514</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08240849419934193</v>
+        <v>0.02334990716570122</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06569000844200823</v>
+        <v>0.06624043924635993</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02234014066591226</v>
+        <v>0.02324986800368088</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06679475056034495</v>
+        <v>0.06701973853161124</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02611469395052571</v>
+        <v>0.04833170222305044</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06749775941857379</v>
+        <v>0.06627271708130907</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05233763077541539</v>
+        <v>0.0656657123925955</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06390521993235539</v>
+        <v>0.06597424063944191</v>
       </c>
       <c r="N151" t="n">
-        <v>0.082521324940173</v>
+        <v>0.02324986800368088</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06646283207073773</v>
+        <v>0.06701973853161124</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02442248874692841</v>
+        <v>0.02314850341443239</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06757143370639547</v>
+        <v>0.06779903781686251</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02634171596659689</v>
+        <v>0.04828059108228053</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06828261708623162</v>
+        <v>0.06704333007062661</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05277476186660077</v>
+        <v>0.06608975043778564</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0646483038850572</v>
+        <v>0.06674138297245868</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08272576315682151</v>
+        <v>0.02314850341443239</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06723565569946724</v>
+        <v>0.06779903781686251</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02350219773084744</v>
+        <v>0.02314594543212412</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06834811685244599</v>
+        <v>0.06857833710211382</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02646603060259679</v>
+        <v>0.04802622213413607</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06906747475388945</v>
+        <v>0.06781394305994415</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05219848539070648</v>
+        <v>0.06522776586462087</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06539138783775901</v>
+        <v>0.06750852530547544</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08282165986949297</v>
+        <v>0.02314594543212412</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06800847932819676</v>
+        <v>0.06857833710211382</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02257899528116759</v>
+        <v>0.0228423260909244</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06912479999849651</v>
+        <v>0.0693576363873651</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02658712496761953</v>
+        <v>0.04736892061124398</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0698523324215473</v>
+        <v>0.0685845560492617</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05260979498093424</v>
+        <v>0.06477902154666632</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06613447179046081</v>
+        <v>0.0682756676384922</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08310886609839252</v>
+        <v>0.0228423260909244</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06878130295692626</v>
+        <v>0.0693576363873651</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02365260906138714</v>
+        <v>0.02283777742500162</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06990148314454704</v>
+        <v>0.0701369356726164</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02660448617075924</v>
+        <v>0.04740901174623119</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07063719008920513</v>
+        <v>0.06935516903857925</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05230968427048557</v>
+        <v>0.06434278035748675</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06687755574316262</v>
+        <v>0.06904280997150898</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08408723286372549</v>
+        <v>0.02283777742500162</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06955412658565577</v>
+        <v>0.0701369356726164</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02272276673500435</v>
+        <v>0.02283243146852415</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07067816629059756</v>
+        <v>0.0709162349578677</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02681760132111004</v>
+        <v>0.04694682077172452</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07142204775686296</v>
+        <v>0.07012578202789679</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05229914689256215</v>
+        <v>0.06441830517064745</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06762063969586442</v>
+        <v>0.06980995230452573</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08355661118569729</v>
+        <v>0.02283243146852415</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07032695021438527</v>
+        <v>0.0709162349578677</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02478919596551751</v>
+        <v>0.02272642025566032</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07145484943664808</v>
+        <v>0.07169553424311899</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02692595752776604</v>
+        <v>0.04678267292035088</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0722069054245208</v>
+        <v>0.07089639501721434</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0521791764803656</v>
+        <v>0.06360485885971329</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06836372364856624</v>
+        <v>0.07057709463754251</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08401685208451332</v>
+        <v>0.02272642025566032</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07109977384311479</v>
+        <v>0.07169553424311899</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02485162441642486</v>
+        <v>0.0224198758205785</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0722315325826986</v>
+        <v>0.07247483352837029</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02692904189982136</v>
+        <v>0.04671689342473714</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07299176309217863</v>
+        <v>0.07166700800653189</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05215076666709753</v>
+        <v>0.06390170429824926</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06910680760126804</v>
+        <v>0.07134423697055928</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08416780658037876</v>
+        <v>0.0224198758205785</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0718725974718443</v>
+        <v>0.07247483352837029</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02490977975122466</v>
+        <v>0.02251293019744707</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07300821572874913</v>
+        <v>0.07325413281362157</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02702634154637011</v>
+        <v>0.04644980751751027</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07377662075983646</v>
+        <v>0.07243762099584944</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05191491108595961</v>
+        <v>0.06360810435982045</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06984989155396985</v>
+        <v>0.07211137930357603</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08430932569349908</v>
+        <v>0.02251293019744707</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0726454211005738</v>
+        <v>0.07325413281362157</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0239633896334152</v>
+        <v>0.02230571542043439</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07378489887479965</v>
+        <v>0.07403343209887288</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02721734357650644</v>
+        <v>0.04588174043129703</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07456147842749429</v>
+        <v>0.07320823398516699</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0518726033701534</v>
+        <v>0.06332332191799173</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07059297550667165</v>
+        <v>0.07287852163659281</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08514126044407949</v>
+        <v>0.02230571542043439</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07341824472930331</v>
+        <v>0.07403343209887288</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02401218172649473</v>
+        <v>0.02209836352370881</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07456158202085017</v>
+        <v>0.07481273138412416</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02720153509932446</v>
+        <v>0.04581301739872443</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07534633609515214</v>
+        <v>0.07397884697448454</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05122483715288059</v>
+        <v>0.06304661984632831</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07133605945937346</v>
+        <v>0.07364566396960957</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08536346185232546</v>
+        <v>0.02209836352370881</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07419106835803282</v>
+        <v>0.07481273138412416</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02305588369396151</v>
+        <v>0.02199100654143868</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07533826516690069</v>
+        <v>0.07559203066937546</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02727840322391827</v>
+        <v>0.04564396365241924</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07613119376280997</v>
+        <v>0.07474945996380207</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05147260606734275</v>
+        <v>0.06297726101839501</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07207914341207527</v>
+        <v>0.07441280630262634</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08517578093844219</v>
+        <v>0.02199100654143868</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07496389198676233</v>
+        <v>0.07559203066937546</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02409422319931384</v>
+        <v>0.02188377650779237</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07611494831295121</v>
+        <v>0.07637132995462674</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02744743505938201</v>
+        <v>0.04537490442500841</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0769160514304678</v>
+        <v>0.07552007295311962</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0510169037467415</v>
+        <v>0.06221450830775693</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07282222736477707</v>
+        <v>0.0751799486356431</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08597806872263514</v>
+        <v>0.02188377650779237</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07573671561549183</v>
+        <v>0.07637132995462674</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02412692790604996</v>
+        <v>0.02197680545693827</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07689163145900174</v>
+        <v>0.07715062923987805</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02730811771480977</v>
+        <v>0.04490616494911884</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07770090909812565</v>
+        <v>0.07629068594243717</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05095872382427852</v>
+        <v>0.06175762458797907</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07356531131747888</v>
+        <v>0.07594709096865987</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08587017622510951</v>
+        <v>0.02197680545693827</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07650953924422135</v>
+        <v>0.07715062923987805</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02515372547766812</v>
+        <v>0.02167022542304468</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07766831460505226</v>
+        <v>0.07792992852512932</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02735993829929571</v>
+        <v>0.04443807045737735</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07848576676578348</v>
+        <v>0.07706129893175472</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05079905993315542</v>
+        <v>0.06210587273262641</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07430839527018068</v>
+        <v>0.07671423330167663</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0863519544660708</v>
+        <v>0.02167022542304468</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07728236287295086</v>
+        <v>0.07792992852512932</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02317434357766662</v>
+        <v>0.02176086461896103</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07844499775110278</v>
+        <v>0.07870922781038063</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02760238392193394</v>
+        <v>0.04417094618241094</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07927062443344131</v>
+        <v>0.07783191192107226</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05083890570657379</v>
+        <v>0.06115851561526403</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07505147922288251</v>
+        <v>0.0774813756346934</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08602325446572423</v>
+        <v>0.02176086461896103</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07805518650168036</v>
+        <v>0.07870922781038063</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02418850986954371</v>
+        <v>0.02144099643925322</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0792216808971533</v>
+        <v>0.07948852709563192</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02753494169181855</v>
+        <v>0.04420511735684646</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08005548210109914</v>
+        <v>0.07860252491038981</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05047925477773527</v>
+        <v>0.06131481610945688</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07579456317558431</v>
+        <v>0.07824851796771018</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08588392724427513</v>
+        <v>0.02144099643925322</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07882801013040987</v>
+        <v>0.07948852709563192</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02419595201679767</v>
+        <v>0.0213110387918326</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07999836404320383</v>
+        <v>0.08026782638088321</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0276570987180437</v>
+        <v>0.04364090921331071</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08084033976875697</v>
+        <v>0.07937313789970736</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05042110077984152</v>
+        <v>0.06117403708876995</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0765376471282861</v>
+        <v>0.07901566030072693</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08683382382192883</v>
+        <v>0.0213110387918326</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07960083375913939</v>
+        <v>0.08026782638088321</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02419534650651901</v>
+        <v>0.02137180237334357</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08077504718925435</v>
+        <v>0.08104712566613452</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02766834210970349</v>
+        <v>0.04357864698443062</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0816251974364148</v>
+        <v>0.08014375088902491</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0504654373460941</v>
+        <v>0.06043544142676832</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07728073108098792</v>
+        <v>0.0797828026337437</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08687279521889085</v>
+        <v>0.02137180237334357</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08037365738786889</v>
+        <v>0.08104712566613452</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02417860221141903</v>
+        <v>0.0210240978804305</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08155173033530487</v>
+        <v>0.0818264249513858</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02766738231021104</v>
+        <v>0.04321850790876003</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08241005510407265</v>
+        <v>0.08091436387834246</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05001325810969467</v>
+        <v>0.06089829199701702</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07802381503368971</v>
+        <v>0.08054994496676048</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08710069245536622</v>
+        <v>0.0210240978804305</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0811464810165984</v>
+        <v>0.0818264249513858</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02314487354698452</v>
+        <v>0.02086873600973776</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08232841348135539</v>
+        <v>0.0826057242366371</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02764977603235544</v>
+        <v>0.04305402198025232</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08319491277173048</v>
+        <v>0.08168497686766001</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05016555670384487</v>
+        <v>0.06016185167308097</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07876689898639154</v>
+        <v>0.08131708729977723</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08711736655156055</v>
+        <v>0.02086873600973776</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0819193046453279</v>
+        <v>0.0826057242366371</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02309514021786033</v>
+        <v>0.02090652745790973</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08310509662740592</v>
+        <v>0.08338502352188838</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02751552400435056</v>
+        <v>0.0427816693020289</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08397977043938831</v>
+        <v>0.08245558985697755</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04992332676174632</v>
+        <v>0.05982538332852522</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07950998293909334</v>
+        <v>0.08208422963279401</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08692266852767894</v>
+        <v>0.02090652745790973</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08269212827405742</v>
+        <v>0.08338502352188838</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02403038192869122</v>
+        <v>0.02073828292159083</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08388177977345644</v>
+        <v>0.08416432280713969</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02746537170794072</v>
+        <v>0.04230156165242921</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08476462810704616</v>
+        <v>0.0832262028462951</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04968756191660059</v>
+        <v>0.06028814983691466</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08025306689179515</v>
+        <v>0.08285137196581077</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08711644940392688</v>
+        <v>0.02073828292159083</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08346495190278692</v>
+        <v>0.08416432280713969</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02395157838412204</v>
+        <v>0.02056481309742542</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08465846291950696</v>
+        <v>0.08494362209239097</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02730006462487015</v>
+        <v>0.04201381080979266</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08554948577470399</v>
+        <v>0.08399681583561265</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04955784410021105</v>
+        <v>0.05924941407181444</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08099615084449695</v>
+        <v>0.08361851429882754</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08689856020050968</v>
+        <v>0.02056481309742542</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08423777553151643</v>
+        <v>0.08494362209239097</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02385970928879756</v>
+        <v>0.02018692868205788</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08543514606555748</v>
+        <v>0.08572292137764227</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02732034823688317</v>
+        <v>0.04191852855245876</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08633434344236182</v>
+        <v>0.0847674288249302</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04923092065639159</v>
+        <v>0.05970843890678962</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08173923479719876</v>
+        <v>0.0843856566318443</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08686885193763272</v>
+        <v>0.02018692868205788</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08501059916024593</v>
+        <v>0.08572292137764227</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02475575434736266</v>
+        <v>0.02010544037213259</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08621182921160801</v>
+        <v>0.08650222066289356</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02712696802572404</v>
+        <v>0.04181582665876682</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08711920111001965</v>
+        <v>0.08553804181424775</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04910634053935431</v>
+        <v>0.05926448721540511</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08248231874990057</v>
+        <v>0.08515279896486107</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08722717563550114</v>
+        <v>0.02010544037213259</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08578342278897545</v>
+        <v>0.08650222066289356</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02464069326446208</v>
+        <v>0.02002115886429397</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08698851235765853</v>
+        <v>0.08728151994814486</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02722066947313703</v>
+        <v>0.0414058169070563</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08790405877767749</v>
+        <v>0.0863086548035653</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04888381710036616</v>
+        <v>0.05921682187122596</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08322540270260237</v>
+        <v>0.08591994129787783</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08707338231432055</v>
+        <v>0.02002115886429397</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08655624641770496</v>
+        <v>0.08728151994814486</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02351550574474068</v>
+        <v>0.01963489485518632</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08776519550370905</v>
+        <v>0.08806081923339615</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02710219806086643</v>
+        <v>0.04088861107566663</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08868891644533532</v>
+        <v>0.08707926779288284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04926306369069389</v>
+        <v>0.0583647057478171</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08396848665530418</v>
+        <v>0.0866870836308946</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08740732299429599</v>
+        <v>0.01963489485518632</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08732907004643446</v>
+        <v>0.08806081923339615</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02338117149284326</v>
+        <v>0.01964745904145414</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08854187864975957</v>
+        <v>0.08884011851864744</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0268722992706565</v>
+        <v>0.04036432094293724</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08947377411299316</v>
+        <v>0.08784988078220039</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04914379366160443</v>
+        <v>0.0588074017187436</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08471157060800598</v>
+        <v>0.08745422596391136</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08762884869563314</v>
+        <v>0.01964745904145414</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08810189367516397</v>
+        <v>0.08884011851864744</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02223867021341462</v>
+        <v>0.01925966211974173</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0893185617958101</v>
+        <v>0.08961941780389875</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02673171858425154</v>
+        <v>0.04033305828720757</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09025863178065099</v>
+        <v>0.08862049377151793</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04892572036436466</v>
+        <v>0.05814417265757049</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08545465456070779</v>
+        <v>0.08822136829692813</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08733781043853694</v>
+        <v>0.01925966211974173</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08887471730389349</v>
+        <v>0.08961941780389875</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02208898161109958</v>
+        <v>0.01927231478669351</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09009524494186062</v>
+        <v>0.09039871708915002</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02658120148339582</v>
+        <v>0.03999493488681705</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09104348944830883</v>
+        <v>0.08939110676083548</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04860855715024145</v>
+        <v>0.05807428143786286</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0861977385134096</v>
+        <v>0.08898851062994489</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08719963008878884</v>
+        <v>0.01927231478669351</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08964754093262299</v>
+        <v>0.09039871708915002</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02193308539054296</v>
+        <v>0.01898622773895384</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09087192808791116</v>
+        <v>0.09117801637440133</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0263214934498336</v>
+        <v>0.03935006252010506</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09182834711596666</v>
+        <v>0.09016171975015302</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04839201737050161</v>
+        <v>0.05739699093318545</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08694082246611141</v>
+        <v>0.08975565296296167</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08714534994012074</v>
+        <v>0.01898622773895384</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0904203645613525</v>
+        <v>0.09117801637440133</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02377196125638957</v>
+        <v>0.01870221167316712</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09164861123396166</v>
+        <v>0.09195731565965261</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02625333996530918</v>
+        <v>0.03939855296541103</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0926132047836245</v>
+        <v>0.09093233273947057</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0482758143764121</v>
+        <v>0.05711156401710349</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08768390641881321</v>
+        <v>0.09052279529597844</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08727956965414702</v>
+        <v>0.01870221167316712</v>
       </c>
       <c r="O183" t="n">
-        <v>0.091193188190082</v>
+        <v>0.09195731565965261</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02360658891328421</v>
+        <v>0.01862107728597773</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09242529438001219</v>
+        <v>0.09273661494490391</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02617748651156683</v>
+        <v>0.03874051800107442</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09339806245128233</v>
+        <v>0.09170294572878812</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04855966151923974</v>
+        <v>0.05681726356318195</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08842699037151502</v>
+        <v>0.09128993762899519</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08670927517733479</v>
+        <v>0.01862107728597773</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09196601181881152</v>
+        <v>0.09273661494490391</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02343794806587171</v>
+        <v>0.01844363527403008</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09320197752606271</v>
+        <v>0.09351591423015521</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02579467857035081</v>
+        <v>0.03877606940543465</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09418292011894017</v>
+        <v>0.09247355871810567</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04844327215025143</v>
+        <v>0.05691335244498585</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08917007432421682</v>
+        <v>0.09205707996201197</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08574145245615128</v>
+        <v>0.01844363527403008</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09273883544754102</v>
+        <v>0.09351591423015521</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02326701841879686</v>
+        <v>0.01817069633396851</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09397866067211325</v>
+        <v>0.0942952135154065</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02580566162340545</v>
+        <v>0.03830531895683115</v>
       </c>
       <c r="K186" t="n">
-        <v>0.094967777786598</v>
+        <v>0.09324417170742322</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04822635962071398</v>
+        <v>0.05609909353608011</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08991315827691863</v>
+        <v>0.09282422229502874</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08548308743706379</v>
+        <v>0.01817069633396851</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09351165907627053</v>
+        <v>0.0942952135154065</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02309477967670449</v>
+        <v>0.01820307116243743</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09475534381816375</v>
+        <v>0.09507451280065779</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02551118115247496</v>
+        <v>0.0379283784336033</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09575263545425583</v>
+        <v>0.09401478469674077</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04780863728189425</v>
+        <v>0.05577374971002985</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09065624222962045</v>
+        <v>0.0935913646280455</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08474116606653959</v>
+        <v>0.01820307116243743</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09428448270500005</v>
+        <v>0.09507451280065779</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02092221154423941</v>
+        <v>0.01804157045608119</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09553202696421428</v>
+        <v>0.09585381208590908</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02521198263930365</v>
+        <v>0.03744535961409054</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09653749312191366</v>
+        <v>0.09478539768605831</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04808981848505922</v>
+        <v>0.05613658384039999</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09139932618232224</v>
+        <v>0.09435850696106227</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0843226742910459</v>
+        <v>0.01804157045608119</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09505730633372955</v>
+        <v>0.09585381208590908</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02175029372604644</v>
+        <v>0.01788700491154423</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0963087101102648</v>
+        <v>0.09663311137116037</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0251088115656358</v>
+        <v>0.03675637427663236</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09732235078957151</v>
+        <v>0.09555601067537585</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04786961658147568</v>
+        <v>0.0549868588007556</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09214241013502406</v>
+        <v>0.09512564929407903</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08303459805704982</v>
+        <v>0.01788700491154423</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09583012996245906</v>
+        <v>0.09663311137116037</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02158000592677037</v>
+        <v>0.01764018522547088</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09708539325631534</v>
+        <v>0.09741241065641167</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02500241341321569</v>
+        <v>0.03666153419956805</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09810720845722934</v>
+        <v>0.0963266236646934</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04784774492241051</v>
+        <v>0.0547238374646617</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09288549408772585</v>
+        <v>0.0958927916270958</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08278392331101886</v>
+        <v>0.01764018522547088</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09660295359118858</v>
+        <v>0.09741241065641167</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02141232785105603</v>
+        <v>0.01760192209450558</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09786207640236584</v>
+        <v>0.09819170994166297</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02469353366378757</v>
+        <v>0.03616095116123721</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09889206612488717</v>
+        <v>0.09709723665401095</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04752391685913057</v>
+        <v>0.05444678270568321</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09362857804042768</v>
+        <v>0.09665993396011256</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08157763599942008</v>
+        <v>0.01760192209450558</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09737577721991808</v>
+        <v>0.09819170994166297</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02224823920354822</v>
+        <v>0.01727271145537235</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09863875954841637</v>
+        <v>0.09897100922691425</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02438291779909574</v>
+        <v>0.03575473693997913</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09967692379254502</v>
+        <v>0.09786784964332849</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04759784574290277</v>
+        <v>0.05435495739738522</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09437166199312948</v>
+        <v>0.09742707629312934</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08072272206872078</v>
+        <v>0.01727271145537235</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09814860084864759</v>
+        <v>0.09897100922691425</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02208871968889176</v>
+        <v>0.01734856576792704</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09941544269446689</v>
+        <v>0.09975030851216556</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0241713113008845</v>
+        <v>0.03534300331413331</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1004617814602028</v>
+        <v>0.09863846263264604</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04746924492499394</v>
+        <v>0.05414762441333276</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09511474594583129</v>
+        <v>0.09819421862614609</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07952616746538821</v>
+        <v>0.01734856576792704</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0989214244773771</v>
+        <v>0.09975030851216556</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01993474901173146</v>
+        <v>0.01712789691216436</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1001921258405174</v>
+        <v>0.1005296077974168</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02405945965089808</v>
+        <v>0.03502586206203914</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1012466391278607</v>
+        <v>0.09940907562196359</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04733782775667097</v>
+        <v>0.05302404662709076</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09585782989853309</v>
+        <v>0.09896136095916286</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0787949581358896</v>
+        <v>0.01712789691216436</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09969424810610661</v>
+        <v>0.1005296077974168</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02078730687671214</v>
+        <v>0.01701050945147187</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1009688089865679</v>
+        <v>0.1013089070826681</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02394810833088078</v>
+        <v>0.03430342496203603</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1020314967955185</v>
+        <v>0.1001796886112811</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0468033075892007</v>
+        <v>0.0531834869122243</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09660091385123488</v>
+        <v>0.09972850329217964</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07753608002669216</v>
+        <v>0.01701050945147187</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1004670717348361</v>
+        <v>0.1013089070826681</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02164737298847862</v>
+        <v>0.01689620794923702</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1017454921326185</v>
+        <v>0.1020882063679194</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02373800282257689</v>
+        <v>0.03407580379246344</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1028163544631763</v>
+        <v>0.1009503016005987</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04666539777385006</v>
+        <v>0.05222520814229831</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09734399780393671</v>
+        <v>0.1004956456251964</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07605651908426325</v>
+        <v>0.01689620794923702</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1012398953635656</v>
+        <v>0.1020882063679194</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02051592705167567</v>
+        <v>0.01688479696884736</v>
       </c>
       <c r="G197" t="n">
-        <v>0.102522175278669</v>
+        <v>0.1028675056531707</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02352988860773067</v>
+        <v>0.03344311033166078</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1036012121308342</v>
+        <v>0.1017209145899162</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04692381166188586</v>
+        <v>0.05164847319087784</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09808708175663851</v>
+        <v>0.1012627879582132</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07496326125507002</v>
+        <v>0.01688479696884736</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1020127189922951</v>
+        <v>0.1028675056531707</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02139394877094815</v>
+        <v>0.0167760810736903</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1032988584247195</v>
+        <v>0.103646804938422</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0233245111680864</v>
+        <v>0.03330545635796744</v>
       </c>
       <c r="K198" t="n">
-        <v>0.104386069798492</v>
+        <v>0.1024915275792338</v>
       </c>
       <c r="L198" t="n">
-        <v>0.046678262604575</v>
+        <v>0.05125254493152798</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09883016570934032</v>
+        <v>0.1020299302912299</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07386329248557977</v>
+        <v>0.0167760810736903</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1027855426210246</v>
+        <v>0.103646804938422</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02128241785094084</v>
+        <v>0.01666986482715345</v>
       </c>
       <c r="G199" t="n">
-        <v>0.10407554157077</v>
+        <v>0.1044261042236733</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02312261598538834</v>
+        <v>0.03256295364972292</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1051709274661499</v>
+        <v>0.1032621405685513</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04622846395318431</v>
+        <v>0.05133668623781362</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09957324966204212</v>
+        <v>0.1027970726242467</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07276359872225963</v>
+        <v>0.01666986482715345</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1035583662497542</v>
+        <v>0.1044261042236733</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01918231399629856</v>
+        <v>0.01646595279262426</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1048522247168205</v>
+        <v>0.1052054035089246</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02292494854138082</v>
+        <v>0.03261571398526661</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1059557851338077</v>
+        <v>0.1040327535578689</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04647412905898071</v>
+        <v>0.05030015998329984</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1003163336147439</v>
+        <v>0.1035642149572635</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07217116591157702</v>
+        <v>0.01646595279262426</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1043311898784837</v>
+        <v>0.1052054035089246</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02009461691166614</v>
+        <v>0.01646414953349024</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1056289078628711</v>
+        <v>0.1059847027941759</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02253225431780805</v>
+        <v>0.03216384914293793</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1067406428014655</v>
+        <v>0.1048033665471864</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04611497127323105</v>
+        <v>0.05021343402483514</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1010594175674457</v>
+        <v>0.1043313572902802</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07119297999999902</v>
+        <v>0.01646414953349024</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1051040135072132</v>
+        <v>0.1059847027941759</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02102030630168839</v>
+        <v>0.01626425961313888</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1064055910089216</v>
+        <v>0.1067640020794272</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02244527879641436</v>
+        <v>0.03150747090107631</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1075255004691233</v>
+        <v>0.105573979536504</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0458507039472022</v>
+        <v>0.04875468768194313</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1018025015201475</v>
+        <v>0.105098499623297</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07023602693399295</v>
+        <v>0.01626425961313888</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1058768371359427</v>
+        <v>0.1067640020794272</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01996036187101011</v>
+        <v>0.01616608759495772</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1071822741549721</v>
+        <v>0.1075433013646785</v>
       </c>
       <c r="J203" t="n">
-        <v>0.022164767458944</v>
+        <v>0.031137301549402</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1083103581367812</v>
+        <v>0.1063445925258215</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04588104043216104</v>
+        <v>0.04822476535304915</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1025455854728494</v>
+        <v>0.1058656419563137</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0689072926600261</v>
+        <v>0.01616608759495772</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1066496607646722</v>
+        <v>0.1075433013646785</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0199157633242761</v>
+        <v>0.01616943804233423</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1079589573010226</v>
+        <v>0.1083226006499298</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02219146578714126</v>
+        <v>0.03042447553226174</v>
       </c>
       <c r="K204" t="n">
-        <v>0.109095215804439</v>
+        <v>0.1071152055151391</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04550569407937441</v>
+        <v>0.04714040574062489</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1032886694255511</v>
+        <v>0.1066327842893305</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06751376312456558</v>
+        <v>0.01616943804233423</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1074224843934017</v>
+        <v>0.1083226006499298</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01988749036613119</v>
+        <v>0.01597411551865592</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1087356404470732</v>
+        <v>0.1091018999351811</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02202611504210543</v>
+        <v>0.02977293505319534</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1098800734720969</v>
+        <v>0.1078858185044566</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04522437824010919</v>
+        <v>0.04561834754714211</v>
       </c>
       <c r="M205" t="n">
-        <v>0.104031753378253</v>
+        <v>0.1073999266223473</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06706242427407877</v>
+        <v>0.01597411551865592</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1081953080221312</v>
+        <v>0.1091018999351811</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01887652270122019</v>
+        <v>0.0159799245873103</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1095123235931237</v>
+        <v>0.1098811992204324</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02186467781991021</v>
+        <v>0.02908940424059397</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1106649311397547</v>
+        <v>0.1086564314937742</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04493680626563229</v>
+        <v>0.04497532947507271</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1047748373309548</v>
+        <v>0.1081670689553641</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06645501851037633</v>
+        <v>0.0159799245873103</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1089681316508607</v>
+        <v>0.1098811992204324</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02087642210137511</v>
+        <v>0.01578666981168488</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1102890067391742</v>
+        <v>0.1106604985056836</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02170315112676335</v>
+        <v>0.02858060722284883</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1114497888074125</v>
+        <v>0.1094270444830917</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04504269150721052</v>
+        <v>0.04342809022688832</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1055179212836566</v>
+        <v>0.1089342112883808</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06535314745816867</v>
+        <v>0.01578666981168488</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1097409552795902</v>
+        <v>0.1106604985056836</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01987648460767351</v>
+        <v>0.01579415575516713</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1110656898852247</v>
+        <v>0.111439797790935</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02134153425492709</v>
+        <v>0.02785326812835109</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1122346464750704</v>
+        <v>0.1101976574724093</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04464174731611079</v>
+        <v>0.04129336850506082</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1062610052363584</v>
+        <v>0.1097013536213976</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06424765575001967</v>
+        <v>0.01579415575516713</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1105137789083197</v>
+        <v>0.111439797790935</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01887666419019778</v>
+        <v>0.01570218698114459</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1118423730312753</v>
+        <v>0.1122190970761862</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02117982649666361</v>
+        <v>0.02751411108549184</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1130195041427282</v>
+        <v>0.1109682704617268</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04463368704359996</v>
+        <v>0.04028790301206181</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1070040891890602</v>
+        <v>0.1104684959544144</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06303851589295628</v>
+        <v>0.01570218698114459</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1112866025370493</v>
+        <v>0.1122190970761862</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02087702274271301</v>
+        <v>0.01561056805300473</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1126190561773258</v>
+        <v>0.1129983963614375</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02101802714423513</v>
+        <v>0.02686986022266244</v>
       </c>
       <c r="K210" t="n">
-        <v>0.113804361810386</v>
+        <v>0.1117388834510444</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04451822404094494</v>
+        <v>0.03802843245036336</v>
       </c>
       <c r="M210" t="n">
-        <v>0.107747173141762</v>
+        <v>0.1112356382874311</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06282570039400481</v>
+        <v>0.01561056805300473</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1120594261657787</v>
+        <v>0.1129983963614375</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0208776221589843</v>
+        <v>0.01551910353413508</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1133957393233763</v>
+        <v>0.1137776956466888</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02085613548990382</v>
+        <v>0.02632723966825395</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1145892194780439</v>
+        <v>0.1125094964403619</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04429490373066594</v>
+        <v>0.03623169552243694</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1084902570944638</v>
+        <v>0.1120027806204479</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06160918176019198</v>
+        <v>0.01551910353413508</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1128322497945083</v>
+        <v>0.1137776956466888</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0188785243327767</v>
+        <v>0.01542759798792313</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1141724224694268</v>
+        <v>0.1145569949319401</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02089415082593193</v>
+        <v>0.02539297355065753</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1153740771457017</v>
+        <v>0.1132801094296794</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04365648469870401</v>
+        <v>0.03461443093075461</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1092333410471656</v>
+        <v>0.1127699229534646</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06088893249854443</v>
+        <v>0.01542759798792313</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1136050734232378</v>
+        <v>0.1145569949319401</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01987979115785533</v>
+        <v>0.0153358559777564</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1149491056154773</v>
+        <v>0.1153362942171914</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02073207244458164</v>
+        <v>0.02517378599826445</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1161589348133596</v>
+        <v>0.114050722418997</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04359940945892019</v>
+        <v>0.03349337737778801</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1099764249998674</v>
+        <v>0.1135370652864814</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05956492511608869</v>
+        <v>0.0153358559777564</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1143778970519673</v>
+        <v>0.1153362942171914</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01888148452798524</v>
+        <v>0.01524368206702237</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1157257887615279</v>
+        <v>0.1161155935024427</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02036989963811514</v>
+        <v>0.02457640113946583</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1169437924810174</v>
+        <v>0.1148213354083145</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04352391921175841</v>
+        <v>0.03168527356600886</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1107195089525692</v>
+        <v>0.1143042076194982</v>
       </c>
       <c r="N214" t="n">
-        <v>0.05833713211985131</v>
+        <v>0.01524368206702237</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1151507206806968</v>
+        <v>0.1161155935024427</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01888366633693153</v>
+        <v>0.01505088081910855</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1165024719075784</v>
+        <v>0.116894892787694</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02020763169879465</v>
+        <v>0.02390754310265289</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1177286501486752</v>
+        <v>0.1155919483976321</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04303025515766271</v>
+        <v>0.02970685819788904</v>
       </c>
       <c r="M215" t="n">
-        <v>0.111462592905271</v>
+        <v>0.115071349952515</v>
       </c>
       <c r="N215" t="n">
-        <v>0.057405526016859</v>
+        <v>0.01505088081910855</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1159235443094263</v>
+        <v>0.116894892787694</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01888639847845928</v>
+        <v>0.01485725679740245</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1172791550536289</v>
+        <v>0.1176741920729453</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02004526791888238</v>
+        <v>0.02347393601621672</v>
       </c>
       <c r="K216" t="n">
-        <v>0.118513507816333</v>
+        <v>0.1163625613869496</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04271865849707715</v>
+        <v>0.02837486997590033</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1122056768579728</v>
+        <v>0.1158384922855317</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0572700793141383</v>
+        <v>0.01485725679740245</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1166963679381558</v>
+        <v>0.1176741920729453</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01988974284633357</v>
+        <v>0.01486261456529156</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1180558381996794</v>
+        <v>0.1184534913581966</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02008280759064053</v>
+        <v>0.02298230400854862</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1192983654839909</v>
+        <v>0.1171331743762672</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04268937043044571</v>
+        <v>0.02620604760251433</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1129487608106746</v>
+        <v>0.1166056346185485</v>
       </c>
       <c r="N217" t="n">
-        <v>0.05573076451871589</v>
+        <v>0.01486261456529156</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1174691915668853</v>
+        <v>0.1184534913581966</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0188937613343195</v>
+        <v>0.0148667586861634</v>
       </c>
       <c r="G218" t="n">
-        <v>0.11883252134573</v>
+        <v>0.1192327906434479</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0199202500063313</v>
+        <v>0.0222393712080397</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1200832231516487</v>
+        <v>0.1179037873655847</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04214263215821237</v>
+        <v>0.02491712978020316</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1136918447633765</v>
+        <v>0.1173727769515652</v>
       </c>
       <c r="N218" t="n">
-        <v>0.05528755413761821</v>
+        <v>0.0148667586861634</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1182420151956148</v>
+        <v>0.1192327906434479</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01889851583618211</v>
+        <v>0.01466949372340547</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1196092044917805</v>
+        <v>0.1200120899286992</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01975759445821687</v>
+        <v>0.02183967198985101</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1208680808193066</v>
+        <v>0.1186744003549023</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04147868488082124</v>
+        <v>0.02412485521143831</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1144349287160783</v>
+        <v>0.118139919284582</v>
       </c>
       <c r="N219" t="n">
-        <v>0.05394042067787197</v>
+        <v>0.01466949372340547</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1190148388243443</v>
+        <v>0.1200120899286992</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01990406824568652</v>
+        <v>0.01467062424040523</v>
       </c>
       <c r="G220" t="n">
-        <v>0.120385887637831</v>
+        <v>0.1207913892139505</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01949484023855949</v>
+        <v>0.02164449522330053</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1216529384869644</v>
+        <v>0.1194450133442198</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04139776979871618</v>
+        <v>0.02284596259869159</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1151780126687801</v>
+        <v>0.1189070616175988</v>
       </c>
       <c r="N220" t="n">
-        <v>0.05268933664650377</v>
+        <v>0.01467062424040523</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1197876624530738</v>
+        <v>0.1207913892139505</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0199104804565978</v>
+        <v>0.01446995480055026</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1211625707838815</v>
+        <v>0.1215706884992018</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01933198663962131</v>
+        <v>0.02125060971432985</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1224377961546222</v>
+        <v>0.1202156263335374</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04110012811234137</v>
+        <v>0.02149719064443495</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1159210966214819</v>
+        <v>0.1196742039506156</v>
       </c>
       <c r="N221" t="n">
-        <v>0.05193427455054017</v>
+        <v>0.01446995480055026</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1205604860818033</v>
+        <v>0.1215706884992018</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01991781436268103</v>
+        <v>0.01436728996722801</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1219392539299321</v>
+        <v>0.1223499877844531</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01916903295366459</v>
+        <v>0.02095830134426369</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1232226538222801</v>
+        <v>0.1209862393228549</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04038600102214068</v>
+        <v>0.02039527805114</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1166641805741837</v>
+        <v>0.1204413462836323</v>
       </c>
       <c r="N222" t="n">
-        <v>0.05107520689700784</v>
+        <v>0.01436728996722801</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1213333097105329</v>
+        <v>0.1223499877844531</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0199261318577013</v>
+        <v>0.01416243430382599</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1227159370759826</v>
+        <v>0.1231292870697044</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0189059784729515</v>
+        <v>0.02046785599442671</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1240075114899379</v>
+        <v>0.1217568523121725</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03985562972855827</v>
+        <v>0.01945696352127857</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1174072645268855</v>
+        <v>0.1212084886166491</v>
       </c>
       <c r="N223" t="n">
-        <v>0.05041210619293329</v>
+        <v>0.01416243430382599</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1221061333392623</v>
+        <v>0.1231292870697044</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02093549483542367</v>
+        <v>0.01425519237373173</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1234926202220331</v>
+        <v>0.1239085863549556</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01894282248974427</v>
+        <v>0.01987955954614368</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1247923691575957</v>
+        <v>0.12252746530149</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03990925543203802</v>
+        <v>0.01859898575732249</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1181503484795873</v>
+        <v>0.1219756309496659</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04934494494534314</v>
+        <v>0.01425519237373173</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1228789569679919</v>
+        <v>0.1239085863549556</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01994596518961327</v>
+        <v>0.01394536874033268</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1242693033680836</v>
+        <v>0.1246878856402069</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01857956429630507</v>
+        <v>0.01939369788073922</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1255772268252536</v>
+        <v>0.1232980782908076</v>
       </c>
       <c r="L225" t="n">
-        <v>0.038947119333024</v>
+        <v>0.01809449977375566</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1188934324322891</v>
+        <v>0.1227427732826826</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04867369566126406</v>
+        <v>0.01394536874033268</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1236517805967214</v>
+        <v>0.1246878856402069</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01995760481403512</v>
+        <v>0.01383276796701638</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1250459865141341</v>
+        <v>0.1254671849254582</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01841620318489613</v>
+        <v>0.01941055687953802</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1263620844929114</v>
+        <v>0.1240686912801251</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03846946263196024</v>
+        <v>0.01790820664982057</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1196365163849909</v>
+        <v>0.1235099156156994</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04709833084772264</v>
+        <v>0.01383276796701638</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1244246042254509</v>
+        <v>0.1254671849254582</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02097047560245435</v>
+        <v>0.01391719461717035</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1258226696601847</v>
+        <v>0.1262464842107095</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01845273844777964</v>
+        <v>0.01853042242386488</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1271469421605692</v>
+        <v>0.1248393042694426</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03837652652929072</v>
+        <v>0.01742923805260432</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1203796003376927</v>
+        <v>0.1242770579487161</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04611882301174536</v>
+        <v>0.01391719461717035</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1251974278541804</v>
+        <v>0.1262464842107095</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02098463944863603</v>
+        <v>0.01369900411245739</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1265993528062352</v>
+        <v>0.1270257834959608</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01818916937721779</v>
+        <v>0.01835358039504434</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1279317998282271</v>
+        <v>0.1256099172587602</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03776855222545941</v>
+        <v>0.01645787700983076</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1211226842903945</v>
+        <v>0.1250442002817329</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04503514466035896</v>
+        <v>0.01369900411245739</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1259702514829099</v>
+        <v>0.1270257834959608</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02000015824634523</v>
+        <v>0.0134794098448813</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1273760359522857</v>
+        <v>0.1278050827812121</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01792549526547282</v>
+        <v>0.01808031667440113</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1287166574958849</v>
+        <v>0.1263805302480777</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03734578092091045</v>
+        <v>0.01679440654922354</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1218657682430963</v>
+        <v>0.1258113426147497</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0441472683005899</v>
+        <v>0.0134794098448813</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1267430751116394</v>
+        <v>0.1278050827812121</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02101709388934704</v>
+        <v>0.01335847715908935</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1281527190983362</v>
+        <v>0.1285843820664634</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01776171540480691</v>
+        <v>0.0179109171432601</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1295015151635427</v>
+        <v>0.1271511432373953</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03680845381608774</v>
+        <v>0.01593910969850648</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1226088521957981</v>
+        <v>0.1265784849477665</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04375516643946492</v>
+        <v>0.01335847715908935</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1275158987403689</v>
+        <v>0.1285843820664634</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01903550827140654</v>
+        <v>0.01343621847460282</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1289294022443868</v>
+        <v>0.1293636813517147</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01779782908748227</v>
+        <v>0.01734566768294571</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1302863728312006</v>
+        <v>0.1279217562267128</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03595681211143537</v>
+        <v>0.0151922694854032</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1233519361484999</v>
+        <v>0.1273456272807832</v>
       </c>
       <c r="N231" t="n">
-        <v>0.04255881158401059</v>
+        <v>0.01343621847460282</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1282887223690984</v>
+        <v>0.1293636813517147</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02005546328628882</v>
+        <v>0.01331264621094287</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1297060853904373</v>
+        <v>0.130142980636966</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01763383560576109</v>
+        <v>0.01698485417478279</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1310712304988584</v>
+        <v>0.1286923692160304</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03549109700739733</v>
+        <v>0.01465416893763755</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1240950201012018</v>
+        <v>0.1281127696138</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04125817624125344</v>
+        <v>0.01331264621094287</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1290615459978279</v>
+        <v>0.130142980636966</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02007702082775897</v>
+        <v>0.01318777278763084</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1304827685364878</v>
+        <v>0.1309222799222173</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0172697342519056</v>
+        <v>0.01682876250009605</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1318560881665162</v>
+        <v>0.1294629822053479</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03521154970441756</v>
+        <v>0.01492509108293327</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1248381040539036</v>
+        <v>0.1288799119468167</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04055323291822005</v>
+        <v>0.01318777278763084</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1298343696265574</v>
+        <v>0.1309222799222173</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02110024278958204</v>
+        <v>0.01296161062418789</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1312594516825383</v>
+        <v>0.1317015792074686</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01730552431817799</v>
+        <v>0.01627767854021012</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1326409458341741</v>
+        <v>0.1302335951946655</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0343184114029402</v>
+        <v>0.0138053189490141</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1255811880066054</v>
+        <v>0.1296470542798335</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03904395412193717</v>
+        <v>0.01296161062418789</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1306071932552869</v>
+        <v>0.1317015792074686</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02112519106552316</v>
+        <v>0.01273417214013535</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1320361348285888</v>
+        <v>0.1324808784927199</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01704120509684044</v>
+        <v>0.01583188817644973</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1334258035018319</v>
+        <v>0.131004208183983</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03381192330340912</v>
+        <v>0.01399513556360382</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1263242719593072</v>
+        <v>0.1304141966128503</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03863031235943126</v>
+        <v>0.01273417214013535</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1313800168840165</v>
+        <v>0.1324808784927199</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02015192754934736</v>
+        <v>0.01280546975499444</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1328128179746394</v>
+        <v>0.1332601777779712</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0168767758801552</v>
+        <v>0.01539167729013954</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1342106611694897</v>
+        <v>0.1317748211733006</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03329232660626852</v>
+        <v>0.01319482395442612</v>
       </c>
       <c r="M236" t="n">
-        <v>0.127067355912009</v>
+        <v>0.1311813389458671</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03731228013772897</v>
+        <v>0.01280546975499444</v>
       </c>
       <c r="O236" t="n">
-        <v>0.132152840512746</v>
+        <v>0.1332601777779712</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02018051413481975</v>
+        <v>0.01267551588828639</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1335895011206899</v>
+        <v>0.1340394770632225</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01671223596038444</v>
+        <v>0.01505733176260429</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1349955188371476</v>
+        <v>0.1325454341626181</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03255986251196219</v>
+        <v>0.01340466714920474</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1278104398647108</v>
+        <v>0.1319484812788838</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03648982996385697</v>
+        <v>0.01267551588828639</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1329256641414755</v>
+        <v>0.1340394770632225</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02121101271570541</v>
+        <v>0.01254432295953245</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1343661842667404</v>
+        <v>0.1348187763484738</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01644758462979039</v>
+        <v>0.01502913747516865</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1357803765048054</v>
+        <v>0.1333160471519357</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0317147722209343</v>
+        <v>0.01272494817566344</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1285535238174126</v>
+        <v>0.1327156236119006</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03536293434484167</v>
+        <v>0.01254432295953245</v>
       </c>
       <c r="O238" t="n">
-        <v>0.133698487770205</v>
+        <v>0.1348187763484738</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01924348518576943</v>
+        <v>0.01241190338825386</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1351428674127909</v>
+        <v>0.135598075633725</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0162828211806352</v>
+        <v>0.01460738030915729</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1365652341724632</v>
+        <v>0.1340866601412532</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03095729693362884</v>
+        <v>0.01255595006152604</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1292966077701144</v>
+        <v>0.1334827659449174</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03463156578770987</v>
+        <v>0.01241190338825386</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1344713113989345</v>
+        <v>0.135598075633725</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02127799343877688</v>
+        <v>0.01217826959397188</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1359195505588414</v>
+        <v>0.1363773749189764</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01611794490518115</v>
+        <v>0.01439234614589494</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1373500918401211</v>
+        <v>0.1348572731305707</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0307876778504898</v>
+        <v>0.01209795583451623</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1300396917228162</v>
+        <v>0.1342499082779341</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03349569679948811</v>
+        <v>0.01217826959397188</v>
       </c>
       <c r="O240" t="n">
-        <v>0.135244135027664</v>
+        <v>0.1363773749189764</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02131459936849285</v>
+        <v>0.01214343399620777</v>
       </c>
       <c r="G241" t="n">
-        <v>0.136696233704892</v>
+        <v>0.1371566742042276</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01595295509569039</v>
+        <v>0.01398432086670626</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1381349495077789</v>
+        <v>0.1356278861198883</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03010615617196116</v>
+        <v>0.01165124852235766</v>
       </c>
       <c r="M241" t="n">
-        <v>0.130782775675518</v>
+        <v>0.1350170506109509</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03225529988720294</v>
+        <v>0.01214343399620777</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1360169586563935</v>
+        <v>0.1371566742042276</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02035336486868242</v>
+        <v>0.01180740901448275</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1374729168509425</v>
+        <v>0.1379359734894789</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01578785104442515</v>
+        <v>0.01378359035291596</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1389198071754368</v>
+        <v>0.1363984991092058</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02921297309848703</v>
+        <v>0.01111611115277428</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1315258596282198</v>
+        <v>0.1357841929439677</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03141034755788102</v>
+        <v>0.01180740901448275</v>
       </c>
       <c r="O242" t="n">
-        <v>0.136789782285123</v>
+        <v>0.1379359734894789</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02139435183311067</v>
+        <v>0.01187020706831809</v>
       </c>
       <c r="G243" t="n">
-        <v>0.138249599996993</v>
+        <v>0.1387152727747302</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01562263204364761</v>
+        <v>0.01329044048584876</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1397046648430946</v>
+        <v>0.1371691120985234</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02840836983051132</v>
+        <v>0.01059282675348966</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1322689435809216</v>
+        <v>0.1365513352769844</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02966081231854883</v>
+        <v>0.01187020706831809</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1375626059138525</v>
+        <v>0.1387152727747302</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02043762215554268</v>
+        <v>0.01173184057723502</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1390262831430435</v>
+        <v>0.1394945720599815</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01545729738562</v>
+        <v>0.0131051571468293</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1404895225107524</v>
+        <v>0.1379397250878409</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02789258756847809</v>
+        <v>0.01058167835222767</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1330120275336234</v>
+        <v>0.1373184776100012</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0294066666762331</v>
+        <v>0.01173184057723502</v>
       </c>
       <c r="O244" t="n">
-        <v>0.138335429542582</v>
+        <v>0.1394945720599815</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02048323772974353</v>
+        <v>0.01149232196075478</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1398029662890941</v>
+        <v>0.1402738713452328</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01549184636260449</v>
+        <v>0.01262802621718231</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1412743801784103</v>
+        <v>0.1387103380771585</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02716586751283134</v>
+        <v>0.01048294897671198</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1337551114863252</v>
+        <v>0.138085619943018</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02784788313796044</v>
+        <v>0.01149232196075478</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1391082531713115</v>
+        <v>0.1402738713452328</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01953126044947832</v>
+        <v>0.01145166363839865</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1405796494351446</v>
+        <v>0.1410531706304841</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01532627826686334</v>
+        <v>0.01275933357823253</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1420592378460681</v>
+        <v>0.139480951066476</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02632845086401511</v>
+        <v>0.009796921654666391</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1344981954390271</v>
+        <v>0.1388527622760347</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0269844342107573</v>
+        <v>0.01145166363839865</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1398810768000411</v>
+        <v>0.1410531706304841</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02058175220851212</v>
+        <v>0.01120987802968785</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1413563325811951</v>
+        <v>0.1418324699157354</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01516059239065869</v>
+        <v>0.01209936511130455</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1428440955137259</v>
+        <v>0.1402515640557936</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02538057882247335</v>
+        <v>0.009723879413814585</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1352412793917288</v>
+        <v>0.1396199046090515</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02601629240165049</v>
+        <v>0.01120987802968785</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1406539004287705</v>
+        <v>0.1418324699157354</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02063477490061</v>
+        <v>0.01106697755414363</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1421330157272457</v>
+        <v>0.1426117692009867</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01489478802625277</v>
+        <v>0.01204840669772311</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1436289531813838</v>
+        <v>0.1410221770451111</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02452249258865019</v>
+        <v>0.009364105281880419</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1359843633444307</v>
+        <v>0.1403870469420682</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02464343021766641</v>
+        <v>0.01106697755414363</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1414267240575001</v>
+        <v>0.1426117692009867</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01969039041953707</v>
+        <v>0.01082297463128724</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1429096988732962</v>
+        <v>0.143391068486238</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01472886446590778</v>
+        <v>0.01200674421881293</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1444138108490416</v>
+        <v>0.1417927900344287</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02385443336298954</v>
+        <v>0.009617882286587498</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1367274472971325</v>
+        <v>0.141154189275085</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02406582016583175</v>
+        <v>0.01082297463128724</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1421995476862296</v>
+        <v>0.143391068486238</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01974866065905839</v>
+        <v>0.01067788168063993</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1436863820193467</v>
+        <v>0.1441703677714893</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01466282100188596</v>
+        <v>0.01137466355589864</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1451986685166994</v>
+        <v>0.1425634030237462</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02297664234593544</v>
+        <v>0.00938549345565981</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1374705312498343</v>
+        <v>0.1419213316081018</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02288343475317317</v>
+        <v>0.01067788168063993</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1429723713149591</v>
+        <v>0.1441703677714893</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02080964751293905</v>
+        <v>0.01073171112172293</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1444630651653972</v>
+        <v>0.1449496670567406</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01449665692644946</v>
+        <v>0.01105245059030505</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1459835261843573</v>
+        <v>0.1433340160130638</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0224893607379319</v>
+        <v>0.009167221816820725</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1382136152025361</v>
+        <v>0.1426884739411186</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02119624648671714</v>
+        <v>0.01073171112172293</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1437451949436886</v>
+        <v>0.1449496670567406</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02087341287494414</v>
+        <v>0.01048447537405751</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1452397483114477</v>
+        <v>0.1457289663419919</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01423037153186051</v>
+        <v>0.01124039120335674</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1467683838520151</v>
+        <v>0.1441046290023813</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02169282973942296</v>
+        <v>0.008263350397794356</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1389566991552379</v>
+        <v>0.1434556162741353</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02060422787349037</v>
+        <v>0.01048447537405751</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1445180185724181</v>
+        <v>0.1457289663419919</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02094001863883872</v>
+        <v>0.01023618685716491</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1460164314574983</v>
+        <v>0.1465082656272431</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01416396411038132</v>
+        <v>0.01103877127637842</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1475532415196729</v>
+        <v>0.1448752419916989</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02108729055085262</v>
+        <v>0.00837416222630416</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1396997831079397</v>
+        <v>0.1442227586071521</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01910735142051939</v>
+        <v>0.01023618685716491</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1452908422011476</v>
+        <v>0.1465082656272431</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02100952669838789</v>
+        <v>0.01018685799056637</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1467931146035488</v>
+        <v>0.1472875649124944</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01379743395427403</v>
+        <v>0.01084787669069484</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1483380991873308</v>
+        <v>0.1456458549810164</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01977298437266489</v>
+        <v>0.008399940330074185</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1404428670606415</v>
+        <v>0.1449899009401689</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01860558963483089</v>
+        <v>0.01018685799056637</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1460636658298771</v>
+        <v>0.1472875649124944</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02208199894735674</v>
+        <v>0.009936501193783143</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1475697977495993</v>
+        <v>0.1480668641977458</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01373078035580098</v>
+        <v>0.01046799332763065</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1491229568549886</v>
+        <v>0.146416467970334</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01895015240530379</v>
+        <v>0.007940967736827842</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1411859510133433</v>
+        <v>0.1457570432731856</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0169989150234513</v>
+        <v>0.009936501193783143</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1468364894586066</v>
+        <v>0.1480668641977458</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02215749727951033</v>
+        <v>0.009985128886336472</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1483464808956498</v>
+        <v>0.148846163482997</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01366400260722424</v>
+        <v>0.0103994070685105</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1499078145226464</v>
+        <v>0.1471870809596515</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01841903584921328</v>
+        <v>0.007597527474289156</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1419290349660451</v>
+        <v>0.1465241856062024</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0157873000934074</v>
+        <v>0.009985128886336472</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1476093130873361</v>
+        <v>0.148846163482997</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02023608358861376</v>
+        <v>0.009832753487747599</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1491231640417003</v>
+        <v>0.1496254627682483</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01349710000080608</v>
+        <v>0.01004240379465918</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1506926721903043</v>
+        <v>0.1479576939489691</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01777987590483743</v>
+        <v>0.007469902570181819</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1426721189187469</v>
+        <v>0.1472913279392191</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01457071735172566</v>
+        <v>0.009832753487747599</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1483821367160656</v>
+        <v>0.1496254627682483</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02231781976843211</v>
+        <v>0.009579387417537784</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1498998471877508</v>
+        <v>0.1504047620534996</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0132300718288087</v>
+        <v>0.009897269387401375</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1514775298579621</v>
+        <v>0.1487283069382866</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01653291377262026</v>
+        <v>0.007858376052229443</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1434152028714487</v>
+        <v>0.1480584702722359</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01414913930543282</v>
+        <v>0.009579387417537784</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1491549603447951</v>
+        <v>0.1504047620534996</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02040276771273045</v>
+        <v>0.009325043095228275</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1506765303338014</v>
+        <v>0.1511840613387509</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01316291738349426</v>
+        <v>0.009764289728061704</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1522623875256199</v>
+        <v>0.1494989199276041</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01607839065300576</v>
+        <v>0.00736323094815583</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1441582868241505</v>
+        <v>0.1488256126052527</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01302253846155532</v>
+        <v>0.009325043095228275</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1499277839735247</v>
+        <v>0.1511840613387509</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02249098931527388</v>
+        <v>0.009369732940340304</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1514532134798519</v>
+        <v>0.1519633606240022</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01299563595712502</v>
+        <v>0.0100437506979649</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1530472451932778</v>
+        <v>0.1502695329169217</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01471654774643794</v>
+        <v>0.007084750285684782</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1449013707768524</v>
+        <v>0.1495927549382695</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01159088732711988</v>
+        <v>0.009369732940340304</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1507006076022542</v>
+        <v>0.1519633606240022</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02058254646982746</v>
+        <v>0.009113469372395128</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1522298966259024</v>
+        <v>0.1527426599092535</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01262822684196314</v>
+        <v>0.009735938178435682</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1538321028609356</v>
+        <v>0.1510401459062392</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0139476262533608</v>
+        <v>0.00782321709254008</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1456444547295541</v>
+        <v>0.1503598972712862</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01005415840915308</v>
+        <v>0.009113469372395128</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1514734312309837</v>
+        <v>0.1527426599092535</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0206775010701563</v>
+        <v>0.008856264810913984</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1530065797719529</v>
+        <v>0.1535219591945048</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01246068933027087</v>
+        <v>0.009741138050798709</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1546169605285934</v>
+        <v>0.1518107588955568</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01307186737421839</v>
+        <v>0.007078914396445479</v>
       </c>
       <c r="M262" t="n">
-        <v>0.146387538682256</v>
+        <v>0.151127039604303</v>
       </c>
       <c r="N262" t="n">
-        <v>0.009612324214681445</v>
+        <v>0.008856264810913984</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1522462548597132</v>
+        <v>0.1535219591945048</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02177591501002546</v>
+        <v>0.008698131675418129</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1537832629180035</v>
+        <v>0.1543012584797561</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01229302271431039</v>
+        <v>0.009259636196378651</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1554018181962513</v>
+        <v>0.1525813718848743</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01258951230945474</v>
+        <v>0.007252125225124584</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1471306226349578</v>
+        <v>0.1518941819373197</v>
       </c>
       <c r="N263" t="n">
-        <v>0.00776535725073163</v>
+        <v>0.008698131675418129</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1530190784884427</v>
+        <v>0.1543012584797561</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02287785018320003</v>
+        <v>0.008639082385428813</v>
       </c>
       <c r="G264" t="n">
-        <v>0.154559946064054</v>
+        <v>0.1550805577650074</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01212522628634389</v>
+        <v>0.00929171849650029</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1561866758639091</v>
+        <v>0.1533519848741919</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01160080225951382</v>
+        <v>0.007643132606301228</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1478737065876596</v>
+        <v>0.1526613242703365</v>
       </c>
       <c r="N264" t="n">
-        <v>0.006713230024330219</v>
+        <v>0.008639082385428813</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1537919021171722</v>
+        <v>0.1550805577650074</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08934391969784558</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01259060692783105</v>
+        <v>0.03934391969784558</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00998505077193268</v>
+        <v>0.02075581815796515</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001802219001483585</v>
+        <v>0.001472362153119702</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007792992852512934</v>
+        <v>0.0006133921026057086</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002999999999999975</v>
+        <v>0.001661810304043311</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0004806397306397264</v>
+        <v>0.0007792992852512934</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009640346078776063</v>
+        <v>0.005999999999999978</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007671423330167664</v>
+        <v>0.000915064102564099</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001802219001483585</v>
+        <v>0.009205200203386055</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007792992852512934</v>
+        <v>0.0007681399003856153</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.002925873855143007</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001903333333333332</v>
+        <v>0.001226784205211417</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008000658534140587</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001541225978635094</v>
+        <v>0.001427499999999998</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0189230260055312</v>
+        <v>0.008830621865687727</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001534284666033533</v>
+        <v>0.001539274291672862</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01808556783976362</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001903333333333332</v>
+        <v>0.001536279800771231</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004447436852892027</v>
+        <v>0.004360533721089022</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00233789785575388</v>
+        <v>0.001840176307817126</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01120832924474477</v>
+        <v>0.004294218003717584</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002311838967952642</v>
+        <v>0.00233789785575388</v>
       </c>
       <c r="L68" s="172" t="n">
+        <v>0.01218609048908656</v>
+      </c>
+      <c r="M68" s="170" t="n">
+        <v>0.002308911437509293</v>
+      </c>
+      <c r="N68" s="171" t="n">
         <v>0.02400000000000002</v>
       </c>
-      <c r="M68" s="170" t="n">
-        <v>0.002095412844036699</v>
-      </c>
-      <c r="N68" s="171" t="n">
-        <v>0.004447436852892027</v>
-      </c>
       <c r="O68" s="172" t="n">
-        <v>0.00233789785575388</v>
+        <v>0.002217475728155342</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005655235185168417</v>
+        <v>0.005776340365976795</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003117197141005174</v>
+        <v>0.002453568410422834</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01459381624363451</v>
+        <v>0.00552191335232359</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003082451957270189</v>
+        <v>0.003117197141005174</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02973528003103476</v>
+        <v>0.01579031088423755</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003068569332067065</v>
+        <v>0.003078548583345725</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005655235185168417</v>
+        <v>0.02891125003313166</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003117197141005174</v>
+        <v>0.003072559601542461</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001903333333333332</v>
+        <v>0.01253531512289152</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006794833027232113</v>
+        <v>0.007173292404825435</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003896496426256466</v>
+        <v>0.003066960513028543</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01780808940752837</v>
+        <v>0.006587309118385599</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003853064946587736</v>
+        <v>0.003896496426256466</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03354751597639788</v>
+        <v>0.01868872622147483</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003835711665083832</v>
+        <v>0.003848185729182156</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006794833027232113</v>
+        <v>0.03245705312278402</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003896496426256466</v>
+        <v>0.003840699501928077</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007666421028083022</v>
+        <v>0.008551388452654005</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00467579571150776</v>
+        <v>0.003680352615634252</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02040211861314498</v>
+        <v>0.007388844918868653</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004623677935905283</v>
+        <v>0.00467579571150776</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03645851026688557</v>
+        <v>0.0212267796711326</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004602853998100598</v>
+        <v>0.004617822875018587</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007666421028083022</v>
+        <v>0.03518205795008122</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00467579571150776</v>
+        <v>0.004608839402313692</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008470189836721022</v>
+        <v>0.009910627124481583</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005455094996759054</v>
+        <v>0.00429374471823996</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02262687373720296</v>
+        <v>0.008424960370737769</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005394290925222831</v>
+        <v>0.005455094996759054</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03896205946218384</v>
+        <v>0.02344991440354505</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005369996331117365</v>
+        <v>0.005387460020855018</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008470189836721022</v>
+        <v>0.03829551694785666</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005455094996759054</v>
+        <v>0.005376979302699307</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009306330102146008</v>
+        <v>0.01125100703532725</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006234394282010347</v>
+        <v>0.004907136820845669</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02443332465642076</v>
+        <v>0.009194095090957963</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006164903914540378</v>
+        <v>0.006234394282010347</v>
       </c>
       <c r="L73" s="172" t="n">
+        <v>0.02530357358904625</v>
+      </c>
+      <c r="M73" s="170" t="n">
+        <v>0.00615709716669145</v>
+      </c>
+      <c r="N73" s="171" t="n">
         <v>0.04034714691192021</v>
       </c>
-      <c r="M73" s="170" t="n">
-        <v>0.005871106240241191</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.009306330102146008</v>
-      </c>
       <c r="O73" s="172" t="n">
-        <v>0.006234394282010347</v>
+        <v>0.006213112428993105</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01007503247335787</v>
+        <v>0.01257252680021009</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00701369356726164</v>
+        <v>0.005520528923451378</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
+        <v>0.01009468869649427</v>
+      </c>
+      <c r="K74" s="171" t="n">
+        <v>0.00701369356726164</v>
+      </c>
+      <c r="L74" s="172" t="n">
         <v>0.02646887691987565</v>
       </c>
-      <c r="K74" s="171" t="n">
-        <v>0.00706777437394734</v>
-      </c>
-      <c r="L74" s="172" t="n">
-        <v>0.04204988703838947</v>
-      </c>
       <c r="M74" s="170" t="n">
-        <v>0.006904280997150898</v>
+        <v>0.006727977529046027</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01007503247335787</v>
+        <v>0.0414589452851391</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00701369356726164</v>
+        <v>0.006913259103470538</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0109764875993565</v>
+        <v>0.01387518503414919</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007792992852512933</v>
+        <v>0.006133921026057086</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02717237892706256</v>
+        <v>0.01092518080431169</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007706129893175473</v>
+        <v>0.007792992852512933</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04397799032391392</v>
+        <v>0.02783165136352847</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007671423330167664</v>
+        <v>0.007696371458364311</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0109764875993565</v>
+        <v>0.04308305623023645</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007792992852512933</v>
+        <v>0.007681399003856153</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01141088612914178</v>
+        <v>0.01515898035216361</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008572292137764228</v>
+        <v>0.006747313128662794</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02824302292108682</v>
+        <v>0.01148401103137527</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008476742882493019</v>
+        <v>0.008572292137764228</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04537760624703263</v>
+        <v>0.02888965510799424</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00843856566318443</v>
+        <v>0.008466008604200744</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01141088612914178</v>
+        <v>0.04408096586677623</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008572292137764228</v>
+        <v>0.008449538904241768</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01217841871171361</v>
+        <v>0.01642391136927245</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007360705231268504</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01216961899465002</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.00935159142301552</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02939167755703931</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009247355871810567</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04654856286894637</v>
+        <v>0.02972541707347401</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009205707996201197</v>
+        <v>0.009235645750037174</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01217841871171361</v>
+        <v>0.04555240410867512</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00935159142301552</v>
+        <v>0.009217678804627384</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.01766997670049478</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.007974097333874212</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.01259060692783105</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.00998505077193268</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.0303182817897657</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01001796886112811</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04829068825085592</v>
+        <v>0.03093890143551439</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009972850329217962</v>
+        <v>0.01000528289587361</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01259060692783105</v>
+        <v>0.04759710086984986</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00998505077193268</v>
+        <v>0.009985818705012998</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01315775974860821</v>
+        <v>0.01889717496084968</v>
       </c>
       <c r="G79" t="n">
+        <v>0.00858748943647992</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01296577882263304</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01091018999351811</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03122277457411202</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01078858185044566</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04930381045396187</v>
+        <v>0.0314300723696618</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01073999266223473</v>
+        <v>0.01077492004171004</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01315775974860821</v>
+        <v>0.04831478606421713</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01091018999351811</v>
+        <v>0.01075395860539861</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01363102285824064</v>
+        <v>0.02010550476535622</v>
       </c>
       <c r="G80" t="n">
+        <v>0.00920088153908563</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01354509692519167</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.0116894892787694</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03250509486492401</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01155919483976321</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.05058775753946498</v>
+        <v>0.03269889405146281</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0115071349952515</v>
+        <v>0.01154455718754647</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01363102285824064</v>
+        <v>0.05010518960569371</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0116894892787694</v>
+        <v>0.01152209850578423</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01409981575266311</v>
+        <v>0.0212949647290335</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009814273641691337</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01401932950897937</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01246878856402069</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03346518161704753</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01232980782908076</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.0525423575685659</v>
+        <v>0.0337453306564639</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01227427732826826</v>
+        <v>0.0123141943333829</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01409981575266311</v>
+        <v>0.05126804140819624</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01246878856402069</v>
+        <v>0.01229023840616984</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01446378951766961</v>
+        <v>0.02246555346690057</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01042766574429705</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01458815095785819</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01324808784927199</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03420297378532849</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.0131004208183983</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.05386743860246535</v>
+        <v>0.0345693463602115</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01304141966128503</v>
+        <v>0.01308383147921933</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01446378951766961</v>
+        <v>0.05300307138564142</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01324808784927199</v>
+        <v>0.01305837830655546</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01492259523905402</v>
+        <v>0.02361726959397653</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01104105784690276</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01495123565569015</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01402738713452328</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03501841032461273</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01387103380771585</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.05456282870236401</v>
+        <v>0.03547090533825217</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0138085619943018</v>
+        <v>0.01385346862505576</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01492259523905402</v>
+        <v>0.05441000945194596</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01402738713452328</v>
+        <v>0.01382651820694108</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0154758840026103</v>
+        <v>0.02475011172528047</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01165444994950846</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01550825798633729</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01480668641977457</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03581143018974606</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.0146416467970334</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05622835592946257</v>
+        <v>0.03634997176613242</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01457570432731856</v>
+        <v>0.01462310577089219</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0154758840026103</v>
+        <v>0.05498858552102653</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01480668641977457</v>
+        <v>0.01459465810732669</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01572330689413239</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01253531512289152</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01585889233366164</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01558598570502587</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03668197233557433</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01541225978635095</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05756384834496181</v>
+        <v>0.03720650981939871</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01534284666033533</v>
+        <v>0.01539274291672862</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01572330689413239</v>
+        <v>0.05633852950680002</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01558598570502587</v>
+        <v>0.01536279800771231</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01616451499941422</v>
+        <v>0.02695930661970788</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01288123415471988</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01630281308152519</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01636528499027716</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03792997571694343</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01618287277566849</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05826913401006234</v>
+        <v>0.03774048367359759</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01610998899335209</v>
+        <v>0.01616238006256505</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01616451499941422</v>
+        <v>0.05825957132318293</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01636528499027716</v>
+        <v>0.01613093790809792</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01659915940424973</v>
+        <v>0.02803636383475476</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01349462625732559</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01663969461378999</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01714458427552846</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03825537928869921</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01695348576498604</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05924404098596486</v>
+        <v>0.03895185750427552</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01687713132636886</v>
+        <v>0.01693201720840149</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01659915940424973</v>
+        <v>0.05865144088409202</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01714458427552846</v>
+        <v>0.01689907780848354</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01702689119443286</v>
+        <v>0.02909514366342938</v>
       </c>
       <c r="G88" t="n">
+        <v>0.0141080183599313</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01726921131431806</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01792388356077975</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03955812200568745</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01772409875430359</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.06038839733387008</v>
+        <v>0.03964059548697896</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01764427365938563</v>
+        <v>0.01770165435423792</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01702689119443286</v>
+        <v>0.06031386810344408</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01792388356077975</v>
+        <v>0.01766721770886915</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01764736145575756</v>
+        <v>0.03013545090398689</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01472141046253701</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01769103756697146</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01870318284603104</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03983814282275411</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01849471174362113</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.06170203111497879</v>
+        <v>0.04050666179725448</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01841141599240239</v>
+        <v>0.01847129150007435</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01764736145575756</v>
+        <v>0.06094658289515581</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01870318284603104</v>
+        <v>0.01843535760925477</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01796022127401772</v>
+        <v>0.03115709035468238</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01533480256514271</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01800484775561217</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01948248213128233</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04089538069474496</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01926532473293868</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.06328477039049152</v>
+        <v>0.04105002061064858</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01917855832541916</v>
+        <v>0.01924092864591078</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01796022127401772</v>
+        <v>0.06264931517314387</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01948248213128233</v>
+        <v>0.01920349750964038</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01826512173500731</v>
+        <v>0.032159866813771</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01594819466774842</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01841031626410224</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02026178141653363</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04182977457650588</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02003593772225623</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.06393644322160907</v>
+        <v>0.04187063610270766</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01994570065843592</v>
+        <v>0.02001056579174721</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01826512173500731</v>
+        <v>0.06332179485132494</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02026178141653363</v>
+        <v>0.019971637410026</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01886171392452027</v>
+        <v>0.03314358507950786</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01656158677035413</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01880711747630369</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02104108070178492</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.04204126342288275</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02080655071157378</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.0651568776695321</v>
+        <v>0.04236847244897832</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02071284299145269</v>
+        <v>0.02078020293758364</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01886171392452027</v>
+        <v>0.06416375184361567</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02104108070178492</v>
+        <v>0.02073977731041161</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01904964892835052</v>
+        <v>0.03410804995014806</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01717497887295984</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01929492577607854</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02182037998703621</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04272978618872139</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02157716370089132</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06584590179546135</v>
+        <v>0.04294349382500701</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02147998532446946</v>
+        <v>0.02154984008342007</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01904964892835052</v>
+        <v>0.06547491606393291</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02182037998703621</v>
+        <v>0.02150791721079723</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01952857783229202</v>
+        <v>0.03505306622394677</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01778837097556555</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01947341554728882</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02259967927228751</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04369528182886759</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02234777669020887</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06670334366059744</v>
+        <v>0.0435956644063403</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02224712765748622</v>
+        <v>0.02231947722925651</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01952857783229202</v>
+        <v>0.06635501742619337</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02259967927228751</v>
+        <v>0.02227605711118285</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01989815172213867</v>
+        <v>0.03597843869915908</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01840176307817126</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02004226117379658</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.0233789785575388</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04453768929816732</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02311838967952642</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06822903132614111</v>
+        <v>0.0446249483685246</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02301426999050299</v>
+        <v>0.02308911437509294</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01989815172213867</v>
+        <v>0.06780378584431368</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0233789785575388</v>
+        <v>0.02304419701156846</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02025802168368446</v>
+        <v>0.0368839721740401</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01901515518077697</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02040113703946381</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02415827784279009</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04485694755146638</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02388900266884396</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06862279285329315</v>
+        <v>0.04483130988710643</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02378141232351976</v>
+        <v>0.02385875152092937</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02025802168368446</v>
+        <v>0.06842095123221054</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02415827784279009</v>
+        <v>0.02381233691195407</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02050783880272325</v>
+        <v>0.037769471446845</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01962854728338267</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02054971752815256</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02493757712804139</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04535299554361055</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02465961565816151</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06928445630325403</v>
+        <v>0.04571471313763228</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02454855465653652</v>
+        <v>0.0246283886667658</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02050783880272325</v>
+        <v>0.06940624350380065</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02493757712804139</v>
+        <v>0.02458047681233969</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02104725416504905</v>
+        <v>0.03863474131582888</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02024193938598838</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02108767702372484</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02571687641329268</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04632577222944581</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02543022864747906</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.07081384973722471</v>
+        <v>0.04627512229564873</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02531569698955329</v>
+        <v>0.02539802581260223</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02104725416504905</v>
+        <v>0.07025939257300085</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02571687641329268</v>
+        <v>0.0253486167127253</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02117591885645576</v>
+        <v>0.03934391969784558</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02075581815796515</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02141468991004271</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02649617569854398</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04637521656381791</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.0262008416367966</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.07111080121640567</v>
+        <v>0.04681250153670216</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02608283932257006</v>
+        <v>0.02616766295843866</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02117591885645576</v>
+        <v>0.0708801283537277</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02649617569854398</v>
+        <v>0.02611675661311092</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02149348396273731</v>
+        <v>0.04033460340701173</v>
       </c>
       <c r="G100" t="n">
+        <v>0.0214687235911998</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02163043057096813</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02727547498379527</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04740126750157275</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02697145462611416</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.07167513880199772</v>
+        <v>0.04722681503633919</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02684998165558682</v>
+        <v>0.02693730010427509</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02149348396273731</v>
+        <v>0.07206818075989796</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02727547498379527</v>
+        <v>0.02688489651349654</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02199960056968767</v>
+        <v>0.04120792581168864</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02208211569380551</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02193457339036319</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02805477426904656</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04750386399755618</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.0277420676154317</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.07310669055520153</v>
+        <v>0.04751802697010615</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02761712398860359</v>
+        <v>0.02770693725011152</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02199960056968767</v>
+        <v>0.0727232797054283</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02805477426904656</v>
+        <v>0.02765303641388215</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02229391976310073</v>
+        <v>0.04209245877615531</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02269550779641122</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02232679275208989</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02883407355429786</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04818294500661405</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02851268060474925</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.0733052845372178</v>
+        <v>0.04818610151354974</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02838426632162035</v>
+        <v>0.02847657439594796</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02229391976310073</v>
+        <v>0.07364515510423547</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02883407355429786</v>
+        <v>0.02842117631426776</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02247609262877047</v>
+        <v>0.04298047427178842</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02330889989901693</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02240676304001026</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02961337283954915</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.04863844948359219</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02928329359406679</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.07407074880924719</v>
+        <v>0.04853100284221631</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02915140865463712</v>
+        <v>0.02924621154178439</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02247609262877047</v>
+        <v>0.07423353687023626</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02961337283954915</v>
+        <v>0.02918931621465338</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02264577025249082</v>
+        <v>0.04386424426996459</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02392229200162264</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02277415863798635</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03039267212480044</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04897031638333649</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03005390658338434</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.07520291143249042</v>
+        <v>0.04915269513165244</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02991855098765389</v>
+        <v>0.03001584868762082</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02264577025249082</v>
+        <v>0.07448815491734723</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03039267212480044</v>
+        <v>0.029957456115039</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02290260372005569</v>
+        <v>0.0447360407420605</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02453568410422834</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02292865392988012</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03117197141005173</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.04967848466069272</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03082451957270189</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07530160046814827</v>
+        <v>0.04955114255740456</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03068569332067066</v>
+        <v>0.03078548583345725</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02290260372005569</v>
+        <v>0.07560873915948513</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03117197141005173</v>
+        <v>0.03072559601542461</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02334624411725902</v>
+        <v>0.0455881356594528</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02514907620683405</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02336992329955366</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03195127069530303</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.05006289327050684</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03159513256201944</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.0760666439774213</v>
+        <v>0.04992630929501923</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03145283565368742</v>
+        <v>0.03155512297929368</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02334624411725902</v>
+        <v>0.07549501951056675</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03195127069530303</v>
+        <v>0.03149373591581023</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02337634252989478</v>
+        <v>0.04641280099351815</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02576246830943976</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02359764113086898</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03273056998055433</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05032348116762464</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03236574555133698</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07659787002151025</v>
+        <v>0.05027815952004294</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03221997798670419</v>
+        <v>0.03232476012513011</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02337634252989478</v>
+        <v>0.07664672588450872</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03273056998055433</v>
+        <v>0.03226187581619584</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02369255004375687</v>
+        <v>0.04720230871563315</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02637586041204547</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02381148180768811</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03350986926580562</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05056018730689193</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03313635854065453</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07689510666161592</v>
+        <v>0.05050665740802215</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03298712031972095</v>
+        <v>0.03309439727096655</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02369255004375687</v>
+        <v>0.07706358819522768</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03350986926580562</v>
+        <v>0.03303001571658146</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02389451774463923</v>
+        <v>0.04794893079717451</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02698925251465118</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02401111971387306</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03428916855105691</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.05057295064315467</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03390697152997207</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07705818195893888</v>
+        <v>0.05081176713450342</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03375426265273772</v>
+        <v>0.03386403441680298</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02389451774463923</v>
+        <v>0.07694533635664041</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03428916855105691</v>
+        <v>0.03379815561696707</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02398189671833582</v>
+        <v>0.04864493920951886</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02760264461725689</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02399622923328584</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.0350684678363082</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.05096171013125861</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03467758451928962</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07788692397467989</v>
+        <v>0.05109345287503317</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03452140498575449</v>
+        <v>0.03463367156263941</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02398189671833582</v>
+        <v>0.07759170028266377</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0350684678363082</v>
+        <v>0.03456629551735269</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02425433805064058</v>
+        <v>0.04928260592404284</v>
       </c>
       <c r="G111" t="n">
+        <v>0.0282160367198626</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02416648474978852</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03584776712155949</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05162640472604968</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03544819750860717</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07808116077003957</v>
+        <v>0.05125167880515796</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03528854731877126</v>
+        <v>0.03540330870847583</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02425433805064058</v>
+        <v>0.0784024098872142</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03584776712155949</v>
+        <v>0.03533443541773831</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02441149282734741</v>
+        <v>0.0498542029121231</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02882942882246831</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02452156064724312</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03662706640681079</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05136697338237364</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03621881049792472</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.07884072040621876</v>
+        <v>0.05158640910042425</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03605568965178801</v>
+        <v>0.03617294585431226</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02441149282734741</v>
+        <v>0.07847719508420864</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03662706640681079</v>
+        <v>0.03610257531812392</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02445301213425027</v>
+        <v>0.05035200214513633</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02944282092507402</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02466113130951164</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03740636569206208</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.05168335505507643</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03698942348724227</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07866543094441797</v>
+        <v>0.05209760793637858</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03682283198480479</v>
+        <v>0.03694258300014869</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02445301213425027</v>
+        <v>0.07901578578756357</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03740636569206208</v>
+        <v>0.03687071521850954</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0245785470571431</v>
+        <v>0.05076827559445915</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03005621302767972</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02458487112045611</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03818566497731337</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.05227548869900386</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03776003647655981</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.079155120445838</v>
+        <v>0.05198523948856743</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03758997431782155</v>
+        <v>0.03771222014598513</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0245785470571431</v>
+        <v>0.0789179119111959</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03818566497731337</v>
+        <v>0.03763885511889515</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02488774868181982</v>
+        <v>0.05109687673706932</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03066960513028543</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02469245446393858</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03896496426256466</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.05234331326900185</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03853064946587736</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.07920961697167961</v>
+        <v>0.05214926793253727</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03835711665083832</v>
+        <v>0.03848185729182156</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02488774868181982</v>
+        <v>0.07988330336902227</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03896496426256466</v>
+        <v>0.03840699501928076</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02488026809407437</v>
+        <v>0.05139152389298196</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03128299723289114</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02498355572382106</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03974426354781596</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05258676771991611</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03930126245519491</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.07992874858314336</v>
+        <v>0.05228965744383463</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03912425898385509</v>
+        <v>0.03925149443765799</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02488026809407437</v>
+        <v>0.07931169007495925</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03974426354781596</v>
+        <v>0.03917513491966638</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02505575637970071</v>
+        <v>0.05168165928780472</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03189638933549685</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02495784928396559</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04052356283306726</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05260579100659257</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04007187544451245</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.07961234334143008</v>
+        <v>0.05250637219800597</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03989140131687185</v>
+        <v>0.04002113158349443</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02505575637970071</v>
+        <v>0.08030280194292383</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04052356283306726</v>
+        <v>0.03994327482005199</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02501386462449275</v>
+        <v>0.05196721709018783</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03250978143810256</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02491500952823417</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04130286211831855</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.0526003220838771</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04084248843383</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.08036022930774028</v>
+        <v>0.05279937637059787</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04065854364988861</v>
+        <v>0.04079076872933086</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02501386462449275</v>
+        <v>0.08035636888683245</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04130286211831855</v>
+        <v>0.04071141472043761</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02505424391424442</v>
+        <v>0.05224813146878152</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03312317354070827</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02495471084048884</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04208216140356984</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05287029990661554</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04161310142314755</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.08037223454327491</v>
+        <v>0.05246863413715674</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04142568598290539</v>
+        <v>0.04156040587516728</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02505424391424442</v>
+        <v>0.07977212082060192</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04208216140356984</v>
+        <v>0.04147955462082323</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.05252433659223597</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03373656564331397</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02518121385566212</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04286146068882114</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.05293775383975127</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.0423837144124651</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.08044818710923446</v>
-      </c>
       <c r="M120" t="n">
-        <v>0.04219282831592215</v>
+        <v>0.04233004302100372</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02518121385566212</v>
+        <v>0.08069429382384041</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04286146068882114</v>
+        <v>0.04224769452120884</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02518098843326033</v>
+        <v>0.05279576662920143</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03434995774591968</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0251808268484548</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04364075997407243</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05273635160783757</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04315432740178265</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.08069429382384041</v>
+        <v>0.05253576715436151</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04295997064893892</v>
+        <v>0.04309968016684015</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02518098843326033</v>
+        <v>0.08048909931339038</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04364075997407243</v>
+        <v>0.04301583442159446</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02497682152409361</v>
+        <v>0.05306235574832815</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03496334984852539</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02497369532070921</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04442005925932372</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05273485843960762</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.0439249403911002</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.08068815162172038</v>
+        <v>0.05293354207546619</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04372711298195568</v>
+        <v>0.04386931731267658</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02497682152409361</v>
+        <v>0.07998905448064714</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04442005925932372</v>
+        <v>0.04378397432198007</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02516750019681628</v>
+        <v>0.0533240381182663</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0355767419511311</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02505781028957207</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04519935854457501</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05261969990539447</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04469555338041774</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.0798226669778816</v>
+        <v>0.05280767901352773</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04449425531497245</v>
+        <v>0.04463895445851301</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02516750019681628</v>
+        <v>0.08004544094585225</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04519935854457501</v>
+        <v>0.04455211422236569</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02505315648559665</v>
+        <v>0.05358074790766612</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03619013405373681</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02503347852506703</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.0459786578298263</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05239185181762704</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04546616636973529</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.080488930254279</v>
+        <v>0.05265905336283139</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04526139764798922</v>
+        <v>0.04540859160434944</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02505315648559665</v>
+        <v>0.08055917157756898</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0459786578298263</v>
+        <v>0.0453202541227513</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02503392242460313</v>
+        <v>0.05383241928517786</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03680352615634252</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02500100679721774</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.0467579571150776</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05275163940893229</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04623677935905283</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.07949115465511364</v>
+        <v>0.05228858054341251</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04602853998100599</v>
+        <v>0.04617822875018587</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02503392242460313</v>
+        <v>0.0797320986686707</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0467579571150776</v>
+        <v>0.04608839402313692</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02490993004800406</v>
+        <v>0.05407898641945168</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03741691825894823</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02496070187604789</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04753725640032889</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05229938791193706</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04700739234837038</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.07933355338458659</v>
+        <v>0.05269717597530632</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04679568231402275</v>
+        <v>0.0469478658960223</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02490993004800406</v>
+        <v>0.07996607451203047</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04753725640032889</v>
+        <v>0.04685653392352254</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0250813113899678</v>
+        <v>0.05432038347913784</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03803031036155393</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0248128705315811</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04831655568558019</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05223542255926825</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04777800533768792</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.07932033964689861</v>
+        <v>0.05248575507854814</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04756282464703952</v>
+        <v>0.04771750304185873</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0250813113899678</v>
+        <v>0.07946295140052179</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04831655568558019</v>
+        <v>0.04762467382390815</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02504819848466271</v>
+        <v>0.05455654463288656</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03864370246415964</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02495781953384107</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04909585497083149</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.05216006858355277</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04854861832700547</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.07855572664625088</v>
+        <v>0.05205523327317316</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04832996698005628</v>
+        <v>0.04848714018769516</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02504819848466271</v>
+        <v>0.07972458162701784</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04909585497083149</v>
+        <v>0.04839281372429376</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02491072336625716</v>
+        <v>0.05478740404934807</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03925709456676535</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02479585565285145</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04987515425608278</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.05207365121741747</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04931923131632302</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.07824392758684434</v>
+        <v>0.05210652597921672</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04909710931307305</v>
+        <v>0.0492567773335316</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02491072336625716</v>
+        <v>0.07955281748439186</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04987515425608278</v>
+        <v>0.04916095362467938</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0247690180689195</v>
+        <v>0.05501289589717256</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03987048666937106</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02462728565863589</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05065445354133407</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.05207649569348927</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05008984430564057</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.07808915567288</v>
+        <v>0.05204054861671412</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04986425164608982</v>
+        <v>0.05002641447936803</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0247690180689195</v>
+        <v>0.07844951126551719</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05065445354133407</v>
+        <v>0.049929093525065</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0249232146268181</v>
+        <v>0.0552329543450103</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04048387877197677</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02465241632121808</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05143375282658536</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.05196892724439503</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05086045729495812</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.07729562410855884</v>
+        <v>0.05155821660570054</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05063139397910658</v>
+        <v>0.05079605162520446</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0249232146268181</v>
+        <v>0.07841651526326709</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05143375282658536</v>
+        <v>0.05069723342545061</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02477344507412133</v>
+        <v>0.05544751356151147</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04109727087458247</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02467155441062165</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05221305211183665</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.05175127110276168</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05163107028427566</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.07716754609808174</v>
+        <v>0.05156044536621132</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05139853631212334</v>
+        <v>0.0515656887710409</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02477344507412133</v>
+        <v>0.07795568177051493</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05221305211183665</v>
+        <v>0.05146537332583623</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02481984144499752</v>
+        <v>0.05565650771532628</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04171066297718819</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02438500669687027</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05299235139708795</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.05192385250121603</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05240168327359321</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.07670913484565001</v>
+        <v>0.05104815031828172</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05216567864514011</v>
+        <v>0.05233532591687732</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02481984144499752</v>
+        <v>0.07746886308013384</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05299235139708795</v>
+        <v>0.05223351322622184</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02456253577361506</v>
+        <v>0.05585987097510497</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04232405507979389</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02439307994998763</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05377165068233924</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.05178699667238504</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05317229626291076</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.07572460355546434</v>
+        <v>0.05122224688194704</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05293282097815687</v>
+        <v>0.05310496306271376</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02456253577361506</v>
+        <v>0.07735791148499715</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05377165068233924</v>
+        <v>0.05300165312660746</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02470166009414231</v>
+        <v>0.05605753750949781</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04293744718239961</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02439608093999737</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05455094996759054</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.05134102884889558</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05394290925222831</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.07571816543172588</v>
+        <v>0.05068365047724246</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05369996331117365</v>
+        <v>0.05387460020855019</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02470166009414231</v>
+        <v>0.07702467927797818</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05455094996759054</v>
+        <v>0.05376979302699307</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02453734644074762</v>
+        <v>0.05624944148715494</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04355083928500531</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02429431643692315</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05533024925284182</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.05118627426337452</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05471352224154585</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.07509403367863554</v>
+        <v>0.05043327652420335</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05446710564419041</v>
+        <v>0.05464423735438662</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02453734644074762</v>
+        <v>0.07667101875195026</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05533024925284182</v>
+        <v>0.05453793292737869</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02436972684759935</v>
+        <v>0.05643551707672662</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04416423138761102</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02398809321078861</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05610954853809312</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.05102305814844874</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.0554841352308634</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.07375642150039435</v>
+        <v>0.05017204044286497</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05523424797720718</v>
+        <v>0.05541387450022305</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02436972684759935</v>
+        <v>0.07619878219978654</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05610954853809312</v>
+        <v>0.05530607282776431</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02449893334886588</v>
+        <v>0.05661569844686307</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04477762349021672</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02397771803161745</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05688884782334441</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.05125170573674515</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05625474822018095</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.07380954210120333</v>
+        <v>0.04980085765326256</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05600139031022394</v>
+        <v>0.05618351164605948</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02449893334886588</v>
+        <v>0.07560982191436033</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05688884782334441</v>
+        <v>0.05607421272814992</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02442509797871555</v>
+        <v>0.05678991976621449</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04539101559282244</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02376349766943334</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05766814710859571</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.05087254226089064</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0570253612094985</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.07255760868526345</v>
+        <v>0.04952064357543146</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05676853264324071</v>
+        <v>0.05695314879189591</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02442509797871555</v>
+        <v>0.074805990188545</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05766814710859571</v>
+        <v>0.05684235262853553</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02424835277131673</v>
+        <v>0.05695811520343115</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04600440769542815</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0237457388942599</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.058447446393847</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.05098589295351202</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05779597419881605</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.07250483445677569</v>
+        <v>0.0492323136294068</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05753567497625748</v>
+        <v>0.05772278593773233</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02424835277131673</v>
+        <v>0.07468913931521381</v>
       </c>
       <c r="O140" t="n">
-        <v>0.058447446393847</v>
+        <v>0.05761049252892116</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02426882976083779</v>
+        <v>0.05712021892716324</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04661779979803386</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02362474847612084</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.0592267456790983</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.05059208304723634</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05856658718813359</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.07115543261994112</v>
+        <v>0.04903678323522401</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05830281730927424</v>
+        <v>0.05849242308356878</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02426882976083779</v>
+        <v>0.07366112158723992</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0592267456790983</v>
+        <v>0.05837863242930676</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0239866609814471</v>
+        <v>0.05727616510606096</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04723119190063957</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02350083318503976</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06000604496434959</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.05019143777469029</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05933720017745114</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.0704136163789606</v>
+        <v>0.04903496781291827</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05906995964229102</v>
+        <v>0.0592620602294052</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0239866609814471</v>
+        <v>0.07362378929749674</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06000604496434959</v>
+        <v>0.05914677232969238</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02410197846731298</v>
+        <v>0.05742588790877456</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04784458400324527</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02327429979104038</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06078534424960088</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.04988428236850095</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06010781316676869</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.06998359893803524</v>
+        <v>0.0485277827825249</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05983710197530778</v>
+        <v>0.06003169737524164</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02410197846731298</v>
+        <v>0.07307899473885748</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06078534424960088</v>
+        <v>0.05991491223007799</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02381491425260382</v>
+        <v>0.05756932150395426</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04845797610585098</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02324545506414634</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06156464353485218</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.05017094206129505</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06087842615608623</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.06946959350136606</v>
+        <v>0.04841614356407917</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06060424430832454</v>
+        <v>0.06080133452107807</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02381491425260382</v>
+        <v>0.07232859020419546</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06156464353485218</v>
+        <v>0.06068305213046361</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02392560037148798</v>
+        <v>0.05770640006025027</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04907136820845669</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02321460577438129</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06234394282010346</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.04945174208569955</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06164903914540378</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.06887581327315395</v>
+        <v>0.0482009655776163</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06137138664134131</v>
+        <v>0.06157097166691449</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02392560037148798</v>
+        <v>0.0721744279863839</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06234394282010346</v>
+        <v>0.06145119203084923</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02363416885813382</v>
+        <v>0.05783705774631281</v>
       </c>
       <c r="G146" t="n">
+        <v>0.0496847603110624</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02308205869176892</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06312324210535476</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.04922700767434135</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06241965213472132</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.06880647145759988</v>
+        <v>0.04738316424317163</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06213852897435807</v>
+        <v>0.06234060881275093</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02363416885813382</v>
+        <v>0.07151836037829618</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06312324210535476</v>
+        <v>0.06221933193123484</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02354075174670971</v>
+        <v>0.05796122873079214</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05029815241366811</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02274812058633285</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06390254139060605</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.0494970640598473</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06319026512403887</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.06806578125890506</v>
+        <v>0.04716365498078037</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06290567130737484</v>
+        <v>0.06311024595858736</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02354075174670971</v>
+        <v>0.07066223967280549</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06390254139060605</v>
+        <v>0.06298747183162046</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02344548107138399</v>
+        <v>0.05807884718233841</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05091154451627382</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02271309822809679</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06468184067585735</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04926223647484432</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06396087811335642</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.06715795588127021</v>
+        <v>0.04684335321047786</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06367281364039161</v>
+        <v>0.06387988310442379</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02344548107138399</v>
+        <v>0.0703079181627852</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06468184067585735</v>
+        <v>0.06375561173200607</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02334848886632504</v>
+        <v>0.0581898472696019</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05152493661887952</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02257729838708437</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06546113996110865</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.04872285015195923</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06473149110267397</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.06708720852889655</v>
+        <v>0.04662317435229935</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06443995597340837</v>
+        <v>0.06464952025026022</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02334848886632504</v>
+        <v>0.06975724814110851</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06546113996110865</v>
+        <v>0.06452375163239168</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02334990716570122</v>
+        <v>0.05829416316123279</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05213832872148523</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02244102783331928</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06624043924635993</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.04867923032381899</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06550210409199152</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.06605775240598488</v>
+        <v>0.04640403382628008</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06520709830642514</v>
+        <v>0.06541915739609666</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02334990716570122</v>
+        <v>0.06871208190064865</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06624043924635993</v>
+        <v>0.0652918915327773</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02324986800368088</v>
+        <v>0.05839172902588134</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05275172082409094</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02240459333682514</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06701973853161124</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.04833170222305044</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06627271708130907</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.0656657123925955</v>
+        <v>0.04578684705245539</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06597424063944191</v>
+        <v>0.06618879454193309</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02324986800368088</v>
+        <v>0.06847427173427906</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06701973853161124</v>
+        <v>0.06606003143316293</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02314850341443239</v>
+        <v>0.05848247903219773</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05336511292669665</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02206830166762565</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06779903781686251</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.04828059108228053</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06704333007062661</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.06608975043778564</v>
+        <v>0.04547252945086047</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06674138297245868</v>
+        <v>0.06695843168776951</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02314850341443239</v>
+        <v>0.06774566993487297</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06779903781686251</v>
+        <v>0.06682817133354853</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02314594543212412</v>
+        <v>0.05856634734883223</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05397850502930236</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02203245959574446</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06857833710211382</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.04802622213413607</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06781394305994415</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.06522776586462087</v>
+        <v>0.04556199644153069</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06750852530547544</v>
+        <v>0.06772806883360595</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02314594543212412</v>
+        <v>0.0671281287953035</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06857833710211382</v>
+        <v>0.06759631123393414</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0228423260909244</v>
+        <v>0.05864326814443503</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05459189713190807</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0217973738912052</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.0693576363873651</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.04736892061124398</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0685845560492617</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.06477902154666632</v>
+        <v>0.04515616344450119</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0682756676384922</v>
+        <v>0.06849770597944238</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0228423260909244</v>
+        <v>0.06732350060844416</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0693576363873651</v>
+        <v>0.06836445113431976</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02283777742500162</v>
+        <v>0.05871317558765635</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05520528923451377</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02166335132403159</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.0701369356726164</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.04740901174623119</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06935516903857925</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.06434278035748675</v>
+        <v>0.04505594587980738</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06904280997150898</v>
+        <v>0.06926734312527881</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02283777742500162</v>
+        <v>0.06653363766716802</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0701369356726164</v>
+        <v>0.06913259103470538</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02283243146852415</v>
+        <v>0.0587760038471464</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05581868133711949</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02163069866424726</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.0709162349578677</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.04694682077172452</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07012578202789679</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.06441830517064745</v>
+        <v>0.04456225916748449</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06980995230452573</v>
+        <v>0.07003698027111524</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02283243146852415</v>
+        <v>0.06596039226434863</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0709162349578677</v>
+        <v>0.069900730935091</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02272642025566032</v>
+        <v>0.05883168709155545</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05643207343972519</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02139972268187587</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07169553424311899</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.04678267292035088</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07089639501721434</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.06360485885971329</v>
+        <v>0.04437601872756775</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07057709463754251</v>
+        <v>0.07080661741695167</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02272642025566032</v>
+        <v>0.06520561669285901</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07169553424311899</v>
+        <v>0.07066887083547661</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0224198758205785</v>
+        <v>0.05888015948953368</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05704546554233091</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0214667468089331</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07247483352837029</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.04671689342473714</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07166700800653189</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.06390170429824926</v>
+        <v>0.04369473068196039</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07134423697055928</v>
+        <v>0.0715762545627881</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0224198758205785</v>
+        <v>0.06516540879405214</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07247483352837029</v>
+        <v>0.07143701073586221</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02251293019744707</v>
+        <v>0.05892135520973131</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05765885764493661</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02132522846977007</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07325413281362157</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.04644980751751027</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07243762099584944</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.06360810435982045</v>
+        <v>0.04351278175946552</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07211137930357603</v>
+        <v>0.07234589170862453</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02251293019744707</v>
+        <v>0.06453071068537652</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07325413281362157</v>
+        <v>0.07220515063624784</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02230571542043439</v>
+        <v>0.05895520842079857</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05827224974754232</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02117553626365058</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07403343209887288</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.04588174043129703</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07320823398516699</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.06332332191799173</v>
+        <v>0.04322981867684222</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07287852163659281</v>
+        <v>0.07311552885446097</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02230571542043439</v>
+        <v>0.06410074199779436</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07403343209887288</v>
+        <v>0.07297329053663346</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02209836352370881</v>
+        <v>0.05898165329138569</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05888564185014803</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.0208181666821807</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07481273138412416</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.04581301739872443</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07397884697448454</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.06304661984632831</v>
+        <v>0.04324558497364264</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07364566396960957</v>
+        <v>0.07388516600029739</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02209836352370881</v>
+        <v>0.06357485295976234</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07481273138412416</v>
+        <v>0.07374143043701907</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02199100654143868</v>
+        <v>0.05900062399014289</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05949903395275374</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02085361621696651</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07559203066937546</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.04564396365241924</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07474945996380207</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.06297726101839501</v>
+        <v>0.04285982418941875</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07441280630262634</v>
+        <v>0.07465480314613383</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02199100654143868</v>
+        <v>0.06305239379973676</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07559203066937546</v>
+        <v>0.07450957033740468</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02188377650779237</v>
+        <v>0.05901205468572038</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06011242605535945</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02068238135961412</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07637132995462674</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.04537490442500841</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07552007295311962</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.06221450830775693</v>
+        <v>0.04267227986372282</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0751799486356431</v>
+        <v>0.07542444029197026</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02188377650779237</v>
+        <v>0.06283271474617419</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07637132995462674</v>
+        <v>0.0752777102377903</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02197680545693827</v>
+        <v>0.05901587954676837</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06072581815796516</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02030495860172957</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07715062923987805</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.04490616494911884</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07629068594243717</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.06175762458797907</v>
+        <v>0.04208269553610677</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07594709096865987</v>
+        <v>0.07619407743780669</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02197680545693827</v>
+        <v>0.06261516602753098</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07715062923987805</v>
+        <v>0.07604585013817591</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02167022542304468</v>
+        <v>0.05901587954676837</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06072581815796516</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02032184443491898</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07792992852512932</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.04443807045737735</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07706129893175472</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.06210587273262641</v>
+        <v>0.04189081474612288</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07671423330167663</v>
+        <v>0.07696371458364312</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02167022542304468</v>
+        <v>0.06179909787226384</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07792992852512932</v>
+        <v>0.07681399003856153</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02176086461896103</v>
+        <v>0.05803156719318898</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06072554962950114</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.01993353535078841</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07870922781038063</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.04417094618241094</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07783191192107226</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.06115851561526403</v>
+        <v>0.04189638103332324</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0774813756346934</v>
+        <v>0.07773335172947955</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02176086461896103</v>
+        <v>0.06178386050882895</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07870922781038063</v>
+        <v>0.07758212993894716</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02144099643925322</v>
+        <v>0.05705821543581777</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06072528110103712</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01994052784094398</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07948852709563192</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.04420511735684646</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07860252491038981</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.06131481610945688</v>
+        <v>0.04139913793725988</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07824851796771018</v>
+        <v>0.07850298887531598</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02144099643925322</v>
+        <v>0.06116880416568299</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07948852709563192</v>
+        <v>0.07835026983933276</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0213110387918326</v>
+        <v>0.05609632702940515</v>
       </c>
       <c r="G168" t="n">
+        <v>0.0607250125725731</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.01974331839699173</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08026782638088321</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.04364090921331071</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07937313789970736</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.06117403708876995</v>
+        <v>0.04109882899748499</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07901566030072693</v>
+        <v>0.07927262602115241</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0213110387918326</v>
+        <v>0.06075327907128225</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08026782638088321</v>
+        <v>0.07911840973971837</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02137180237334357</v>
+        <v>0.05514640472882697</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06072474404410908</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01954240351053776</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08104712566613452</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.04357864698443062</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08014375088902491</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.06043544142676832</v>
+        <v>0.04059519775355058</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0797828026337437</v>
+        <v>0.08004226316698886</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02137180237334357</v>
+        <v>0.06083663545408335</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08104712566613452</v>
+        <v>0.07988654964010398</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0210240978804305</v>
+        <v>0.05420895128883312</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06072447551564507</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.01913827967318817</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.0818264249513858</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.04321850790876003</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08091436387834246</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.06089829199701702</v>
+        <v>0.04018798774500884</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08054994496676048</v>
+        <v>0.08081190031282527</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0210240978804305</v>
+        <v>0.05961822354254276</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0818264249513858</v>
+        <v>0.08065468954048961</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02086873600973776</v>
+        <v>0.05328446946421568</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06072420698718105</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01913144337654904</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.0826057242366371</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04305402198025232</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08168497686766001</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.06016185167308097</v>
+        <v>0.04027694251141192</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08131708729977723</v>
+        <v>0.08158153745866172</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02086873600973776</v>
+        <v>0.05979739356511687</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0826057242366371</v>
+        <v>0.08142282944087523</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02090652745790973</v>
+        <v>0.05237346200972738</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06072393845871703</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.01872239111222643</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08338502352188838</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0427816693020289</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08245558985697755</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.05982538332852522</v>
+        <v>0.03956180559231182</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08208422963279401</v>
+        <v>0.08235117460449815</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02090652745790973</v>
+        <v>0.05887349575026213</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08338502352188838</v>
+        <v>0.08219096934126084</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02073828292159083</v>
+        <v>0.05147643168023958</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06072366993025301</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01871161937182643</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08416432280713969</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04230156165242921</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.0832262028462951</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.06028814983691466</v>
+        <v>0.03934232052726072</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08285137196581077</v>
+        <v>0.08312081175033456</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02073828292159083</v>
+        <v>0.05894588032643511</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08416432280713969</v>
+        <v>0.08295910924164646</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02056481309742542</v>
+        <v>0.05059388123050437</v>
       </c>
       <c r="G174" t="n">
+        <v>0.060723401401789</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01849962464695515</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08494362209239097</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.04201381080979266</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08399681583561265</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.05924941407181444</v>
+        <v>0.03941823085581067</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08361851429882754</v>
+        <v>0.083890448896171</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02056481309742542</v>
+        <v>0.05871389752209211</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08494362209239097</v>
+        <v>0.08372724914203207</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02018692868205788</v>
+        <v>0.04972631341531386</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06072313287332499</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.01818690342921865</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08572292137764227</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04191852855245876</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.0847674288249302</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05970843890678962</v>
+        <v>0.03878928011751387</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0843856566318443</v>
+        <v>0.08466008604200743</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02018692868205788</v>
+        <v>0.05817689756568972</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08572292137764227</v>
+        <v>0.08449538904241768</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02010544037213259</v>
+        <v>0.04887423098942331</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06072286434486096</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.01807395221022301</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08650222066289356</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04181582665876682</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08553804181424775</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.05926448721540511</v>
+        <v>0.03875521185192238</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08515279896486107</v>
+        <v>0.08542972318784386</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02010544037213259</v>
+        <v>0.05733423068568444</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08650222066289356</v>
+        <v>0.0852635289428033</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02002115886429397</v>
+        <v>0.04803813670769898</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06072259581639695</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01786126748157435</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08728151994814486</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0414058169070563</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.0863086548035653</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.05921682187122596</v>
+        <v>0.03831576959858829</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08591994129787783</v>
+        <v>0.08619936033368029</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02002115886429397</v>
+        <v>0.0570852471105327</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08728151994814486</v>
+        <v>0.08603166884318891</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01963489485518632</v>
+        <v>0.04721853332489553</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06072232728793293</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01744934573487869</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08806081923339615</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.04088861107566663</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08707926779288284</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.0583647057478171</v>
+        <v>0.03777069689706369</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0866870836308946</v>
+        <v>0.08696899747951674</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01963489485518632</v>
+        <v>0.05662929706869091</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08806081923339615</v>
+        <v>0.08679980874357453</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01964745904145414</v>
+        <v>0.04641592359580497</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06072205875946892</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01733868346174218</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08884011851864744</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04036432094293724</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08784988078220039</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.0588074017187436</v>
+        <v>0.03761973728690082</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08745422596391136</v>
+        <v>0.08773863462535315</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01964745904145414</v>
+        <v>0.05626573078861563</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08884011851864744</v>
+        <v>0.08756794864396014</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01925966211974173</v>
+        <v>0.04563081027518563</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06072179023100489</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01722977715377087</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08961941780389875</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.04033305828720757</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08862049377151793</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.05814417265757049</v>
+        <v>0.03696263430765165</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08822136829692813</v>
+        <v>0.08850827177118958</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01925966211974173</v>
+        <v>0.05599389849876329</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08961941780389875</v>
+        <v>0.08833608854434576</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01927231478669351</v>
+        <v>0.04486369611789789</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06072152170254088</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01692312330257086</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09039871708915002</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.03999493488681705</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08939110676083548</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.05807428143786286</v>
+        <v>0.03689913149886839</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08898851062994489</v>
+        <v>0.08927790891702603</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01927231478669351</v>
+        <v>0.05541315042759037</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09039871708915002</v>
+        <v>0.08910422844473138</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01898622773895384</v>
+        <v>0.04411508387869927</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06072125317407686</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0166192183997482</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09117801637440133</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.03935006252010506</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09016171975015302</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.05739699093318545</v>
+        <v>0.03652897240010303</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08975565296296167</v>
+        <v>0.09004754606286244</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01898622773895384</v>
+        <v>0.05472283680355322</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09117801637440133</v>
+        <v>0.08987236834511698</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01870221167316712</v>
+        <v>0.04338547631238182</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06072098464561285</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01641855893690899</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09195731565965261</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.03939855296541103</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09093233273947057</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.05711156401710349</v>
+        <v>0.03575190055090777</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09052279529597844</v>
+        <v>0.09081718320869889</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01870221167316712</v>
+        <v>0.05392230785510854</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09195731565965261</v>
+        <v>0.0906405082455026</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01862107728597773</v>
+        <v>0.04267537617370712</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06072071611714882</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01632164140565935</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09273661494490391</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.03874051800107442</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09170294572878812</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05681726356318195</v>
+        <v>0.03536765949083473</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09128993762899519</v>
+        <v>0.09158682035453532</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01862107728597773</v>
+        <v>0.05341091381071261</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09273661494490391</v>
+        <v>0.09140864814588823</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01844363527403008</v>
+        <v>0.04198528621752905</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06072044758868481</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01612896229760533</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09351591423015521</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.03877606940543465</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09247355871810567</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.05691335244498585</v>
+        <v>0.03537599275943595</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09205707996201197</v>
+        <v>0.09235645750037175</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01844363527403008</v>
+        <v>0.05348800489882199</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09351591423015521</v>
+        <v>0.09217678804627384</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01817069633396851</v>
+        <v>0.04131570919860836</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06072017906022079</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01594101810435301</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.0942952135154065</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03830531895683115</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09324417170742322</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.05609909353608011</v>
+        <v>0.03487664389626363</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09282422229502874</v>
+        <v>0.09312609464620818</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01817069633396851</v>
+        <v>0.05255293134789307</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0942952135154065</v>
+        <v>0.09294492794665946</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01820307116243743</v>
+        <v>0.04066714787173709</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06071991053175678</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01575830531750849</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09507451280065779</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.0379283784336033</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09401478469674077</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.05577374971002985</v>
+        <v>0.03456935644086981</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0935913646280455</v>
+        <v>0.09389573179204461</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01820307116243743</v>
+        <v>0.05160504338638233</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09507451280065779</v>
+        <v>0.09371306784704507</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01804157045608119</v>
+        <v>0.04004010499168048</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06071964200329275</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01568132042867783</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09585381208590908</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03744535961409054</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09478539768605831</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.05613658384039999</v>
+        <v>0.0337538739328066</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09435850696106227</v>
+        <v>0.09466536893788104</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01804157045608119</v>
+        <v>0.05114369124274637</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09585381208590908</v>
+        <v>0.09448120774743068</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01788700491154423</v>
+        <v>0.03943508331328521</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06071937347482874</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01531055992946714</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09663311137116037</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03675637427663236</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09555601067537585</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.0549868588007556</v>
+        <v>0.03382993991162614</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09512564929407903</v>
+        <v>0.09543500608371747</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01788700491154423</v>
+        <v>0.05056822514544151</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09663311137116037</v>
+        <v>0.0952493476478163</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01764018522547088</v>
+        <v>0.03885053267591443</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06071910494636473</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01534652031148251</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09741241065641167</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03666153419956805</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.0963266236646934</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.0547238374646617</v>
+        <v>0.03309729791688054</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0958927916270958</v>
+        <v>0.09620464322955391</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01764018522547088</v>
+        <v>0.05067799532292422</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09741241065641167</v>
+        <v>0.09601748754820191</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01760192209450558</v>
+        <v>0.03827463834195473</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06071883641790071</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01498969806632998</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09819170994166297</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03616095116123721</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09709723665401095</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.05444678270568321</v>
+        <v>0.03245569148812194</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09665993396011256</v>
+        <v>0.09697428037539033</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01760192209450558</v>
+        <v>0.04997235200365108</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09819170994166297</v>
+        <v>0.09678562744858753</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01727271145537235</v>
+        <v>0.0377058501507728</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06071856788943669</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01494058968561568</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09897100922691425</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03575473693997913</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09786784964332849</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.05435495739738522</v>
+        <v>0.03200486416490234</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09742707629312934</v>
+        <v>0.09774391752122677</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01727271145537235</v>
+        <v>0.04925064541607849</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09897100922691425</v>
+        <v>0.09755376734897314</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01734856576792704</v>
+        <v>0.03714467085721022</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06071829936097267</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01469760041719897</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09975030851216556</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03534300331413331</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09863846263264604</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.05414762441333276</v>
+        <v>0.03172860410890158</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09819421862614609</v>
+        <v>0.0985135546670632</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01734856576792704</v>
+        <v>0.0485855504406485</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09975030851216556</v>
+        <v>0.09832190724935876</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01712789691216436</v>
+        <v>0.03659160321603415</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06071803083250865</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01475815998835656</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1005296077974168</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03502586206203914</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09940907562196359</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.05302404662709076</v>
+        <v>0.03110906367386063</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09896136095916286</v>
+        <v>0.09928319181289962</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01712789691216436</v>
+        <v>0.04724583063803467</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1005296077974168</v>
+        <v>0.09909004714974437</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01701050945147187</v>
+        <v>0.03604714998203663</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06071776230404464</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01462208146240485</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1013089070826681</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.03430342496203603</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1001796886112811</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.0531834869122243</v>
+        <v>0.03084884347437433</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09972850329217964</v>
+        <v>0.1000528289587361</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01701050945147187</v>
+        <v>0.04673622258562909</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1013089070826681</v>
+        <v>0.09985818705013</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01689620794923702</v>
+        <v>0.03551181390998664</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06071749377558061</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01438918631909415</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1020882063679194</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03407580379246344</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1009503016005987</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.05222520814229831</v>
+        <v>0.03025059142964215</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1004956456251964</v>
+        <v>0.1008224661045725</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01689620794923702</v>
+        <v>0.04576158918101864</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1020882063679194</v>
+        <v>0.1006263269505156</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01688479696884736</v>
+        <v>0.03498609775472285</v>
       </c>
       <c r="G197" t="n">
+        <v>0.0607172252471166</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01415929603817474</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1028675056531707</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03344311033166078</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1017209145899162</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.05164847319087784</v>
+        <v>0.0295169554588634</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1012627879582132</v>
+        <v>0.1015921032504089</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01688479696884736</v>
+        <v>0.04482679332179007</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1028675056531707</v>
+        <v>0.1013944668509012</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0167760810736903</v>
+        <v>0.03447050427101381</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06071695671865258</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01403223209939687</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.103646804938422</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03330545635796744</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1024915275792338</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.05125254493152798</v>
+        <v>0.0287505834812376</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1020299302912299</v>
+        <v>0.1023617403962453</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0167760810736903</v>
+        <v>0.04363669790553015</v>
       </c>
       <c r="O198" t="n">
-        <v>0.103646804938422</v>
+        <v>0.1021626067512868</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01666986482715345</v>
+        <v>0.03396553621365155</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06071668819018857</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01400781598251083</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1044261042236733</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03256295364972292</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1032621405685513</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.05133668623781362</v>
+        <v>0.02785412341596402</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1027970726242467</v>
+        <v>0.1031313775420818</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01666986482715345</v>
+        <v>0.04329616582982565</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1044261042236733</v>
+        <v>0.1029307466516725</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01646595279262426</v>
+        <v>0.03347169633740692</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06071641966172454</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01378586916726687</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1052054035089246</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.03261571398526661</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1040327535578689</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.05030015998329984</v>
+        <v>0.02753022318224219</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1035642149572635</v>
+        <v>0.1039010146879182</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01646595279262426</v>
+        <v>0.04211005999226342</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1052054035089246</v>
+        <v>0.1036988865520581</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01646414953349024</v>
+        <v>0.03298948739711496</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06071615113326053</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01366621313341526</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1059847027941759</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03216384914293793</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1048033665471864</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.05021343402483514</v>
+        <v>0.02688153069927141</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1043313572902802</v>
+        <v>0.1046706518337546</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01646414953349024</v>
+        <v>0.04068324329043022</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1059847027941759</v>
+        <v>0.1044670264524437</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01626425961313888</v>
+        <v>0.03251941214754601</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06071588260479652</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.0137486693607063</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1067640020794272</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03150747090107631</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.105573979536504</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.04875468768194313</v>
+        <v>0.02591069388625106</v>
       </c>
       <c r="M202" t="n">
-        <v>0.105098499623297</v>
+        <v>0.1054402889795911</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01626425961313888</v>
+        <v>0.03952057862191283</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1067640020794272</v>
+        <v>0.1052351663528293</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01616608759495772</v>
+        <v>0.03206197334349209</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0607156140763325</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01363305932889025</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1075433013646785</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.031137301549402</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1063445925258215</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.04822476535304915</v>
+        <v>0.0249203606623806</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1058656419563137</v>
+        <v>0.1062099261254275</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01616608759495772</v>
+        <v>0.03882692888429795</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1075433013646785</v>
+        <v>0.1060033062532149</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01616943804233423</v>
+        <v>0.03161767373972622</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06071534554786848</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01351920451771735</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1083226006499298</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03042447553226174</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1071152055151391</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.04714040574062489</v>
+        <v>0.02401317894685948</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1066327842893305</v>
+        <v>0.1069795632712639</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01616943804233423</v>
+        <v>0.03740715697517266</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1083226006499298</v>
+        <v>0.1067714461536005</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01597411551865592</v>
+        <v>0.0311870160910792</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06071507701940446</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01320692640693789</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1091018999351811</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.02977293505319534</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1078858185044566</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.04561834754714211</v>
+        <v>0.02319179665888693</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1073999266223473</v>
+        <v>0.1077492004171004</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01597411551865592</v>
+        <v>0.03556612579212337</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1091018999351811</v>
+        <v>0.1075395860539861</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0159799245873103</v>
+        <v>0.03077050315232338</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06071480849094044</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01319604647630215</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1098811992204324</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.02908940424059397</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1086564314937742</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04497532947507271</v>
+        <v>0.02245886171766245</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1081670689553641</v>
+        <v>0.1085188375629368</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0159799245873103</v>
+        <v>0.03480869823273725</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1098811992204324</v>
+        <v>0.1083077259543718</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01578666981168488</v>
+        <v>0.03036863767825086</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06071453996247643</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.0129863862055604</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1106604985056836</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02858060722284883</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1094270444830917</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04342809022688832</v>
+        <v>0.02161702204238541</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1089342112883808</v>
+        <v>0.1092884747087732</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01578666981168488</v>
+        <v>0.03363973719460078</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1106604985056836</v>
+        <v>0.1090758658547574</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01579415575516713</v>
+        <v>0.02998192242363723</v>
       </c>
       <c r="G208" t="n">
+        <v>0.0607142714340124</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01307776707446291</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.111439797790935</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.02785326812835109</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1101976574724093</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.04129336850506082</v>
+        <v>0.02066892555225527</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1097013536213976</v>
+        <v>0.1100581118546097</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01579415575516713</v>
+        <v>0.03246410557530088</v>
       </c>
       <c r="O208" t="n">
-        <v>0.111439797790935</v>
+        <v>0.109844005755143</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01570218698114459</v>
+        <v>0.02961086014330815</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06071400290554839</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01287001056275994</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1122190970761862</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.02751411108549184</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1109682704617268</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.04028790301206181</v>
+        <v>0.01981722016647136</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1104684959544144</v>
+        <v>0.1108277490004461</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01570218698114459</v>
+        <v>0.03128666627242438</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1122190970761862</v>
+        <v>0.1106121456555286</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01561056805300473</v>
+        <v>0.02925595359203857</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06071373437708438</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01266293815020175</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1129983963614375</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02686986022266244</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1117388834510444</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.03802843245036336</v>
+        <v>0.01906455380423308</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1112356382874311</v>
+        <v>0.1115973861462825</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01561056805300473</v>
+        <v>0.02961228218355794</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1129983963614375</v>
+        <v>0.1113802855559142</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01551910353413508</v>
+        <v>0.02891770552462053</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06071346584862036</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01275637131653864</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1137776956466888</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.02632723966825395</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1125094964403619</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.03623169552243694</v>
+        <v>0.01861357438473987</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1120027806204479</v>
+        <v>0.112367023292119</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01551910353413508</v>
+        <v>0.02864581620628853</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1137776956466888</v>
+        <v>0.1121484254562998</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01542759798792313</v>
+        <v>0.02859661869583249</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06071319732015634</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01265013154152086</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1145569949319401</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.02539297355065753</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1132801094296794</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.03461443093075461</v>
+        <v>0.01776692982719108</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1127699229534646</v>
+        <v>0.1131366604379554</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01542759798792313</v>
+        <v>0.02739213123820283</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1145569949319401</v>
+        <v>0.1129165653566854</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0153358559777564</v>
+        <v>0.02829319586049447</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06071292879169232</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01254404030489871</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1153362942171914</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.02517378599826445</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.114050722418997</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03349337737778801</v>
+        <v>0.01672726805078611</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1135370652864814</v>
+        <v>0.1139062975837918</v>
       </c>
       <c r="N213" t="n">
-        <v>0.0153358559777564</v>
+        <v>0.02625609017688763</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1153362942171914</v>
+        <v>0.1136847052570711</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01524368206702237</v>
+        <v>0.02800793977338419</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06071266026322831</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01223791908642243</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1161155935024427</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02457640113946583</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1148213354083145</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03168527356600886</v>
+        <v>0.01589723697472437</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1143042076194982</v>
+        <v>0.1146759347296283</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01524368206702237</v>
+        <v>0.02494255591992972</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1161155935024427</v>
+        <v>0.1144528451574567</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01505088081910855</v>
+        <v>0.02800793977338419</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06071266026322831</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01233158936584228</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.116894892787694</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02390754310265289</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1155919483976321</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.02970685819788904</v>
+        <v>0.0149794845182053</v>
       </c>
       <c r="M215" t="n">
-        <v>0.115071349952515</v>
+        <v>0.1154455718754647</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01505088081910855</v>
+        <v>0.02345639136491584</v>
       </c>
       <c r="O215" t="n">
-        <v>0.116894892787694</v>
+        <v>0.1152209850578423</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01485725679740245</v>
+        <v>0.02729558129202449</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06060100899273786</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01222487262290857</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1176741920729453</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02347393601621672</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1163625613869496</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.02837486997590033</v>
+        <v>0.01397665860042824</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1158384922855317</v>
+        <v>0.1162152090213011</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01485725679740245</v>
+        <v>0.02240245940943292</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1176741920729453</v>
+        <v>0.1159891249582279</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01486261456529156</v>
+        <v>0.02659096810577004</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06048935772224741</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01201759033737154</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1184534913581966</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02298230400854862</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1171331743762672</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.02620604760251433</v>
+        <v>0.01359140714059259</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1166056346185485</v>
+        <v>0.1169848461671376</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01486261456529156</v>
+        <v>0.02138562295106777</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1184534913581966</v>
+        <v>0.1167572648586135</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0148667586861634</v>
+        <v>0.02589442378605172</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06037770645175695</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01200956398898147</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1192327906434479</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.0222393712080397</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1179037873655847</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.02491712978020316</v>
+        <v>0.01242637805789776</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1173727769515652</v>
+        <v>0.117754483312974</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0148667586861634</v>
+        <v>0.02001074488740695</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1192327906434479</v>
+        <v>0.1175254047589991</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01466949372340547</v>
+        <v>0.02520627190430044</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06026605518126651</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01190061505748864</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1200120899286992</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02183967198985101</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1186744003549023</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02412485521143831</v>
+        <v>0.01218421927154312</v>
       </c>
       <c r="M219" t="n">
-        <v>0.118139919284582</v>
+        <v>0.1185241204588104</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01466949372340547</v>
+        <v>0.01878268811603745</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1200120899286992</v>
+        <v>0.1182935446593848</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01467062424040523</v>
+        <v>0.0245268360319469</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06015440391077605</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01179056502264331</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1207913892139505</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02164449522330053</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1194450133442198</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02284596259869159</v>
+        <v>0.0113675787007281</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1189070616175988</v>
+        <v>0.1192937576046468</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01467062424040523</v>
+        <v>0.01830631553454604</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1207913892139505</v>
+        <v>0.1190616845597704</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01446995480055026</v>
+        <v>0.02385643974042201</v>
       </c>
       <c r="G221" t="n">
+        <v>0.0600427526402856</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01167923536419575</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1215706884992018</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.02125060971432985</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1202156263335374</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02149719064443495</v>
+        <v>0.0106791042646521</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1196742039506156</v>
+        <v>0.1200633947504833</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01446995480055026</v>
+        <v>0.0173864900405194</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1215706884992018</v>
+        <v>0.119829824460156</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01436728996722801</v>
+        <v>0.02319540660115647</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05993110136979515</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01146644756189622</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1223499877844531</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.02095830134426369</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1209862393228549</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02039527805114</v>
+        <v>0.009721443882514502</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1204413462836323</v>
+        <v>0.1208330318963197</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01436728996722801</v>
+        <v>0.01612807453154447</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1223499877844531</v>
+        <v>0.1205979643605416</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01416243430382599</v>
+        <v>0.02254406018558118</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05981945009930469</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01135202309549502</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1231292870697044</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02046785599442671</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1217568523121725</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.01945696352127857</v>
+        <v>0.009497245473514715</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1212084886166491</v>
+        <v>0.1216026690421561</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01416243430382599</v>
+        <v>0.01593593190520787</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1231292870697044</v>
+        <v>0.1213661042609272</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01425519237373173</v>
+        <v>0.02190272406512703</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05970779882881425</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01133578344474241</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1239085863549556</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.01987955954614368</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.12252746530149</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.01859898575732249</v>
+        <v>0.008909156956852127</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1219756309496659</v>
+        <v>0.1223723061879926</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01425519237373173</v>
+        <v>0.0152149250590965</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1239085863549556</v>
+        <v>0.1221342441613128</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01394536874033268</v>
+        <v>0.02127172181122469</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05959614755832379</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01101755008938866</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1246878856402069</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.01939369788073922</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1232980782908076</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.01809449977375566</v>
+        <v>0.00825982625172611</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1227427732826826</v>
+        <v>0.123141943333829</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01394536874033268</v>
+        <v>0.01396991689079713</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1246878856402069</v>
+        <v>0.1229023840616985</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01383276796701638</v>
+        <v>0.02065137699530512</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05948449628783335</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01099714450918401</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1254671849254582</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.01941055687953802</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1240686912801251</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.01790820664982057</v>
+        <v>0.007651901277336087</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1235099156156994</v>
+        <v>0.1239115804796654</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01383276796701638</v>
+        <v>0.01390577029789664</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1254671849254582</v>
+        <v>0.1236705239620841</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01391719461717035</v>
+        <v>0.02004201318879902</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05937284501734288</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01077438818387878</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1262464842107095</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.01853042242386488</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1248393042694426</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.01742923805260432</v>
+        <v>0.007188029952881425</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1242770579487161</v>
+        <v>0.1246812176255019</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01391719461717035</v>
+        <v>0.01342734817798169</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1262464842107095</v>
+        <v>0.1244386638624697</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01369900411245739</v>
+        <v>0.01944395396313731</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05926119374685244</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.0106491025932232</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1270257834959608</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.01835358039504434</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1256099172587602</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.01645787700983076</v>
+        <v>0.006770860197561596</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1250442002817329</v>
+        <v>0.1254508547713383</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01369900411245739</v>
+        <v>0.01253951342863907</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1270257834959608</v>
+        <v>0.1252068037628553</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0134794098448813</v>
+        <v>0.01885752288975071</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05914954247636198</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01052110921696757</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1278050827812121</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.01808031667440113</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1263805302480777</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.01679440654922354</v>
+        <v>0.006203039930575943</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1258113426147497</v>
+        <v>0.1262204919171747</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0134794098448813</v>
+        <v>0.01234712894745565</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1278050827812121</v>
+        <v>0.1259749436632409</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01335847715908935</v>
+        <v>0.01828304354007009</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05903789120587153</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01049023868257765</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1285843820664634</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.0179109171432601</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1271511432373953</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.01593910969850648</v>
+        <v>0.006086819261441556</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1265784849477665</v>
+        <v>0.1269901290630112</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01335847715908935</v>
+        <v>0.01245448895136642</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1285843820664634</v>
+        <v>0.1267430835636265</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01343621847460282</v>
+        <v>0.01772083948552634</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05892623993538108</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01025741215422867</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1293636813517147</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.01734566768294571</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1279217562267128</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.0151922694854032</v>
+        <v>0.00599205834799485</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1273456272807832</v>
+        <v>0.1277597662088476</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01343621847460282</v>
+        <v>0.01210498895813999</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1293636813517147</v>
+        <v>0.1275112234640121</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01331264621094287</v>
+        <v>0.01717123429755014</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05881458866489062</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01012334344224087</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.130142980636966</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.01698485417478279</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1286923692160304</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.01465416893763755</v>
+        <v>0.005498976561968544</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1281127696138</v>
+        <v>0.128529403354684</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01331264621094287</v>
+        <v>0.01175866199645409</v>
       </c>
       <c r="O232" t="n">
-        <v>0.130142980636966</v>
+        <v>0.1282793633643978</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01318777278763084</v>
+        <v>0.01663455154757246</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05870293739440018</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.009988046568967845</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1309222799222173</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.01682876250009605</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1294629822053479</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.01492509108293327</v>
+        <v>0.005008012072642759</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1288799119468167</v>
+        <v>0.1292990405005204</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01318777278763084</v>
+        <v>0.01201558743575748</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1309222799222173</v>
+        <v>0.1290475032647834</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01296161062418789</v>
+        <v>0.01611111480702399</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05859128612390972</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.00985153555676322</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1317015792074686</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.01627767854021012</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1302335951946655</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.0138053189490141</v>
+        <v>0.004819603049297766</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1296470542798335</v>
+        <v>0.1300686776463569</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01296161062418789</v>
+        <v>0.01187584464549896</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1317015792074686</v>
+        <v>0.129815643165169</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01273417214013535</v>
+        <v>0.01560124764733564</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05847963485341928</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.009813824427980587</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1324808784927199</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.01583188817644973</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.131004208183983</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.01399513556360382</v>
+        <v>0.004534187661213718</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1304141966128503</v>
+        <v>0.1308383147921933</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01273417214013535</v>
+        <v>0.01123951299512715</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1324808784927199</v>
+        <v>0.1305837830655546</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01280546975499444</v>
+        <v>0.01510527363993815</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05836798358292882</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.009574927204973563</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1332601777779712</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.01539167729013954</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1317748211733006</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01319482395442612</v>
+        <v>0.004152204077670918</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1311813389458671</v>
+        <v>0.1316079519380297</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01280546975499444</v>
+        <v>0.01180667185409101</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1332601777779712</v>
+        <v>0.1313519229659402</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01267551588828639</v>
+        <v>0.01462351635626238</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05825633231243837</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.009534857910095743</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1340394770632225</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.01505733176260429</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1325454341626181</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01340466714920474</v>
+        <v>0.003874090467949537</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1319484812788838</v>
+        <v>0.1323775890838662</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01267551588828639</v>
+        <v>0.0116774005918393</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1340394770632225</v>
+        <v>0.1321200628663259</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01254432295953245</v>
+        <v>0.01415629936773921</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05814468104194792</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.00949363056570076</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1348187763484738</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.01502913747516865</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1333160471519357</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01272494817566344</v>
+        <v>0.003900285001329828</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1327156236119006</v>
+        <v>0.1331472262297026</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01254432295953245</v>
+        <v>0.01155177857782075</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1348187763484738</v>
+        <v>0.1328882027667115</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01241190338825386</v>
+        <v>0.01370394624579935</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05803302977145747</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.0092512591941422</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.135598075633725</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.01460738030915729</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1340866601412532</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.01255595006152604</v>
+        <v>0.003431225847091934</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1334827659449174</v>
+        <v>0.133916863375539</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01241190338825386</v>
+        <v>0.0108298851814842</v>
       </c>
       <c r="O239" t="n">
-        <v>0.135598075633725</v>
+        <v>0.1336563426670971</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01217826959397188</v>
+        <v>0.01326545931186456</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05792137850096702</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.009107757817773683</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1363773749189764</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.01439234614589494</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1348572731305707</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01209795583451623</v>
+        <v>0.003267351174516125</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1342499082779341</v>
+        <v>0.1346865005213755</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01217826959397188</v>
+        <v>0.01131179977227831</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1363773749189764</v>
+        <v>0.1344244825674827</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01214343399620777</v>
+        <v>0.01283323463731044</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05780972723047656</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.008863140458948815</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1371566742042276</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.01398432086670626</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1356278861198883</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.01165124852235766</v>
+        <v>0.002909099152882622</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1350170506109509</v>
+        <v>0.1354561376672119</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01214343399620777</v>
+        <v>0.01069760171965201</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1371566742042276</v>
+        <v>0.1351926224678683</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01180740901448275</v>
+        <v>0.01240627454355873</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05769807595998612</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.008917421140021191</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1379359734894789</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.01378359035291596</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1363984991092058</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.01111611115277428</v>
+        <v>0.002756907951471599</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1357841929439677</v>
+        <v>0.1362257748130483</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01180740901448275</v>
+        <v>0.01098737039305392</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1379359734894789</v>
+        <v>0.1359607623682539</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01187020706831809</v>
+        <v>0.01198490260204017</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05758642468949566</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.008770613883344443</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1387152727747302</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.01329044048584876</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1371691120985234</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01059282675348966</v>
+        <v>0.002511215739563338</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1365513352769844</v>
+        <v>0.1369954119588848</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01187020706831809</v>
+        <v>0.01048118516193297</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1387152727747302</v>
+        <v>0.1367289022686395</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01173184057723502</v>
+        <v>0.01156944238418562</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05747477341900521</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.008422732711272161</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1394945720599815</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.0131051571468293</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1379397250878409</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01058167835222767</v>
+        <v>0.002072460686438071</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1373184776100012</v>
+        <v>0.1377650491047212</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01173184057723502</v>
+        <v>0.01027912539573794</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1394945720599815</v>
+        <v>0.1374970421690251</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01149232196075478</v>
+        <v>0.01116021746142594</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05736312214851476</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.008473791646157962</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1402738713452328</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.01262802621718231</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1387103380771585</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.01048294897671198</v>
+        <v>0.00224108096137593</v>
       </c>
       <c r="M245" t="n">
-        <v>0.138085619943018</v>
+        <v>0.1385346862505576</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01149232196075478</v>
+        <v>0.01078127046391752</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1402738713452328</v>
+        <v>0.1382651820694108</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01145166363839865</v>
+        <v>0.01075755140519188</v>
       </c>
       <c r="G246" t="n">
+        <v>0.0572514708780243</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.008323804710355445</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1410531706304841</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.01275933357823253</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.139480951066476</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.009796921654666391</v>
+        <v>0.001517514733657216</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1388527622760347</v>
+        <v>0.139304323396394</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01145166363839865</v>
+        <v>0.0100876997359205</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1410531706304841</v>
+        <v>0.1390333219697964</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01120987802968785</v>
+        <v>0.01036176778691432</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05713981960753386</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.008072785926218212</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1418324699157354</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01209936511130455</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1402515640557936</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.009723879413814585</v>
+        <v>0.001502200172562057</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1396199046090515</v>
+        <v>0.1400739605422305</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01120987802968785</v>
+        <v>0.009898492581195684</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1418324699157354</v>
+        <v>0.139801461870182</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01106697755414363</v>
+        <v>0.009973190178024019</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0570281683370434</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.007820749316099905</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1426117692009867</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01204840669772311</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1410221770451111</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.009364105281880419</v>
+        <v>0.001595575447370767</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1403870469420682</v>
+        <v>0.1408435976880669</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01106697755414363</v>
+        <v>0.0100137283691919</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1426117692009867</v>
+        <v>0.1405696017705676</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01082297463128724</v>
+        <v>0.009592142149951854</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05691651706655296</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.007767708902354092</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.143391068486238</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01200674421881293</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1417927900344287</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.009617882286587498</v>
+        <v>0.001198078727363466</v>
       </c>
       <c r="M249" t="n">
-        <v>0.141154189275085</v>
+        <v>0.1416132348339033</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01082297463128724</v>
+        <v>0.01043348646935777</v>
       </c>
       <c r="O249" t="n">
-        <v>0.143391068486238</v>
+        <v>0.1413377416709532</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01067788168063993</v>
+        <v>0.009218947274128593</v>
       </c>
       <c r="G250" t="n">
+        <v>0.0568048657960625</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.007613678707334405</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1441703677714893</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01137466355589864</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1425634030237462</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.00938549345565981</v>
+        <v>0.0009101481818204749</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1419213316081018</v>
+        <v>0.1423828719797398</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01067788168063993</v>
+        <v>0.009857846251142333</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1441703677714893</v>
+        <v>0.1421058815713388</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01073171112172293</v>
+        <v>0.008853929121985085</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05669321452557204</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.007558672753394453</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1449496670567406</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01105245059030505</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1433340160130638</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.009167221816820725</v>
+        <v>0.0005322219800219796</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1426884739411186</v>
+        <v>0.1431525091255762</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01073171112172293</v>
+        <v>0.01028688708399422</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1449496670567406</v>
+        <v>0.1428740214717244</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01048447537405751</v>
+        <v>0.008497411264952168</v>
       </c>
       <c r="G252" t="n">
+        <v>0.0565815632550816</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.007402705062887829</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1457289663419919</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01124039120335674</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1441046290023813</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.008263350397794356</v>
+        <v>0.0008647382912481405</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1434556162741353</v>
+        <v>0.1439221462714126</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01048447537405751</v>
+        <v>0.01002068833736219</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1457289663419919</v>
+        <v>0.1436421613721101</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01023618685716491</v>
+        <v>0.008149717274460608</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05646991198459114</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.007245789658168154</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1465082656272431</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01103877127637842</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1448752419916989</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.00837416222630416</v>
+        <v>0.0002081352847792539</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1442227586071521</v>
+        <v>0.1446917834172491</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01023618685716491</v>
+        <v>0.009959329380695048</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1465082656272431</v>
+        <v>0.1444103012724957</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01018685799056637</v>
+        <v>0.007811170721941312</v>
       </c>
       <c r="G254" t="n">
+        <v>0.0563582607141007</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.006887940561589041</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1472875649124944</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01084787669069484</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1456458549810164</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.008399940330074185</v>
+        <v>0.0004628511298954974</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1449899009401689</v>
+        <v>0.1454614205630855</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01018685799056637</v>
+        <v>0.009302889583441609</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1472875649124944</v>
+        <v>0.1451784411728813</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.009936501193783143</v>
+        <v>0.007482095178824998</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05624660944361024</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.00682917179550406</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1480668641977458</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01046799332763065</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.146416467970334</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.007940967736827842</v>
+        <v>0.0004293239958770845</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1457570432731856</v>
+        <v>0.1462310577089219</v>
       </c>
       <c r="N255" t="n">
-        <v>0.009936501193783143</v>
+        <v>0.00955144831505067</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1480668641977458</v>
+        <v>0.1459465810732669</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.009985128886336472</v>
+        <v>0.007162814216542572</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05613495817311979</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.006669497382266867</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.148846163482997</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.0103994070685105</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1471870809596515</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.007597527474289156</v>
+        <v>-0.000192007947995787</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1465241856062024</v>
+        <v>0.1470006948547584</v>
       </c>
       <c r="N256" t="n">
-        <v>0.009985128886336472</v>
+        <v>0.009905084944970888</v>
       </c>
       <c r="O256" t="n">
-        <v>0.148846163482997</v>
+        <v>0.1467147209736525</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.009832753487747599</v>
+        <v>0.006853651406524781</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05602330690262933</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.006608931344231059</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1496254627682483</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01004240379465918</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1479576939489691</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.007469902570181819</v>
+        <v>-7.065324428290332e-07</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1472913279392191</v>
+        <v>0.1477703320005948</v>
       </c>
       <c r="N257" t="n">
-        <v>0.009832753487747599</v>
+        <v>0.009663878842651075</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1496254627682483</v>
+        <v>0.1474828608740381</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.009579387417537784</v>
+        <v>0.006554930320202476</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05591165563213888</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.006247487703750214</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1504047620534996</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.009897269387401375</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1487283069382866</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.007858376052229443</v>
+        <v>3.666411816177773e-06</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1480584702722359</v>
+        <v>0.1485399691464312</v>
       </c>
       <c r="N258" t="n">
-        <v>0.009579387417537784</v>
+        <v>0.009227909377540255</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1504047620534996</v>
+        <v>0.1482510007744237</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.009325043095228275</v>
+        <v>0.006266974529006514</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05580000436164843</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.006285180483177978</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1511840613387509</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.009764289728061704</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1494989199276041</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.00736323094815583</v>
+        <v>-0.0004784509459386521</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1488256126052527</v>
+        <v>0.1493096062922677</v>
       </c>
       <c r="N259" t="n">
-        <v>0.009325043095228275</v>
+        <v>0.009297255919086922</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1511840613387509</v>
+        <v>0.1490191406748094</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.009369732940340304</v>
+        <v>0.005990107604367662</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05568835309115798</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.006122023704867939</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1519633606240022</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.0100437506979649</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1502695329169217</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.007084750285684782</v>
+        <v>-4.662043642700286e-05</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1495927549382695</v>
+        <v>0.1500792434381041</v>
       </c>
       <c r="N260" t="n">
-        <v>0.009369732940340304</v>
+        <v>0.009871997836739921</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1519633606240022</v>
+        <v>0.149787280575195</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.009113469372395128</v>
+        <v>0.005724653117716784</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05557670182066753</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.005858031391173704</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1527426599092535</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.009735938178435682</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1510401459062392</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.00782321709254008</v>
+        <v>-0.0004004038903687168</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1503598972712862</v>
+        <v>0.1508488805839405</v>
       </c>
       <c r="N261" t="n">
-        <v>0.009113469372395128</v>
+        <v>0.00975221449994812</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1527426599092535</v>
+        <v>0.1505554204755806</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.008856264810913984</v>
+        <v>0.005470934640484648</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05546505055017708</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.005693217564448891</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1535219591945048</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.009741138050798709</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1518107588955568</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.007078914396445479</v>
+        <v>-0.0002393631384835226</v>
       </c>
       <c r="M262" t="n">
-        <v>0.151127039604303</v>
+        <v>0.1516185177297769</v>
       </c>
       <c r="N262" t="n">
-        <v>0.008856264810913984</v>
+        <v>0.009237985278160166</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1535219591945048</v>
+        <v>0.1513235603759662</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.008698131675418129</v>
+        <v>0.005229275744102133</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05535339927968663</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.005427596247047105</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1543012584797561</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.009259636196378651</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1525813718848743</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.007252125225124584</v>
+        <v>-0.0005630600114912565</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1518941819373197</v>
+        <v>0.1523881548756134</v>
       </c>
       <c r="N263" t="n">
-        <v>0.008698131675418129</v>
+        <v>0.009529389540825051</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1543012584797561</v>
+        <v>0.1520917002763518</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.008639082385428813</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05524174800919618</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.00526118146132195</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1550805577650074</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.00929171849650029</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1533519848741919</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.007643132606301228</v>
+        <v>-0.000671056340111692</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1526613242703365</v>
+        <v>0.1531577920214498</v>
       </c>
       <c r="N264" t="n">
-        <v>0.008639082385428813</v>
+        <v>0.009326506657391376</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1550805577650074</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1528598401767375</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05522859011445933</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005736000020239766</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05522885864292335</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006468020763919932</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05522912717138736</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007196018561046132</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05522939569985139</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007919949741529049</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0552296642283154</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008639770635374501</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05522993275677941</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009355437572556524</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05523020128524343</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01006690688308006</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05523046981370745</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01077413489685722</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05523073834217147</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.0114770779438931</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05523100687063548</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01217569235416175</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0552312753990995</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01286993445766735</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05523154392756352</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01355976058432349</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05523181245602754</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01424512706413456</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05523208098449155</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01492599022707458</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05523234951295557</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01560230640314695</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05523261804141959</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01627403192226684</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05523288656988361</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01694112311443784</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05523315509834762</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01760353630963399</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05523342362681163</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01826122783785787</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05523369215527566</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01891415402902626</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05523396068373967</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01956227121314195</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05523422921220369</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02020553572017897</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05523449774066771</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02084390388013906</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05523476626913173</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02147733202294071</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05523503479759575</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02210595479785848</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05523530332605976</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0227307984505023</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05523557185452378</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02335199763014574</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0552358403829878</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02396950866670883</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05523610891145182</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02458328789019268</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05523637743991583</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02519329163057138</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05523664596837984</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02579947621784526</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05523691449684387</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02640179798193561</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05523718302530788</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02700021325284294</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0552374515537719</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02759467836054127</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05523772008223591</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02818514963503031</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05523798861069994</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02877158340623268</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05523825713916395</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02935393600414821</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05523852566762797</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02993216375875096</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05523879419609198</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03050622300003987</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05523906272455601</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03107607005793901</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05523933125302002</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03164166126244752</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05523959978148404</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03220295294353945</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05523986830994805</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03275990143121293</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05524013683841208</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03331246305539363</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05524040536687609</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03386059414607985</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0552406738953401</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03440425103324568</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05524094242380412</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03494339004688853</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05524121095226815</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03547796751693548</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05524147948073216</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03600793977338419</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05524174800919618</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03600793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05522859011445933</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03660297048035983</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05534077844187781</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03719282106930101</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0554529667692963</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03777736894667226</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05556515509671479</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03835649151893807</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05567734342413327</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03893006619256291</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05578953175155175</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0394979703740113</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05590172007897024</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04006008146974774</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05601390840638873</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04061627688623672</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05612609673380722</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04116643402994277</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05623828506122571</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04171043030733029</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0563504733886442</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04224814312486382</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05646266171606268</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04277944988900788</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05657485004348117</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04330422800622694</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05668703837089965</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.0438223548829855</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05679922669831814</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04433370792574808</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05691141502573662</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04483816454097915</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05702360335315511</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04533560213514319</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0571357916805736</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04582589811470474</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05724798000799208</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04630892988612825</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05736016833541056</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04678457485587825</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05747235666282905</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04725271043041922</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05758454499024754</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04771321401621566</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05769673331766603</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04816596301973206</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05780892164508451</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04861083484743289</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05792110997250299</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04904820749605274</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05803329829992149</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04948096191367582</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05814548662733997</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04990947609703664</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05825767495475846</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05033362745259976</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05836986328217695</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.05075329338682961</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05848205160959543</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05116835130619071</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05859423993701392</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05157867861714757</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0587064282644324</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05198415272616469</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05881861659185089</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05238465103970652</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05893080491926937</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0527800509642376</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05904299324668786</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.0531702299062224</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05915518157410635</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05355506527212543</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05926736990152483</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05393443446841116</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05937955822894331</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05430821490154412</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0594917465563618</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05467628397798879</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05960393488378029</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05503851910420965</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05971612321119877</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05539479768667122</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05982831153861726</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05574499713183802</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05994049986603576</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05608899484617447</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06005268819345424</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0564266682361451</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06016487652087273</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05675789470821442</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06027706484829121</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05708255166884692</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0603892531757097</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05740051652450706</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06050144150312818</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05771166668165939</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06061362983054667</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05801587954676837</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06072581815796516</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05234391969784558</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06072581815796516</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05812533221630979</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06240172267598948</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05822649191317106</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06407762719401382</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05831968534644651</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06575353171203815</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05840523922523047</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06742943623006248</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05848348025861733</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0691053407480868</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05855473515570137</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07078124526611114</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05861933062557696</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07245714978413546</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05867759337733847</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07413305430215979</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0587298501200802</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07580895882018412</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.0587764275628965</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07748486333820846</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05881765241488171</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07916076785623279</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0588538513851302</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08083667237425711</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05888535118273629</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08251257689228145</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05891247851679432</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08418848141030578</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05893556009639864</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08586438592833011</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05895492263064359</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08754029044635443</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0589708928286235</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08921619496437877</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05898379739943273</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09089209948240309</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05899396305216562</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09256800400042743</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05900171649591648</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09424390851845177</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05900738443977971</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09591981303647609</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05901129359284961</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09759571755450042</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05901377066422052</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09927162207252475</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05901514236298681</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1009475265905491</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0590157353982428</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1026234311085734</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05901587647908284</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1042993356265977</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.058993893065134</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1059752401446221</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05886846249724652</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1076511446626464</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05863937703569803</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1093270491806707</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05831513131162074</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1110029536986951</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05790421995614679</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1126788582167194</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05741513760040837</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1143547627347437</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05685637887553767</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.116030667252768</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05623643841266684</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1177065717707924</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05556381084292809</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1193824762888167</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05484699079745359</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.121058380806841</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0540944729073755</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1227342853248654</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.053314751803826</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1244101898428897</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05251632211793726</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.126086094360914</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05170767848084148</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1277619988789384</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05089731552367086</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1294379033969627</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05009372787755752</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.131113807914987</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04930541017363366</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1327897124330114</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04854085704303146</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1344656169510357</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04780856311688311</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.13614152146906</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04711702302632076</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1378174259870844</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0464747314024766</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1394933305051087</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.0458901828764828</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.141169235023133</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04537187207947158</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1428451395411574</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04492829364257506</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1445210440591817</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04453778756858617</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.146196948577206</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04415815315941925</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1478728530952303</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04378862294825467</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04342886759713457</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.151224662131279</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04307855776810114</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1529005666493033</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04273736412319647</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1545764711673276</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04240495732446266</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.156252375685352</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04208100803394187</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1579282802033763</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04176518691367619</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1596041847214006</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04145716462570781</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.161280089239425</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0411566118320788</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1629559937574493</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04086319919483131</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1646318982754736</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04057659737600745</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.166307802793498</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04029647703764937</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1679837073115223</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04002250884179917</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1696596118295466</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03975436345049901</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1713355163475709</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03949171152579099</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1730114208655953</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03923422372971724</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1746873253836196</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0389815707243199</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.176363229901644</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03873342317164108</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1780391344196683</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0384894517337229</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1797150389376926</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0382493270726075</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1813909434557169</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03801271985033702</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1830668479737413</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03777930072895359</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1847427524917656</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03754874037049927</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.18641865700979</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03732071580157707</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1880945615278142</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03709526010336077</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1897704660458386</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03687256964338539</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1914463705638629</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03665275347326249</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1931222750818873</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0364359206446037</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1947981795999116</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03622218020902064</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1964740841179359</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03601164121812489</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1981499886359602</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03580441272352805</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1998258931539846</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03560060377684174</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2015017976720089</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03540032342967754</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2031777021900332</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03520368073364707</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2048536067080576</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03501078474036193</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2065295112260819</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03482174450143372</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2082054157441062</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03463666906847405</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2098813202621306</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03445566749309451</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2115572247801548</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03427884882690672</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2132331292981792</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03410632212152226</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2149090338162035</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03393819642855275</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2165849383342279</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03377458079960979</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2182608428522522</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.033615584286305</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2199367473702765</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03346131594024994</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2216126518883008</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03331188481305626</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2232885564063252</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03316739995633551</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2249644609243495</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03302797042169935</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2266403654423739</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08934391969784558</v>
+        <v>0.06185476386403051</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03934391969784558</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02075581815796515</v>
+        <v>0.009401486342168633</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001472362153119702</v>
+        <v>0.003924170205324956</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006133921026057086</v>
+        <v>0.001629465803313664</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001661810304043311</v>
+        <v>0.004056240751103515</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007792992852512934</v>
+        <v>0.001636022404609299</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005999999999999978</v>
+        <v>0.01217568338314279</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000915064102564099</v>
+        <v>0.002054466670146137</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009205200203386055</v>
+        <v>0.02340134520891374</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007681399003856153</v>
+        <v>0.002272477570457439</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002925873855143007</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001226784205211417</v>
+        <v>0.003133828780722877</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001427499999999998</v>
+        <v>0.003568749999999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008830621865687727</v>
+        <v>0.01484893988802644</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001539274291672862</v>
+        <v>0.00327891292640025</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01808556783976362</v>
+        <v>0.02682363511248981</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001536279800771231</v>
+        <v>0.003274240737841303</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004360533721089022</v>
+        <v>0.008523461038574029</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001840176307817126</v>
+        <v>0.004888397409940991</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004294218003717584</v>
+        <v>0.008746652091099545</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00233789785575388</v>
+        <v>0.004908067213827897</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01218609048908656</v>
+        <v>0.01806402518038039</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002308911437509293</v>
+        <v>0.004918369389600375</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02400000000000002</v>
+        <v>0.03103451532931195</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002217475728155342</v>
+        <v>0.004911361106761955</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005776340365976795</v>
+        <v>0.007922322657740462</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002453568410422834</v>
+        <v>0.006517863213254655</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00552191335232359</v>
+        <v>0.01003231478087731</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003117197141005174</v>
+        <v>0.006544089618437196</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01579031088423755</v>
+        <v>0.02051437342958345</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003078548583345725</v>
+        <v>0.006557825852800501</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02891125003313166</v>
+        <v>0.03402372164282824</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003072559601542461</v>
+        <v>0.006548481475682606</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01253531512289152</v>
+        <v>0.003133828780722877</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007173292404825435</v>
+        <v>0.01106675053206444</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003066960513028543</v>
+        <v>0.008147329016568318</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006587309118385599</v>
+        <v>0.01116167911346207</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003896496426256466</v>
+        <v>0.008180112023046493</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01868872622147483</v>
+        <v>0.02288991597600717</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003848185729182156</v>
+        <v>0.008197282316000627</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03245705312278402</v>
+        <v>0.0361575257009798</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003840699501928077</v>
+        <v>0.008185601844603258</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008551388452654005</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003680352615634252</v>
+        <v>0.009401486342168633</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007388844918868653</v>
+        <v>0.01188253222802945</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00467579571150776</v>
+        <v>0.009816134427655793</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0212267796711326</v>
+        <v>0.02458058416002304</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004617822875018587</v>
+        <v>0.00983673877920075</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03518205795008122</v>
+        <v>0.03820219915170803</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004608839402313692</v>
+        <v>0.009822722213523909</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009910627124481583</v>
+        <v>0.01106931331712112</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00429374471823996</v>
+        <v>0.01140626062319565</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008424960370737769</v>
+        <v>0.01259060692783105</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005455094996759054</v>
+        <v>0.01070624999999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02344991440354505</v>
+        <v>0.02646887691987565</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005387460020855018</v>
+        <v>0.01138962765957446</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03829551694785666</v>
+        <v>0.04034714691192021</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005376979302699307</v>
+        <v>0.01092474489795918</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01125100703532725</v>
+        <v>0.01202782778217622</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004907136820845669</v>
+        <v>0.01303572642650931</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009194095090957963</v>
+        <v>0.01379556826212726</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006234394282010347</v>
+        <v>0.01308817923687439</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02530357358904625</v>
+        <v>0.02851059149626256</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00615709716669145</v>
+        <v>0.013115651705601</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04034714691192021</v>
+        <v>0.04379893413364166</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006213112428993105</v>
+        <v>0.01309696295136521</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01257252680021009</v>
+        <v>0.01295460349516627</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005520528923451378</v>
+        <v>0.01466519222982297</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01009468869649427</v>
+        <v>0.01476051279487289</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00701369356726164</v>
+        <v>0.01472420164148369</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02646887691987565</v>
+        <v>0.03034943894796641</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006727977529046027</v>
+        <v>0.01475510816880113</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0414589452851391</v>
+        <v>0.04717860107981403</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006913259103470538</v>
+        <v>0.01473408332028587</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01387518503414919</v>
+        <v>0.01384403453523406</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006133921026057086</v>
+        <v>0.01629465803313664</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01092518080431169</v>
+        <v>0.01581397055667343</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007792992852512933</v>
+        <v>0.01636022404609299</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02783165136352847</v>
+        <v>0.03217147362612605</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007696371458364311</v>
+        <v>0.01639456463200125</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04308305623023645</v>
+        <v>0.04987926466831982</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007681399003856153</v>
+        <v>0.01637120368920652</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01515898035216361</v>
+        <v>0.01569051498152239</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006747313128662794</v>
+        <v>0.0179241238364503</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01148401103137527</v>
+        <v>0.01684600538810729</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008572292137764228</v>
+        <v>0.01799624645070229</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02888965510799424</v>
+        <v>0.03465581809320156</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008466008604200744</v>
+        <v>0.01803402109520138</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04408096586677623</v>
+        <v>0.05276039623388568</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008449538904241768</v>
+        <v>0.01800832405812717</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01642391136927245</v>
+        <v>0.01548843891317406</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007360705231268504</v>
+        <v>0.01955358963976396</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01216961899465002</v>
+        <v>0.01764668112975296</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00935159142301552</v>
+        <v>0.01963226885531159</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02972541707347401</v>
+        <v>0.03648159491165326</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009235645750037174</v>
+        <v>0.0196734775584015</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04555240410867512</v>
+        <v>0.05538146711123826</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009217678804627384</v>
+        <v>0.01964544442704782</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01766997670049478</v>
+        <v>0.01823220040933188</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007974097333874212</v>
+        <v>0.02118305544307763</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01259060692783105</v>
+        <v>0.01840606162218887</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00998505077193268</v>
+        <v>0.02126829125992089</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03093890143551439</v>
+        <v>0.03842792664394137</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01000528289587361</v>
+        <v>0.02131293402160163</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04759710086984986</v>
+        <v>0.05810194863510387</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009985818705012998</v>
+        <v>0.02128256479596847</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01889717496084968</v>
+        <v>0.01891619354913861</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00858748943647992</v>
+        <v>0.02281252124639129</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01296577882263304</v>
+        <v>0.0193142107059935</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01091018999351811</v>
+        <v>0.02290431366453018</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0314300723696618</v>
+        <v>0.03967393585252607</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01077492004171004</v>
+        <v>0.02295239048480175</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04831478606421713</v>
+        <v>0.06088131214020948</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01075395860539861</v>
+        <v>0.02291968516488912</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02010550476535622</v>
+        <v>0.01953481241173709</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00920088153908563</v>
+        <v>0.02444198704970495</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01354509692519167</v>
+        <v>0.01996119222174531</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0116894892787694</v>
+        <v>0.02454033606913948</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03269889405146281</v>
+        <v>0.04149874509986759</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01154455718754647</v>
+        <v>0.02459184694800188</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05010518960569371</v>
+        <v>0.06357902896128148</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01152209850578423</v>
+        <v>0.02455680553380978</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0212949647290335</v>
+        <v>0.01908245107627009</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009814273641691337</v>
+        <v>0.02607145285301862</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01401932950897937</v>
+        <v>0.02063707001002274</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01246878856402069</v>
+        <v>0.02617635847374878</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0337453306564639</v>
+        <v>0.04288147694842617</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0123141943333829</v>
+        <v>0.026231303411202</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05126804140819624</v>
+        <v>0.0662545704330465</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01229023840616984</v>
+        <v>0.02619392590273042</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02246555346690057</v>
+        <v>0.02055350362188044</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01042766574429705</v>
+        <v>0.02770091865633228</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01458815095785819</v>
+        <v>0.02143190791140427</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01324808784927199</v>
+        <v>0.02781238087835808</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0345693463602115</v>
+        <v>0.0445012539606621</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01308383147921933</v>
+        <v>0.02787075987440213</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05300307138564142</v>
+        <v>0.06826740789023122</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01305837830655546</v>
+        <v>0.02783104627165107</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02361726959397653</v>
+        <v>0.01894236412771089</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01104105784690276</v>
+        <v>0.02933038445964595</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01495123565569015</v>
+        <v>0.02173576976646834</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01402738713452328</v>
+        <v>0.02944840328296738</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03547090533825217</v>
+        <v>0.04573719869903548</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01385346862505576</v>
+        <v>0.02951021633760225</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05441000945194596</v>
+        <v>0.07007701266756211</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01382651820694108</v>
+        <v>0.02946816664057173</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02475011172528047</v>
+        <v>0.02124791287977984</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01165444994950846</v>
+        <v>0.03095985026295961</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01550825798633729</v>
+        <v>0.0222387194157934</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01480668641977457</v>
+        <v>0.03108442568757668</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03634997176613242</v>
+        <v>0.0461684337260066</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01462310577089219</v>
+        <v>0.03114967280080238</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05498858552102653</v>
+        <v>0.07104285609976585</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01459465810732669</v>
+        <v>0.03110528700949238</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.02152731243266902</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01253531512289152</v>
+        <v>0.03258931606627327</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01585889233366164</v>
+        <v>0.02265062605785011</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01558598570502587</v>
+        <v>0.03272044809218597</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03720650981939871</v>
+        <v>0.04687985378779846</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01539274291672862</v>
+        <v>0.03278912926400251</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05633852950680002</v>
+        <v>0.07166933116515822</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01536279800771231</v>
+        <v>0.03274240737841303</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02695930661970788</v>
+        <v>0.01979808205044543</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01288123415471988</v>
+        <v>0.03421878186958693</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01630281308152519</v>
+        <v>0.02274616622896103</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01636528499027716</v>
+        <v>0.03435647049679528</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03774048367359759</v>
+        <v>0.04780912783757821</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01616238006256505</v>
+        <v>0.03442858572720263</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05825957132318293</v>
+        <v>0.07332037761713195</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01613093790809792</v>
+        <v>0.03437952774733368</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02803636383475476</v>
+        <v>0.02105839261050262</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01349462625732559</v>
+        <v>0.0358482476729006</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01663969461378999</v>
+        <v>0.02313191117247881</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01714458427552846</v>
+        <v>0.03599249290140458</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03895185750427552</v>
+        <v>0.04811927399553476</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01693201720840149</v>
+        <v>0.03606804219040276</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05865144088409202</v>
+        <v>0.07394074638720988</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01689907780848354</v>
+        <v>0.03601664811625434</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02909514366342938</v>
+        <v>0.02130641499023414</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0141080183599313</v>
+        <v>0.03747771347621427</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01726921131431806</v>
+        <v>0.02350589468445417</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01792388356077975</v>
+        <v>0.03762851530601388</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03964059548697896</v>
+        <v>0.0492061326830518</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01770165435423792</v>
+        <v>0.03770749865360288</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06031386810344408</v>
+        <v>0.07472412399518236</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01766721770886915</v>
+        <v>0.03765376848517499</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03013545090398689</v>
+        <v>0.02054032006703357</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01472141046253701</v>
+        <v>0.03910717927952793</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01769103756697146</v>
+        <v>0.02376615056093787</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01870318284603104</v>
+        <v>0.03926453771062317</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04050666179725448</v>
+        <v>0.04976554432151306</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01847129150007435</v>
+        <v>0.039346955116803</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06094658289515581</v>
+        <v>0.07606419696083944</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01843535760925477</v>
+        <v>0.03929088885409564</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03115709035468238</v>
+        <v>0.02075827871829447</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01533480256514271</v>
+        <v>0.04073664508284159</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01800484775561217</v>
+        <v>0.02381071259798062</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01948248213128233</v>
+        <v>0.04090056011523247</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04105002061064858</v>
+        <v>0.05029334933230228</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01924092864591078</v>
+        <v>0.04098641158000313</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06264931517314387</v>
+        <v>0.07605465180397114</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01920349750964038</v>
+        <v>0.04092800922301629</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.032159866813771</v>
+        <v>0.02295846182141043</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01594819466774842</v>
+        <v>0.04236611088615525</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01841031626410224</v>
+        <v>0.02423761459163325</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02026178141653363</v>
+        <v>0.04253658251984177</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04187063610270766</v>
+        <v>0.05028538813680314</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02001056579174721</v>
+        <v>0.04262586804320325</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06332179485132494</v>
+        <v>0.07748917504436775</v>
       </c>
       <c r="O91" t="n">
-        <v>0.019971637410026</v>
+        <v>0.04256512959193694</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03314358507950786</v>
+        <v>0.02313904025377496</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01656158677035413</v>
+        <v>0.04399557668946892</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01880711747630369</v>
+        <v>0.02444489033794646</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02104108070178492</v>
+        <v>0.04417260492445107</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04236847244897832</v>
+        <v>0.05093750115639931</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02078020293758364</v>
+        <v>0.04426532450640338</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06416375184361567</v>
+        <v>0.07796145320181919</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02073977731041161</v>
+        <v>0.04420224996085759</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03410804995014806</v>
+        <v>0.02129818489278165</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01717497887295984</v>
+        <v>0.04562504249278258</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01929492577607854</v>
+        <v>0.02443057363297099</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02182037998703621</v>
+        <v>0.04580862732906037</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04294349382500701</v>
+        <v>0.0512455288124746</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02154984008342007</v>
+        <v>0.04590478096960351</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06547491606393291</v>
+        <v>0.07816517279611573</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02150791721079723</v>
+        <v>0.04583937032977824</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03505306622394677</v>
+        <v>0.02243406661582407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01778837097556555</v>
+        <v>0.04725450829609625</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01947341554728882</v>
+        <v>0.02479269827275765</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02259967927228751</v>
+        <v>0.04744464973366967</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0435956644063403</v>
+        <v>0.05190531152641276</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02231947722925651</v>
+        <v>0.04754423743280363</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06635501742619337</v>
+        <v>0.07859402034704738</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02227605711118285</v>
+        <v>0.0474764906986989</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03597843869915908</v>
+        <v>0.0225448563002958</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01840176307817126</v>
+        <v>0.04888397409940991</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02004226117379658</v>
+        <v>0.02492929805335714</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0233789785575388</v>
+        <v>0.04908067213827896</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0446249483685246</v>
+        <v>0.05191268971959737</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02308911437509294</v>
+        <v>0.04918369389600376</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06780378584431368</v>
+        <v>0.07904168237440434</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02304419701156846</v>
+        <v>0.04911361106761955</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0368839721740401</v>
+        <v>0.02262872482359039</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01901515518077697</v>
+        <v>0.05051343990272358</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02040113703946381</v>
+        <v>0.02483840677082022</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02415827784279009</v>
+        <v>0.05071669454288827</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04483130988710643</v>
+        <v>0.05206350381341224</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02385875152092937</v>
+        <v>0.05082315035920388</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06842095123221054</v>
+        <v>0.08000184539797661</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02381233691195407</v>
+        <v>0.05075073143654021</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.037769471446845</v>
+        <v>0.02370952772806101</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01962854728338267</v>
+        <v>0.05214290570603724</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02054971752815256</v>
+        <v>0.02491805822119765</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02493757712804139</v>
+        <v>0.05235271694749757</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04571471313763228</v>
+        <v>0.05225359422924106</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0246283886667658</v>
+        <v>0.05246260682240401</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06940624350380065</v>
+        <v>0.08016819593755442</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02458047681233969</v>
+        <v>0.05238785180546085</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03863474131582888</v>
+        <v>0.02170838189622237</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02024193938598838</v>
+        <v>0.0537723715093509</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02108767702372484</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02571687641329268</v>
+        <v>0.05398873935210687</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04627512229564873</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02539802581260223</v>
+        <v>0.05410206328560413</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07025939257300085</v>
+        <v>0.08069429382384041</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0253486167127253</v>
+        <v>0.0540249721743815</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03934391969784558</v>
+        <v>0.02370523225059465</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02075581815796515</v>
+        <v>0.05540183731266456</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02141468991004271</v>
+        <v>0.0251811701822179</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02649617569854398</v>
+        <v>0.05562476175671616</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04681250153670216</v>
+        <v>0.05263496571247545</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02616766295843866</v>
+        <v>0.05574151974880426</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0708801283537277</v>
+        <v>0.08049420564388687</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02611675661311092</v>
+        <v>0.05566209254330215</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04033460340701173</v>
+        <v>0.02368609136358744</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0214687235911998</v>
+        <v>0.05703130311597823</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02163043057096813</v>
+        <v>0.02507152343433858</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02727547498379527</v>
+        <v>0.05726078416132546</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04722681503633919</v>
+        <v>0.05262830556395018</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02693730010427509</v>
+        <v>0.05738097621200438</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07206818075989796</v>
+        <v>0.0798692377357561</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02688489651349654</v>
+        <v>0.05729921291222281</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04120792581168864</v>
+        <v>0.02265250171353959</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02208211569380551</v>
+        <v>0.05866076891929189</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02193457339036319</v>
+        <v>0.02494572624669805</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02805477426904656</v>
+        <v>0.05889680656593475</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04751802697010615</v>
+        <v>0.05288539006917495</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02770693725011152</v>
+        <v>0.05902043267520451</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0727232797054283</v>
+        <v>0.08039203467949568</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02765303641388215</v>
+        <v>0.05893633328114346</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04209245877615531</v>
+        <v>0.02360542730081366</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02269550779641122</v>
+        <v>0.06029023472260555</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02232679275208989</v>
+        <v>0.02510481486547973</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02883407355429786</v>
+        <v>0.06053282897054407</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04818610151354974</v>
+        <v>0.05250981842477384</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02847657439594796</v>
+        <v>0.06065988913840463</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07364515510423547</v>
+        <v>0.08006596875529426</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02842117631426776</v>
+        <v>0.06057345365006411</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04298047427178842</v>
+        <v>0.02154583212577225</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02330889989901693</v>
+        <v>0.06191970052591923</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02240676304001026</v>
+        <v>0.02504982553686705</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02961337283954915</v>
+        <v>0.06216885137515336</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04853100284221631</v>
+        <v>0.05250378284863316</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02924621154178439</v>
+        <v>0.06229934560160476</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07423353687023626</v>
+        <v>0.07949436734929327</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02918931621465338</v>
+        <v>0.06221057401898476</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04386424426996459</v>
+        <v>0.02147468018877788</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02392229200162264</v>
+        <v>0.06354916632923288</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02277415863798635</v>
+        <v>0.02498179450704345</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03039267212480044</v>
+        <v>0.06380487377976266</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04915269513165244</v>
+        <v>0.05226947555863937</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03001584868762082</v>
+        <v>0.06393880206480489</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07448815491734723</v>
+        <v>0.07958055784763401</v>
       </c>
       <c r="O104" t="n">
-        <v>0.029957456115039</v>
+        <v>0.06384769438790543</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0447360407420605</v>
+        <v>0.02139293549019311</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02453568410422834</v>
+        <v>0.06517863213254654</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02292865392988012</v>
+        <v>0.02490175802219237</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03117197141005173</v>
+        <v>0.06544089618437195</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04955114255740456</v>
+        <v>0.05200908877267876</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03078548583345725</v>
+        <v>0.06557825852800502</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07560873915948513</v>
+        <v>0.07912786763645774</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03072559601542461</v>
+        <v>0.06548481475682606</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0455881356594528</v>
+        <v>0.02330156203038054</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02514907620683405</v>
+        <v>0.06680809793586021</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02336992329955366</v>
+        <v>0.02481075232849721</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03195127069530303</v>
+        <v>0.06707691858898125</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04992630929501923</v>
+        <v>0.05212481470863781</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03155512297929368</v>
+        <v>0.06721771499120513</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07549501951056675</v>
+        <v>0.07913962410190567</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03149373591581023</v>
+        <v>0.06712193512574671</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04641280099351815</v>
+        <v>0.02220152380970271</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02576246830943976</v>
+        <v>0.06843756373917387</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02359764113086898</v>
+        <v>0.02470981367214142</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03273056998055433</v>
+        <v>0.06871294099359056</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05027815952004294</v>
+        <v>0.05181884558440283</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03232476012513011</v>
+        <v>0.06885717145440526</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07664672588450872</v>
+        <v>0.07841915463011911</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03226187581619584</v>
+        <v>0.06875905549466736</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04720230871563315</v>
+        <v>0.02309378482852219</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02637586041204547</v>
+        <v>0.07006702954248754</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02381148180768811</v>
+        <v>0.02439997829930844</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03350986926580562</v>
+        <v>0.07034896339819985</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05050665740802215</v>
+        <v>0.05159337361786018</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03309439727096655</v>
+        <v>0.07049662791760539</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07706358819522768</v>
+        <v>0.07806978660723951</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03303001571658146</v>
+        <v>0.07039617586358801</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04794893079717451</v>
+        <v>0.02297930908720154</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02698925251465118</v>
+        <v>0.07169649534580121</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02401111971387306</v>
+        <v>0.02438228245618169</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03428916855105691</v>
+        <v>0.07198498580280915</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05081176713450342</v>
+        <v>0.0510505910268963</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03386403441680298</v>
+        <v>0.07213608438080552</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07694533635664041</v>
+        <v>0.07849484741940799</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03379815561696707</v>
+        <v>0.07203329623250868</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04864493920951886</v>
+        <v>0.02085906058610332</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02760264461725689</v>
+        <v>0.07332596114911487</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02399622923328584</v>
+        <v>0.0242577623889446</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0350684678363082</v>
+        <v>0.07362100820741845</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05109345287503317</v>
+        <v>0.05119269002939755</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03463367156263941</v>
+        <v>0.07377554084400563</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07759170028266377</v>
+        <v>0.07789766445276586</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03456629551735269</v>
+        <v>0.07367041660142933</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04928260592404284</v>
+        <v>0.0207340033255901</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0282160367198626</v>
+        <v>0.07495542695242853</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02416648474978852</v>
+        <v>0.02402745434378062</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03584776712155949</v>
+        <v>0.07525703061202775</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05125167880515796</v>
+        <v>0.05062186284325026</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03540330870847583</v>
+        <v>0.07541499730720576</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0784024098872142</v>
+        <v>0.07738156509345434</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03533443541773831</v>
+        <v>0.07530753697034998</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0498542029121231</v>
+        <v>0.02260510130602442</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02882942882246831</v>
+        <v>0.07658489275574219</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02452156064724312</v>
+        <v>0.02409239456687318</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03662706640681079</v>
+        <v>0.07689305301663706</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05158640910042425</v>
+        <v>0.05064030168634087</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03617294585431226</v>
+        <v>0.07705445377040589</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07847719508420864</v>
+        <v>0.07684987672761484</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03610257531812392</v>
+        <v>0.07694465733927063</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05035200214513633</v>
+        <v>0.02247331852776889</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02944282092507402</v>
+        <v>0.07821435855905585</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02466113130951164</v>
+        <v>0.02395361930440568</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03740636569206208</v>
+        <v>0.07852907542124635</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05209760793637858</v>
+        <v>0.0500501987765557</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03694258300014869</v>
+        <v>0.078693910233606</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07901578578756357</v>
+        <v>0.07670592674138871</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03687071521850954</v>
+        <v>0.07858177770819127</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05076827559445915</v>
+        <v>0.02133961899118601</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03005621302767972</v>
+        <v>0.07984382436236952</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02458487112045611</v>
+        <v>0.02371216480256158</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03818566497731337</v>
+        <v>0.08016509782585564</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05198523948856743</v>
+        <v>0.0500537463317812</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03771222014598513</v>
+        <v>0.08033336669680613</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0789179119111959</v>
+        <v>0.07565304252091704</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03763885511889515</v>
+        <v>0.08021889807711194</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05109687673706932</v>
+        <v>0.02220496669663842</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03066960513028543</v>
+        <v>0.08147329016568318</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02469245446393858</v>
+        <v>0.0236690673075243</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03896496426256466</v>
+        <v>0.08180112023046494</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05214926793253727</v>
+        <v>0.04985313656990364</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03848185729182156</v>
+        <v>0.08197282316000626</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07988330336902227</v>
+        <v>0.07509455145234112</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03840699501928076</v>
+        <v>0.08185601844603259</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05139152389298196</v>
+        <v>0.02207032564448862</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03128299723289114</v>
+        <v>0.08310275596899686</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02498355572382106</v>
+        <v>0.02342536306547728</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03974426354781596</v>
+        <v>0.08343714263507424</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05228965744383463</v>
+        <v>0.0495505617088095</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03925149443765799</v>
+        <v>0.08361227962320639</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07931169007495925</v>
+        <v>0.07533378092180248</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03917513491966638</v>
+        <v>0.08349313881495324</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05168165928780472</v>
+        <v>0.02093665983509918</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03189638933549685</v>
+        <v>0.0847322217723105</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02495784928396559</v>
+        <v>0.02328208832260395</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04052356283306726</v>
+        <v>0.08507316503968354</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05250637219800597</v>
+        <v>0.04894821396638516</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04002113158349443</v>
+        <v>0.0852517360864065</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08030280194292383</v>
+        <v>0.07457405831544217</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03994327482005199</v>
+        <v>0.08513025918387389</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05196721709018783</v>
+        <v>0.02180274721867984</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03250978143810256</v>
+        <v>0.08636168757562417</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02491500952823417</v>
+        <v>0.02324027932508774</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04130286211831855</v>
+        <v>0.08670918744429285</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05279937637059787</v>
+        <v>0.04854828556051685</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04079076872933086</v>
+        <v>0.08689119254960664</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08035636888683245</v>
+        <v>0.07411871101940148</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04071141472043761</v>
+        <v>0.08676737955279454</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05224813146878152</v>
+        <v>0.0196519968724654</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03312317354070827</v>
+        <v>0.08799115337893784</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02495471084048884</v>
+        <v>0.02299191122884996</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04208216140356984</v>
+        <v>0.08834520984890214</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05246863413715674</v>
+        <v>0.04824520652484549</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04156040587516728</v>
+        <v>0.08853064901280676</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07977212082060192</v>
+        <v>0.07324833791143454</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04147955462082323</v>
+        <v>0.08840449992171519</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05252433659223597</v>
+        <v>0.01948331731073012</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03373656564331397</v>
+        <v>0.0896206191822515</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02518121385566212</v>
+        <v>0.02282275049828292</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04286146068882114</v>
+        <v>0.08998123225351144</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05293775383975127</v>
+        <v>0.04830160723739502</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04233004302100372</v>
+        <v>0.09017010547600689</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08069429382384041</v>
+        <v>0.07351199722585994</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04224769452120884</v>
+        <v>0.09004162029063584</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05279576662920143</v>
+        <v>0.02129984936188724</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03434995774591968</v>
+        <v>0.09125008498556517</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0251808268484548</v>
+        <v>0.02273580837413955</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04364075997407243</v>
+        <v>0.09161725465812073</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05253576715436151</v>
+        <v>0.04741831516169223</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04309968016684015</v>
+        <v>0.09180956193920702</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08048909931339038</v>
+        <v>0.07241755179941006</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04301583442159446</v>
+        <v>0.09167874065955649</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05306235574832815</v>
+        <v>0.01910473385434999</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03496334984852539</v>
+        <v>0.09287955078887883</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02497369532070921</v>
+        <v>0.02243446107035335</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04442005925932372</v>
+        <v>0.09325327706273004</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05293354207546619</v>
+        <v>0.04740247280565832</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04386931731267658</v>
+        <v>0.09344901840240714</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07998905448064714</v>
+        <v>0.07207584265387307</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04378397432198007</v>
+        <v>0.09331586102847714</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0533240381182663</v>
+        <v>0.01990111161653159</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0355767419511311</v>
+        <v>0.09450901659219249</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02505781028957207</v>
+        <v>0.02212208480085787</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04519935854457501</v>
+        <v>0.09488929946733933</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05280767901352773</v>
+        <v>0.04666122267721423</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04463895445851301</v>
+        <v>0.09508847486560726</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08004544094585225</v>
+        <v>0.07129771081103697</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04455211422236569</v>
+        <v>0.0949529813973978</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05358074790766612</v>
+        <v>0.01969212347684529</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03619013405373681</v>
+        <v>0.09613848239550615</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02503347852506703</v>
+        <v>0.02200205577958665</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0459786578298263</v>
+        <v>0.09652532187194864</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05265905336283139</v>
+        <v>0.04630170728428118</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04540859160434944</v>
+        <v>0.09672793132880739</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08055917157756898</v>
+        <v>0.07009399729269011</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0453202541227513</v>
+        <v>0.09659010176631845</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05383241928517786</v>
+        <v>0.02048091026370427</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03680352615634252</v>
+        <v>0.09776794819881982</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02500100679721774</v>
+        <v>0.02187775022047327</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0467579571150776</v>
+        <v>0.09816134427655793</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05228858054341251</v>
+        <v>0.04613106913478016</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04617822875018587</v>
+        <v>0.09836738779200752</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0797320986686707</v>
+        <v>0.06947554312062065</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04608839402313692</v>
+        <v>0.0982272221352391</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05407898641945168</v>
+        <v>0.01827061280552182</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03741691825894823</v>
+        <v>0.09939741400213348</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02496070187604789</v>
+        <v>0.02145254433745121</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04753725640032889</v>
+        <v>0.09979736668116723</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05269717597530632</v>
+        <v>0.04545645073663224</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0469478658960223</v>
+        <v>0.1000068442552076</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07996607451203047</v>
+        <v>0.06915318931661663</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04685653392352254</v>
+        <v>0.09986434250415975</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05432038347913784</v>
+        <v>0.02006437193071114</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03803031036155393</v>
+        <v>0.1010268798054472</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0248128705315811</v>
+        <v>0.02122981434445403</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04831655568558019</v>
+        <v>0.1014333890857765</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05248575507854814</v>
+        <v>0.04508499459775855</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04771750304185873</v>
+        <v>0.1016463007184078</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07946295140052179</v>
+        <v>0.06803777690246621</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04762467382390815</v>
+        <v>0.1015014628730804</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05455654463288656</v>
+        <v>0.01886532846768547</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03864370246415964</v>
+        <v>0.1026563456087608</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02495781953384107</v>
+        <v>0.02121293645541532</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04909585497083149</v>
+        <v>0.1030694114903858</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05205523327317316</v>
+        <v>0.04442384322608009</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04848714018769516</v>
+        <v>0.1032857571816079</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07972458162701784</v>
+        <v>0.06744014689995759</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04839281372429376</v>
+        <v>0.1031385832420011</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05478740404934807</v>
+        <v>0.01867497882306056</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03925709456676535</v>
+        <v>0.1042858114120745</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02479585565285145</v>
+        <v>0.02090528688426856</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04987515425608278</v>
+        <v>0.1047054338949951</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05210652597921672</v>
+        <v>0.04408013912951797</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0492567773335316</v>
+        <v>0.104925213644808</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07955281748439186</v>
+        <v>0.06677114033087889</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04916095362467938</v>
+        <v>0.1047757036109217</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05501289589717256</v>
+        <v>0.01847211541447032</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03987048666937106</v>
+        <v>0.1059152772153881</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02462728565863589</v>
+        <v>0.02059942199438161</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05065445354133407</v>
+        <v>0.1063414562996044</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05204054861671412</v>
+        <v>0.04345188722634866</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05002641447936803</v>
+        <v>0.1065646701080081</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07844951126551719</v>
+        <v>0.06651456016657525</v>
       </c>
       <c r="O130" t="n">
-        <v>0.049929093525065</v>
+        <v>0.1064128239798423</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0552329543450103</v>
+        <v>0.01725281941402117</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04048387877197677</v>
+        <v>0.1075447430187018</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02465241632121808</v>
+        <v>0.02037439521141364</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05143375282658536</v>
+        <v>0.1079774787042137</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05155821660570054</v>
+        <v>0.042988719941285</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05079605162520446</v>
+        <v>0.1082041265712083</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07841651526326709</v>
+        <v>0.06539813718157433</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05069723342545061</v>
+        <v>0.108049944348763</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05544751356151147</v>
+        <v>0.01802158691850671</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04109727087458247</v>
+        <v>0.1091742088220155</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02467155441062165</v>
+        <v>0.02013401269070296</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05221305211183665</v>
+        <v>0.109613501108823</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05156044536621132</v>
+        <v>0.04289028665506264</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0515656887710409</v>
+        <v>0.1098435830344084</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07795568177051493</v>
+        <v>0.06463105572639966</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05146537332583623</v>
+        <v>0.1096870647176836</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05565650771532628</v>
+        <v>0.01678291402472065</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04171066297718819</v>
+        <v>0.1108036746253291</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02438500669687027</v>
+        <v>0.01988310748348453</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05299235139708795</v>
+        <v>0.1112495235134323</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05104815031828172</v>
+        <v>0.04206681186986291</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05233532591687732</v>
+        <v>0.1114830394976085</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07746886308013384</v>
+        <v>0.06412883472691683</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05223351322622184</v>
+        <v>0.1113241850866043</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05585987097510497</v>
+        <v>0.01854129682945659</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04232405507979389</v>
+        <v>0.1124331404286428</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02439307994998763</v>
+        <v>0.01962651264099323</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05377165068233924</v>
+        <v>0.1128855459180416</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05122224688194704</v>
+        <v>0.04162852008786724</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05310496306271376</v>
+        <v>0.1131224959608086</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07735791148499715</v>
+        <v>0.06350699310899166</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05300165312660746</v>
+        <v>0.112961305455525</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05605753750949781</v>
+        <v>0.01730123142950819</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04293744718239961</v>
+        <v>0.1140626062319565</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02439608093999737</v>
+        <v>0.01946906121446407</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05455094996759054</v>
+        <v>0.1145215683226509</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05068365047724246</v>
+        <v>0.04118563581125709</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05387460020855019</v>
+        <v>0.1147619524240088</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07702467927797818</v>
+        <v>0.06208104979848966</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05376979302699307</v>
+        <v>0.1145984258244456</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05624944148715494</v>
+        <v>0.01806721392166909</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04355083928500531</v>
+        <v>0.1156920720352701</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02429431643692315</v>
+        <v>0.0193155862551319</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05533024925284182</v>
+        <v>0.1161575907272602</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05043327652420335</v>
+        <v>0.04064838354221384</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05464423735438662</v>
+        <v>0.1164014088872089</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07667101875195026</v>
+        <v>0.06176652372127645</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05453793292737869</v>
+        <v>0.1162355461933663</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05643551707672662</v>
+        <v>0.01584374040273296</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04416423138761102</v>
+        <v>0.1173215378385838</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02398809321078861</v>
+        <v>0.0189709208142317</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05610954853809312</v>
+        <v>0.1177936131318695</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05017204044286497</v>
+        <v>0.04002698778291897</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05541387450022305</v>
+        <v>0.118040865350409</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07619878219978654</v>
+        <v>0.06037893380321763</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05530607282776431</v>
+        <v>0.1178726665622869</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05661569844686307</v>
+        <v>0.01663530696949344</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04477762349021672</v>
+        <v>0.1189510036418975</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02397771803161745</v>
+        <v>0.01863989794299838</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05688884782334441</v>
+        <v>0.1194296355364788</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04980085765326256</v>
+        <v>0.03953167303555391</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05618351164605948</v>
+        <v>0.1196803218136091</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07560982191436033</v>
+        <v>0.05993379897017909</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05607421272814992</v>
+        <v>0.1195097869312076</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05678991976621449</v>
+        <v>0.01544640971874419</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04539101559282244</v>
+        <v>0.1205804694452111</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02376349766943334</v>
+        <v>0.01852735069266685</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05766814710859571</v>
+        <v>0.1210656579410881</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04952064357543146</v>
+        <v>0.03907266380229998</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05695314879189591</v>
+        <v>0.1213197782768093</v>
       </c>
       <c r="N139" t="n">
-        <v>0.074805990188545</v>
+        <v>0.05914663814802618</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05684235262853553</v>
+        <v>0.1211469073001282</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05695811520343115</v>
+        <v>0.01628154474727882</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04600440769542815</v>
+        <v>0.1222099352485248</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0237457388942599</v>
+        <v>0.01823811211447211</v>
       </c>
       <c r="K140" t="n">
-        <v>0.058447446393847</v>
+        <v>0.1227016803456974</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0492323136294068</v>
+        <v>0.03846018458533873</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05772278593773233</v>
+        <v>0.1229592347400094</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07468913931521381</v>
+        <v>0.05883297026262457</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05761049252892116</v>
+        <v>0.1227840276690489</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05712021892716324</v>
+        <v>0.01614520815189101</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04661779979803386</v>
+        <v>0.1238394010518385</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02362474847612084</v>
+        <v>0.01827701525964902</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0592267456790983</v>
+        <v>0.1243377027503067</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04903678323522401</v>
+        <v>0.03830445988685158</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05849242308356878</v>
+        <v>0.1245986912032095</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07366112158723992</v>
+        <v>0.05820831423984008</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05837863242930676</v>
+        <v>0.1244211480379695</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05727616510606096</v>
+        <v>0.01504189602937442</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04723119190063957</v>
+        <v>0.1254688668551521</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02350083318503976</v>
+        <v>0.01814889317943254</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06000604496434959</v>
+        <v>0.125973725154916</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04903496781291827</v>
+        <v>0.03821571420901987</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0592620602294052</v>
+        <v>0.1262381476664096</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07362378929749674</v>
+        <v>0.05808818900553814</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05914677232969238</v>
+        <v>0.1260582684068902</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05742588790877456</v>
+        <v>0.01497610447652267</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04784458400324527</v>
+        <v>0.1270983326584658</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02327429979104038</v>
+        <v>0.01785857892505757</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06078534424960088</v>
+        <v>0.1276097475595253</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0485277827825249</v>
+        <v>0.03780417205402506</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06003169737524164</v>
+        <v>0.1278776041296098</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07307899473885748</v>
+        <v>0.05768811348558456</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05991491223007799</v>
+        <v>0.1276953887758109</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05756932150395426</v>
+        <v>0.01695232959012941</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04845797610585098</v>
+        <v>0.1287277984617794</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02324545506414634</v>
+        <v>0.01791090554775908</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06156464353485218</v>
+        <v>0.1292457699641346</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04841614356407917</v>
+        <v>0.03748005792404857</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06080133452107807</v>
+        <v>0.1295170605928099</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07232859020419546</v>
+        <v>0.05742360660584478</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06068305213046361</v>
+        <v>0.1293325091447315</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05770640006025027</v>
+        <v>0.01595547919399119</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04907136820845669</v>
+        <v>0.1303572642650931</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02321460577438129</v>
+        <v>0.01800544194049285</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06234394282010346</v>
+        <v>0.1308817923687439</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0482009655776163</v>
+        <v>0.03755094109963422</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06157097166691449</v>
+        <v>0.13115651705601</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0721744279863839</v>
+        <v>0.05709838799173605</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06145119203084923</v>
+        <v>0.1309696295136521</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05783705774631281</v>
+        <v>0.01596512247531886</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0496847603110624</v>
+        <v>0.1319867300684068</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02308205869176892</v>
+        <v>0.01791247460465528</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06312324210535476</v>
+        <v>0.1325178147733532</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04738316424317163</v>
+        <v>0.03736210291717734</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06234060881275093</v>
+        <v>0.1327959735192101</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07151836037829618</v>
+        <v>0.0573191690517576</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06221933193123484</v>
+        <v>0.1326067498825728</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05796122873079214</v>
+        <v>0.01498091431881612</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05029815241366811</v>
+        <v>0.1336161958717204</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02274812058633285</v>
+        <v>0.01782625808166775</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06390254139060605</v>
+        <v>0.1341538371779625</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04716365498078037</v>
+        <v>0.03788770211370979</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06311024595858736</v>
+        <v>0.1344354299824103</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07066223967280549</v>
+        <v>0.05736170267554713</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06298747183162046</v>
+        <v>0.1342438702514934</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05807884718233841</v>
+        <v>0.01600252435292839</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05091154451627382</v>
+        <v>0.1352456616750341</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02271309822809679</v>
+        <v>0.01794643724068608</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06468184067585735</v>
+        <v>0.1357898595825718</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04684335321047786</v>
+        <v>0.03742698739653577</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06387988310442379</v>
+        <v>0.1360748864456104</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0703079181627852</v>
+        <v>0.0570248485380852</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06375561173200607</v>
+        <v>0.1358809906204141</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0581898472696019</v>
+        <v>0.01602962220610103</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05152493661887952</v>
+        <v>0.1368751274783477</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02257729838708437</v>
+        <v>0.017872656950866</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06546113996110865</v>
+        <v>0.1374258819871811</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04662317435229935</v>
+        <v>0.0375792074729594</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06464952025026022</v>
+        <v>0.1377143429088105</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06975724814110851</v>
+        <v>0.05770746631435225</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06452375163239168</v>
+        <v>0.1375181109893347</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05829416316123279</v>
+        <v>0.01506187750677945</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05213832872148523</v>
+        <v>0.1385045932816614</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02244102783331928</v>
+        <v>0.01800456208136336</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06624043924635993</v>
+        <v>0.1390619043917904</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04640403382628008</v>
+        <v>0.0377436110502849</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06541915739609666</v>
+        <v>0.1393537993720106</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06871208190064865</v>
+        <v>0.0578084156793286</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0652918915327773</v>
+        <v>0.1391552313582554</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05839172902588134</v>
+        <v>0.01509895988340904</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05275172082409094</v>
+        <v>0.1401340590849751</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02240459333682514</v>
+        <v>0.01814179750133391</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06701973853161124</v>
+        <v>0.1406979267963997</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04578684705245539</v>
+        <v>0.03761944683581639</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06618879454193309</v>
+        <v>0.1409932558352108</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06847427173427906</v>
+        <v>0.05732655630799482</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06606003143316293</v>
+        <v>0.140792351727176</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05848247903219773</v>
+        <v>0.01614053896443515</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05336511292669665</v>
+        <v>0.1417635248882887</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02206830166762565</v>
+        <v>0.01808400807993341</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06779903781686251</v>
+        <v>0.142333949201009</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04547252945086047</v>
+        <v>0.03780596353685806</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06695843168776951</v>
+        <v>0.1426327122984109</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06774566993487297</v>
+        <v>0.05806074787533133</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06682817133354853</v>
+        <v>0.1424294720960967</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05856634734883223</v>
+        <v>0.01518628437830321</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05397850502930236</v>
+        <v>0.1433929906916024</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02203245959574446</v>
+        <v>0.01823083868631768</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06857833710211382</v>
+        <v>0.1439699716056183</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04556199644153069</v>
+        <v>0.03800240986071413</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06772806883360595</v>
+        <v>0.144272168761611</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0671281287953035</v>
+        <v>0.05800985005631848</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06759631123393414</v>
+        <v>0.1440665924650174</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05864326814443503</v>
+        <v>0.01723586575345859</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05459189713190807</v>
+        <v>0.1450224564949161</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0217973738912052</v>
+        <v>0.01818193418964249</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0693576363873651</v>
+        <v>0.1456059940102276</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04515616344450119</v>
+        <v>0.03830803451468867</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06849770597944238</v>
+        <v>0.1459116252248112</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06732350060844416</v>
+        <v>0.05857272252593682</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06836445113431976</v>
+        <v>0.145703712833938</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05871317558765635</v>
+        <v>0.01728895271834668</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05520528923451377</v>
+        <v>0.1466519222982297</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02166335132403159</v>
+        <v>0.01813693945906363</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0701369356726164</v>
+        <v>0.1472420164148369</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04505594587980738</v>
+        <v>0.03852208620608591</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06926734312527881</v>
+        <v>0.1475510816880113</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06653363766716802</v>
+        <v>0.05864822495916677</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06913259103470538</v>
+        <v>0.1473408332028587</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0587760038471464</v>
+        <v>0.01734521490141286</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05581868133711949</v>
+        <v>0.1482813881015434</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02163069866424726</v>
+        <v>0.01839549936373688</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0709162349578677</v>
+        <v>0.1488780388194462</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04456225916748449</v>
+        <v>0.03864381364221003</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07003698027111524</v>
+        <v>0.1491905381512114</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06596039226434863</v>
+        <v>0.05873521703098877</v>
       </c>
       <c r="O156" t="n">
-        <v>0.069900730935091</v>
+        <v>0.1489779535717793</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05883168709155545</v>
+        <v>0.01742744154499328</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05643207343972519</v>
+        <v>0.1499108539048571</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02139972268187587</v>
+        <v>0.01846419280066244</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07169553424311899</v>
+        <v>0.1505140612240555</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04437601872756775</v>
+        <v>0.03867655104444115</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07080661741695167</v>
+        <v>0.1508299946144115</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06520561669285901</v>
+        <v>0.05914861968725488</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07066887083547661</v>
+        <v>0.1506150739407</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05888015948953368</v>
+        <v>0.01656237878690599</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05704546554233091</v>
+        <v>0.1515403197081707</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0214667468089331</v>
+        <v>0.01858517516461755</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07247483352837029</v>
+        <v>0.1521500836286648</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04369473068196039</v>
+        <v>0.03850450529683699</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0715762545627881</v>
+        <v>0.1524694510776116</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06516540879405214</v>
+        <v>0.05952365992928516</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07143701073586221</v>
+        <v>0.1522521943096206</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05892135520973131</v>
+        <v>0.01774031419763481</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05765885764493661</v>
+        <v>0.1531697855114844</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02132522846977007</v>
+        <v>0.01865674710714041</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07325413281362157</v>
+        <v>0.1537861060332741</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04351278175946552</v>
+        <v>0.03904429513469079</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07234589170862453</v>
+        <v>0.1541089075408118</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06453071068537652</v>
+        <v>0.05966348155137902</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07220515063624784</v>
+        <v>0.1538893146785413</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05895520842079857</v>
+        <v>0.01795127465732614</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05827224974754232</v>
+        <v>0.154799251314798</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02117553626365058</v>
+        <v>0.01876818808518298</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07403343209887288</v>
+        <v>0.1554221284378834</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04322981867684222</v>
+        <v>0.03927324084482492</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07311552885446097</v>
+        <v>0.1557483640040119</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06410074199779436</v>
+        <v>0.06023366089346843</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07297329053663346</v>
+        <v>0.1555264350474619</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05898165329138569</v>
+        <v>0.01618528704612638</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05888564185014803</v>
+        <v>0.1564287171181117</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0208181666821807</v>
+        <v>0.01920877755569719</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07481273138412416</v>
+        <v>0.1570581508424927</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04324558497364264</v>
+        <v>0.04026866271406182</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07388516600029739</v>
+        <v>0.157387820467212</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06357485295976234</v>
+        <v>0.06119977429548557</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07374143043701907</v>
+        <v>0.1571635554163825</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05900062399014289</v>
+        <v>0.01643237824418198</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05949903395275374</v>
+        <v>0.1580581829214254</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02085361621696651</v>
+        <v>0.01926779497563506</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07559203066937546</v>
+        <v>0.158694173247102</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04285982418941875</v>
+        <v>0.04060788102922391</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07465480314613383</v>
+        <v>0.1590272769304122</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06305239379973676</v>
+        <v>0.06162739809736262</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07450957033740468</v>
+        <v>0.1588006757853032</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05901205468572038</v>
+        <v>0.01668257513163934</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06011242605535945</v>
+        <v>0.159687648724739</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02068238135961412</v>
+        <v>0.01973451980194853</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07637132995462674</v>
+        <v>0.1603301956517113</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04267227986372282</v>
+        <v>0.04136821607713365</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07542444029197026</v>
+        <v>0.1606667333936123</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06283271474617419</v>
+        <v>0.06298210863903153</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0752777102377903</v>
+        <v>0.1604377961542239</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05901587954676837</v>
+        <v>0.01792590458864488</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06072581815796516</v>
+        <v>0.1613171145280527</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02030495860172957</v>
+        <v>0.01999823149158954</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07715062923987805</v>
+        <v>0.1619662180563206</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04208269553610677</v>
+        <v>0.04182698814461341</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07619407743780669</v>
+        <v>0.1623061898568124</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06261516602753098</v>
+        <v>0.06382948226042462</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07604585013817591</v>
+        <v>0.1620749165231445</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05901587954676837</v>
+        <v>0.01915239349534502</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06072581815796516</v>
+        <v>0.1629465803313664</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02032184443491898</v>
+        <v>0.02004820950151007</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07792992852512932</v>
+        <v>0.1636022404609299</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04189081474612288</v>
+        <v>0.04236151751848566</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07696371458364312</v>
+        <v>0.1639456463200125</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06179909787226384</v>
+        <v>0.06453509530147372</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07681399003856153</v>
+        <v>0.1637120368920652</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05803156719318898</v>
+        <v>0.01835206873188618</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06072554962950114</v>
+        <v>0.16457604613468</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01993353535078841</v>
+        <v>0.02047373328866209</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07870922781038063</v>
+        <v>0.1652382628655392</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04189638103332324</v>
+        <v>0.04284912448557276</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07773335172947955</v>
+        <v>0.1655851027832126</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06178386050882895</v>
+        <v>0.0648645241021113</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07758212993894716</v>
+        <v>0.1653491572609858</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05705821543581777</v>
+        <v>0.0185283638377218</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06072528110103712</v>
+        <v>0.1662055119379937</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01994052784094398</v>
+        <v>0.02056815225485205</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07948852709563192</v>
+        <v>0.1668742852701485</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04139913793725988</v>
+        <v>0.04306978013202359</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07850298887531598</v>
+        <v>0.1672245592464128</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06116880416568299</v>
+        <v>0.06569293040638458</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07835026983933276</v>
+        <v>0.1669862776299065</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05609632702940515</v>
+        <v>0.01769992645449624</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0607250125725731</v>
+        <v>0.1678349777413073</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01974331839699173</v>
+        <v>0.02065287739873307</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08026782638088321</v>
+        <v>0.1685103076747578</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04109882899748499</v>
+        <v>0.04326094473090603</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07927262602115241</v>
+        <v>0.1688640157096129</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06075327907128225</v>
+        <v>0.06618625932505184</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07911840973971837</v>
+        <v>0.1686233979988271</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05514640472882697</v>
+        <v>0.0188674095390518</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06072474404410908</v>
+        <v>0.169464443544621</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01954240351053776</v>
+        <v>0.02103310400604784</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08104712566613452</v>
+        <v>0.1701463300793671</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04059519775355058</v>
+        <v>0.04404246776608683</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08004226316698886</v>
+        <v>0.170503472172813</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06083663545408335</v>
+        <v>0.06676508282311033</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07988654964010398</v>
+        <v>0.1702605183677478</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05420895128883312</v>
+        <v>0.01903112946876721</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06072447551564507</v>
+        <v>0.1710939093479347</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01913827967318817</v>
+        <v>0.02110917216468834</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0818264249513858</v>
+        <v>0.1717823524839764</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04018798774500884</v>
+        <v>0.0443150687063289</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08081190031282527</v>
+        <v>0.1721429286360132</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05961822354254276</v>
+        <v>0.06713049292266521</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08065468954048961</v>
+        <v>0.1718976387366684</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05328446946421568</v>
+        <v>0.02019140262102112</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06072420698718105</v>
+        <v>0.1727233751512483</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01913144337654904</v>
+        <v>0.02138142196254661</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0826057242366371</v>
+        <v>0.1734183748885857</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04027694251141192</v>
+        <v>0.04447946702039535</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08158153745866172</v>
+        <v>0.1737823850992133</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05979739356511687</v>
+        <v>0.06798358164582169</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08142282944087523</v>
+        <v>0.1735347591055891</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05237346200972738</v>
+        <v>0.01934854537319224</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06072393845871703</v>
+        <v>0.174352840954562</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01872239111222643</v>
+        <v>0.02155019348751462</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08338502352188838</v>
+        <v>0.175054397293195</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03956180559231182</v>
+        <v>0.04493638217704923</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08235117460449815</v>
+        <v>0.1754218415624134</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05887349575026213</v>
+        <v>0.0683254410146848</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08219096934126084</v>
+        <v>0.1751718794745097</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05147643168023958</v>
+        <v>0.01950287410265925</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06072366993025301</v>
+        <v>0.1759823067578757</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01871161937182643</v>
+        <v>0.02151582682748435</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08416432280713969</v>
+        <v>0.1766904196978043</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03934232052726072</v>
+        <v>0.04518653364505346</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08312081175033456</v>
+        <v>0.1770612980256135</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05894588032643511</v>
+        <v>0.06875716305135948</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08295910924164646</v>
+        <v>0.1768089998434304</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05059388123050437</v>
+        <v>0.02065470518680085</v>
       </c>
       <c r="G174" t="n">
-        <v>0.060723401401789</v>
+        <v>0.1776117725611893</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01849962464695515</v>
+        <v>0.02177866207034784</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08494362209239097</v>
+        <v>0.1783264421024136</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03941823085581067</v>
+        <v>0.0459306408931712</v>
       </c>
       <c r="M174" t="n">
-        <v>0.083890448896171</v>
+        <v>0.1787007544888136</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05871389752209211</v>
+        <v>0.06957983977795129</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08372724914203207</v>
+        <v>0.178446120212351</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04972631341531386</v>
+        <v>0.01880435500299572</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06072313287332499</v>
+        <v>0.179241238364503</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01818690342921865</v>
+        <v>0.02183903930399707</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08572292137764227</v>
+        <v>0.1799624645070229</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03878928011751387</v>
+        <v>0.04586942339016534</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08466008604200743</v>
+        <v>0.1803402109520138</v>
       </c>
       <c r="N175" t="n">
-        <v>0.05817689756568972</v>
+        <v>0.06989456321656506</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08449538904241768</v>
+        <v>0.1800832405812717</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04887423098942331</v>
+        <v>0.02095213992862253</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06072286434486096</v>
+        <v>0.1808707041678167</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01807395221022301</v>
+        <v>0.02209729861632405</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08650222066289356</v>
+        <v>0.1815984869116322</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03875521185192238</v>
+        <v>0.04640360060479898</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08542972318784386</v>
+        <v>0.1819796674152139</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05733423068568444</v>
+        <v>0.07030242538930592</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0852635289428033</v>
+        <v>0.1817203609501923</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04803813670769898</v>
+        <v>0.02109837634106002</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06072259581639695</v>
+        <v>0.1825001699711303</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01786126748157435</v>
+        <v>0.02215378009522076</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08728151994814486</v>
+        <v>0.1832345093162415</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03831576959858829</v>
+        <v>0.04673389200583511</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08619936033368029</v>
+        <v>0.183619123878414</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0570852471105327</v>
+        <v>0.07080451831827905</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08603166884318891</v>
+        <v>0.183357481319113</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04721853332489553</v>
+        <v>0.01924528628647018</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06072232728793293</v>
+        <v>0.184129635774444</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01744934573487869</v>
+        <v>0.02230909455190007</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08806081923339615</v>
+        <v>0.1848705317208508</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03777069689706369</v>
+        <v>0.04726101889437326</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08696899747951674</v>
+        <v>0.1852585803416141</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05662929706869091</v>
+        <v>0.07160236032424583</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08679980874357453</v>
+        <v>0.1849946016880336</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04641592359580497</v>
+        <v>0.01940077369431117</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06072205875946892</v>
+        <v>0.1857591015777577</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01733868346174218</v>
+        <v>0.02247181267211668</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08884011851864744</v>
+        <v>0.1865065541254601</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03761973728690082</v>
+        <v>0.04729983392441434</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08773863462535315</v>
+        <v>0.1868980368048143</v>
       </c>
       <c r="N179" t="n">
-        <v>0.05626573078861563</v>
+        <v>0.07212227586872477</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08756794864396014</v>
+        <v>0.1866317220569543</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04563081027518563</v>
+        <v>0.01956101306626191</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06072179023100489</v>
+        <v>0.1873885673810713</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01722977715377087</v>
+        <v>0.022741608530209</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08961941780389875</v>
+        <v>0.1881425765300694</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03696263430765165</v>
+        <v>0.04795579129162186</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08850827177118958</v>
+        <v>0.1885374932680144</v>
       </c>
       <c r="N180" t="n">
-        <v>0.05599389849876329</v>
+        <v>0.07246597217612827</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08833608854434576</v>
+        <v>0.1882688424258749</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04486369611789789</v>
+        <v>0.02172056959696025</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06072152170254088</v>
+        <v>0.189018033184385</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01692312330257086</v>
+        <v>0.02281264001601513</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09039871708915002</v>
+        <v>0.1897785989346787</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03689913149886839</v>
+        <v>0.04781653179159456</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08927790891702603</v>
+        <v>0.1901769497312145</v>
       </c>
       <c r="N181" t="n">
-        <v>0.05541315042759037</v>
+        <v>0.07301469023272039</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08910422844473138</v>
+        <v>0.1899059627947956</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04411508387869927</v>
+        <v>0.02187400848104404</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06072125317407686</v>
+        <v>0.1906474989876986</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0166192183997482</v>
+        <v>0.02307906501937317</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09117801637440133</v>
+        <v>0.191414621339288</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03652897240010303</v>
+        <v>0.04846969621993114</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09004754606286244</v>
+        <v>0.1918164061944146</v>
       </c>
       <c r="N182" t="n">
-        <v>0.05472283680355322</v>
+        <v>0.07404967102476551</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08987236834511698</v>
+        <v>0.1915430831637162</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04338547631238182</v>
+        <v>0.02201589491315115</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06072098464561285</v>
+        <v>0.1922769647910123</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01641855893690899</v>
+        <v>0.02313504143012121</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09195731565965261</v>
+        <v>0.1930506437438973</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03575190055090777</v>
+        <v>0.04890292537223023</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09081718320869889</v>
+        <v>0.1934558626576148</v>
       </c>
       <c r="N183" t="n">
-        <v>0.05392230785510854</v>
+        <v>0.07445215553852785</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0906405082455026</v>
+        <v>0.1931802035326369</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04267537617370712</v>
+        <v>0.02014079408791944</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06072071611714882</v>
+        <v>0.193906430594326</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01632164140565935</v>
+        <v>0.02337472713809735</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09273661494490391</v>
+        <v>0.1946866661485066</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03536765949083473</v>
+        <v>0.0488038600440906</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09158682035453532</v>
+        <v>0.1950953191208149</v>
       </c>
       <c r="N184" t="n">
-        <v>0.05341091381071261</v>
+        <v>0.07480338476027176</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09140864814588823</v>
+        <v>0.1948173239015575</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04198528621752905</v>
+        <v>0.0212432711999868</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06072044758868481</v>
+        <v>0.1955358963976396</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01612896229760533</v>
+        <v>0.0233922800331397</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09351591423015521</v>
+        <v>0.1963226885531159</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03537599275943595</v>
+        <v>0.04906014103111089</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09235645750037175</v>
+        <v>0.196734775584015</v>
       </c>
       <c r="N185" t="n">
-        <v>0.05348800489882199</v>
+        <v>0.0748845996762616</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09217678804627384</v>
+        <v>0.1964544442704782</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04131570919860836</v>
+        <v>0.02231789150293502</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06072017906022079</v>
+        <v>0.1971653622009533</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01594101810435301</v>
+        <v>0.02348185800508633</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0942952135154065</v>
+        <v>0.1979587109577252</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03487664389626363</v>
+        <v>0.04965940912888978</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09312609464620818</v>
+        <v>0.1983742320472151</v>
       </c>
       <c r="N186" t="n">
-        <v>0.05255293134789307</v>
+        <v>0.07557704127276144</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09294492794665946</v>
+        <v>0.1980915646393988</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04066714787173709</v>
+        <v>0.0213762103745211</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06071991053175678</v>
+        <v>0.198794828004267</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01575830531750849</v>
+        <v>0.0235460869140359</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09507451280065779</v>
+        <v>0.1995947333623345</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03456935644086981</v>
+        <v>0.049599645876925</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09389573179204461</v>
+        <v>0.2000136885104153</v>
       </c>
       <c r="N187" t="n">
-        <v>0.05160504338638233</v>
+        <v>0.07528510507566888</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09371306784704507</v>
+        <v>0.1997286850083195</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04004010499168048</v>
+        <v>0.0214332703045586</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06071964200329275</v>
+        <v>0.2004242938075806</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01568132042867783</v>
+        <v>0.02380734798863997</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09585381208590908</v>
+        <v>0.2012307557669437</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0337538739328066</v>
+        <v>0.04982916039055138</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09466536893788104</v>
+        <v>0.2016531449736154</v>
       </c>
       <c r="N188" t="n">
-        <v>0.05114369124274637</v>
+        <v>0.07558177308738334</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09448120774743068</v>
+        <v>0.2013658053772401</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03943508331328521</v>
+        <v>0.0204890512922284</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06071937347482874</v>
+        <v>0.2020537596108943</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01531055992946714</v>
+        <v>0.02376724633021469</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09663311137116037</v>
+        <v>0.2028667781715531</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03382993991162614</v>
+        <v>0.05005580527031683</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09543500608371747</v>
+        <v>0.2032926014368155</v>
       </c>
       <c r="N189" t="n">
-        <v>0.05056822514544151</v>
+        <v>0.07567407181727498</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0952493476478163</v>
+        <v>0.2030029257461608</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03885053267591443</v>
+        <v>0.02254353333671132</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06071910494636473</v>
+        <v>0.2036832254142079</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01534652031148251</v>
+        <v>0.02382576043900417</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09741241065641167</v>
+        <v>0.2045028005761624</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03309729791688054</v>
+        <v>0.05017953503267664</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09620464322955391</v>
+        <v>0.2049320579000156</v>
       </c>
       <c r="N190" t="n">
-        <v>0.05067799532292422</v>
+        <v>0.07596193222963488</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09601748754820191</v>
+        <v>0.2046400461150815</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03827463834195473</v>
+        <v>0.02159669643718821</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06071883641790071</v>
+        <v>0.2053126912175216</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01498969806632998</v>
+        <v>0.02378286881525246</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09819170994166297</v>
+        <v>0.2061388229807717</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03245569148812194</v>
+        <v>0.05000030419408624</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09697428037539033</v>
+        <v>0.2065715143632158</v>
       </c>
       <c r="N191" t="n">
-        <v>0.04997235200365108</v>
+        <v>0.07684528528875395</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09678562744858753</v>
+        <v>0.2062771664840021</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0377058501507728</v>
+        <v>0.02064852059283992</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06071856788943669</v>
+        <v>0.2069421570208353</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01494058968561568</v>
+        <v>0.02383854995920363</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09897100922691425</v>
+        <v>0.207774845385381</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03200486416490234</v>
+        <v>0.05031806727100108</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09774391752122677</v>
+        <v>0.2082109708264159</v>
       </c>
       <c r="N192" t="n">
-        <v>0.04925064541607849</v>
+        <v>0.07682406195892322</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09755376734897314</v>
+        <v>0.2079142868529228</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03714467085721022</v>
+        <v>0.02169898580284731</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06071829936097267</v>
+        <v>0.208571622824149</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01469760041719897</v>
+        <v>0.02389278237110173</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09975030851216556</v>
+        <v>0.2094108677899903</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03172860410890158</v>
+        <v>0.05033277877987649</v>
       </c>
       <c r="M193" t="n">
-        <v>0.0985135546670632</v>
+        <v>0.209850427289616</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0485855504406485</v>
+        <v>0.07679819320443382</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09832190724935876</v>
+        <v>0.2095514072218434</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03659160321603415</v>
+        <v>0.02074807206639119</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06071803083250865</v>
+        <v>0.2102010886274626</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01475815998835656</v>
+        <v>0.02414554455119086</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1005296077974168</v>
+        <v>0.2110468901945996</v>
       </c>
       <c r="L194" t="n">
-        <v>0.03110906367386063</v>
+        <v>0.05024439323716784</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09928319181289962</v>
+        <v>0.2114898837528162</v>
       </c>
       <c r="N194" t="n">
-        <v>0.04724583063803467</v>
+        <v>0.07666760998957678</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09909004714974437</v>
+        <v>0.2111885275907641</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03604714998203663</v>
+        <v>0.02279575938265244</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06071776230404464</v>
+        <v>0.2118305544307763</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01462208146240485</v>
+        <v>0.02409681499971508</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1013089070826681</v>
+        <v>0.2126829125992089</v>
       </c>
       <c r="L195" t="n">
-        <v>0.03084884347437433</v>
+        <v>0.05045286515933056</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1000528289587361</v>
+        <v>0.2131293402160163</v>
       </c>
       <c r="N195" t="n">
-        <v>0.04673622258562909</v>
+        <v>0.07703224327864311</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09985818705013</v>
+        <v>0.2128256479596847</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03551181390998664</v>
+        <v>0.02184202775081188</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06071749377558061</v>
+        <v>0.2134600202340899</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01438918631909415</v>
+        <v>0.02404657221691843</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1020882063679194</v>
+        <v>0.2143189350038182</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03025059142964215</v>
+        <v>0.05075814906282008</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1008224661045725</v>
+        <v>0.2147687966792164</v>
       </c>
       <c r="N196" t="n">
-        <v>0.04576158918101864</v>
+        <v>0.0770920240359238</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1006263269505156</v>
+        <v>0.2144627683286054</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03498609775472285</v>
+        <v>0.02288685717005039</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0607172252471166</v>
+        <v>0.2150894860374036</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01415929603817474</v>
+        <v>0.024194794703045</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1028675056531707</v>
+        <v>0.2159549574084275</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0295169554588634</v>
+        <v>0.05096019946409178</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1015921032504089</v>
+        <v>0.2164082531424165</v>
       </c>
       <c r="N197" t="n">
-        <v>0.04482679332179007</v>
+        <v>0.07704688322570996</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1013944668509012</v>
+        <v>0.216099888697526</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03447050427101381</v>
+        <v>0.02093022763954876</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06071695671865258</v>
+        <v>0.2167189518407173</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01403223209939687</v>
+        <v>0.02424146095833886</v>
       </c>
       <c r="K198" t="n">
-        <v>0.103646804938422</v>
+        <v>0.2175909798130368</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0287505834812376</v>
+        <v>0.05065897087960097</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1023617403962453</v>
+        <v>0.2180477096056166</v>
       </c>
       <c r="N198" t="n">
-        <v>0.04363669790553015</v>
+        <v>0.07739675181229266</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1021626067512868</v>
+        <v>0.2177370090664467</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03396553621365155</v>
+        <v>0.0209721191584879</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06071668819018857</v>
+        <v>0.2183484176440309</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01400781598251083</v>
+        <v>0.02438654948304406</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1044261042236733</v>
+        <v>0.219227002217646</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02785412341596402</v>
+        <v>0.05105441782580314</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1031313775420818</v>
+        <v>0.2196871660688168</v>
       </c>
       <c r="N199" t="n">
-        <v>0.04329616582982565</v>
+        <v>0.07744156075996284</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1029307466516725</v>
+        <v>0.2193741294353673</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03347169633740692</v>
+        <v>0.02101251172604859</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06071641966172454</v>
+        <v>0.2199778834473446</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01378586916726687</v>
+        <v>0.02423003877740468</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1052054035089246</v>
+        <v>0.2208630246222553</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02753022318224219</v>
+        <v>0.05104649481915363</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1039010146879182</v>
+        <v>0.2213266225320169</v>
       </c>
       <c r="N200" t="n">
-        <v>0.04211005999226342</v>
+        <v>0.07828124103301159</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1036988865520581</v>
+        <v>0.221011249804288</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03298948739711496</v>
+        <v>0.02305138534141174</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06071615113326053</v>
+        <v>0.2216073492506582</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01366621313341526</v>
+        <v>0.02447190734166478</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1059847027941759</v>
+        <v>0.2224990470268647</v>
       </c>
       <c r="L201" t="n">
-        <v>0.02688153069927141</v>
+        <v>0.05103515637610784</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1046706518337546</v>
+        <v>0.222966078995217</v>
       </c>
       <c r="N201" t="n">
-        <v>0.04068324329043022</v>
+        <v>0.07821572359572998</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1044670264524437</v>
+        <v>0.2226483701732086</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03251941214754601</v>
+        <v>0.02108872000375815</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06071588260479652</v>
+        <v>0.2232368150539719</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0137486693607063</v>
+        <v>0.02441213367606843</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1067640020794272</v>
+        <v>0.224135069431474</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02591069388625106</v>
+        <v>0.05122035701312119</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1054402889795911</v>
+        <v>0.2246055354584172</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03952057862191283</v>
+        <v>0.07774493941240901</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1052351663528293</v>
+        <v>0.2242854905421293</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03206197334349209</v>
+        <v>0.02112449571226871</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0607156140763325</v>
+        <v>0.2248662808572856</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01363305932889025</v>
+        <v>0.02435069628085969</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1075433013646785</v>
+        <v>0.2257710918360832</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0249203606623806</v>
+        <v>0.05160205124664902</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1062099261254275</v>
+        <v>0.2262449919216173</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03882692888429795</v>
+        <v>0.07836881944733964</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1060033062532149</v>
+        <v>0.22592261091105</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03161767373972622</v>
+        <v>0.02315869246612422</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06071534554786848</v>
+        <v>0.2264957466605992</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01351920451771735</v>
+        <v>0.02448757365628264</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1083226006499298</v>
+        <v>0.2274071142406925</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02401317894685948</v>
+        <v>0.05158019359314678</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1069795632712639</v>
+        <v>0.2278844483848174</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03740715697517266</v>
+        <v>0.07808729466481312</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1067714461536005</v>
+        <v>0.2275597312799706</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0311870160910792</v>
+        <v>0.02119129026450552</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06071507701940446</v>
+        <v>0.2281252124639129</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01320692640693789</v>
+        <v>0.02442274430258136</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1091018999351811</v>
+        <v>0.2290431366453018</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02319179665888693</v>
+        <v>0.05175473856906979</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1077492004171004</v>
+        <v>0.2295239048480175</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03556612579212337</v>
+        <v>0.07810029602912028</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1075395860539861</v>
+        <v>0.2291968516488913</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03077050315232338</v>
+        <v>0.02222226910659351</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06071480849094044</v>
+        <v>0.2297546782672266</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01319604647630215</v>
+        <v>0.02465618671999989</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1098811992204324</v>
+        <v>0.2306791590499111</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02245886171766245</v>
+        <v>0.05172564069087351</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1085188375629368</v>
+        <v>0.2311633613112176</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03480869823273725</v>
+        <v>0.07840775450455229</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1083077259543718</v>
+        <v>0.2308339720178119</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03036863767825086</v>
+        <v>0.02125160899156897</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06071453996247643</v>
+        <v>0.2313841440705402</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0129863862055604</v>
+        <v>0.0246878794087823</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1106604985056836</v>
+        <v>0.2323151814545204</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02161702204238541</v>
+        <v>0.05189285447501332</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1092884747087732</v>
+        <v>0.2328028177744178</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03363973719460078</v>
+        <v>0.07840960105540012</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1090758658547574</v>
+        <v>0.2324710923867326</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02998192242363723</v>
+        <v>0.0222792899186128</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0607142714340124</v>
+        <v>0.2330136098738539</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01307776707446291</v>
+        <v>0.02461780086917267</v>
       </c>
       <c r="K208" t="n">
-        <v>0.111439797790935</v>
+        <v>0.2339512038591297</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02066892555225527</v>
+        <v>0.05185633443794463</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1100581118546097</v>
+        <v>0.2344422742376179</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03246410557530088</v>
+        <v>0.07910576664595481</v>
       </c>
       <c r="O208" t="n">
-        <v>0.109844005755143</v>
+        <v>0.2341082127556532</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02961086014330815</v>
+        <v>0.02230529188690583</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06071400290554839</v>
+        <v>0.2346430756771676</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01287001056275994</v>
+        <v>0.02454592960141505</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1122190970761862</v>
+        <v>0.235587226263739</v>
       </c>
       <c r="L209" t="n">
-        <v>0.01981722016647136</v>
+        <v>0.05191603509612275</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1108277490004461</v>
+        <v>0.236081730700818</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03128666627242438</v>
+        <v>0.07859618224050741</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1106121456555286</v>
+        <v>0.2357453331245739</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02925595359203857</v>
+        <v>0.0233295948956289</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06071373437708438</v>
+        <v>0.2362725414804812</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01266293815020175</v>
+        <v>0.02477224410575354</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1129983963614375</v>
+        <v>0.2372232486683483</v>
       </c>
       <c r="L210" t="n">
-        <v>0.01906455380423308</v>
+        <v>0.05177191096600312</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1115973861462825</v>
+        <v>0.2377211871640181</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02961228218355794</v>
+        <v>0.07918077880334901</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1113802855559142</v>
+        <v>0.2373824534934945</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02891770552462053</v>
+        <v>0.02135217894396284</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06071346584862036</v>
+        <v>0.2379020072837949</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01275637131653864</v>
+        <v>0.02469672288243216</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1137776956466888</v>
+        <v>0.2388592710729576</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01861357438473987</v>
+        <v>0.05172391656404116</v>
       </c>
       <c r="M211" t="n">
-        <v>0.112367023292119</v>
+        <v>0.2393606436272183</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02864581620628853</v>
+        <v>0.07865948729877043</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1121484254562998</v>
+        <v>0.2390195738624152</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02859661869583249</v>
+        <v>0.02137302403108854</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06071319732015634</v>
+        <v>0.2395314730871085</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01265013154152086</v>
+        <v>0.02481934443169501</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1145569949319401</v>
+        <v>0.2404952934775669</v>
       </c>
       <c r="L212" t="n">
-        <v>0.01776692982719108</v>
+        <v>0.05167200640669223</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1131366604379554</v>
+        <v>0.2410001000904184</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02739213123820283</v>
+        <v>0.07893223869106308</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1129165653566854</v>
+        <v>0.2406566942313358</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02829319586049447</v>
+        <v>0.02139211015618679</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06071292879169232</v>
+        <v>0.2411609388904222</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01254404030489871</v>
+        <v>0.02484008725378617</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1153362942171914</v>
+        <v>0.2421313158821763</v>
       </c>
       <c r="L213" t="n">
-        <v>0.01672726805078611</v>
+        <v>0.05181613501041174</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1139062975837918</v>
+        <v>0.2426395565536185</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02625609017688763</v>
+        <v>0.07909896394451771</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1136847052570711</v>
+        <v>0.2422938146002565</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02800793977338419</v>
+        <v>0.02240941731843848</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06071266026322831</v>
+        <v>0.2427904046937359</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01223791908642243</v>
+        <v>0.02475892984894966</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1161155935024427</v>
+        <v>0.2437673382867855</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01589723697472437</v>
+        <v>0.05185625689165513</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1146759347296283</v>
+        <v>0.2442790130168186</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02494255591992972</v>
+        <v>0.07905959402342544</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1144528451574567</v>
+        <v>0.2439309349691771</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02800793977338419</v>
+        <v>0.02142492551702442</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06071266026322831</v>
+        <v>0.2444198704970496</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01233158936584228</v>
+        <v>0.02487585071742959</v>
       </c>
       <c r="K215" t="n">
-        <v>0.116894892787694</v>
+        <v>0.2454033606913948</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0149794845182053</v>
+        <v>0.05229232656687768</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1154455718754647</v>
+        <v>0.2459184694800188</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02345639136491584</v>
+        <v>0.07911405989207732</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1152209850578423</v>
+        <v>0.2455680553380978</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02729558129202449</v>
+        <v>0.0224386147511255</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06060100899273786</v>
+        <v>0.2460493363003632</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01222487262290857</v>
+        <v>0.02479082835947001</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1176741920729453</v>
+        <v>0.2470393830960042</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01397665860042824</v>
+        <v>0.05232429855253487</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1162152090213011</v>
+        <v>0.2475579259432189</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02240245940943292</v>
+        <v>0.0793622925147644</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1159891249582279</v>
+        <v>0.2472051757070184</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02659096810577004</v>
+        <v>0.02245046501992252</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06048935772224741</v>
+        <v>0.2476788021036769</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01201759033737154</v>
+        <v>0.024903841275315</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1184534913581966</v>
+        <v>0.2486754055006134</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01359140714059259</v>
+        <v>0.05225212736508206</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1169848461671376</v>
+        <v>0.249197382406419</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02138562295106777</v>
+        <v>0.07910422285577778</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1167572648586135</v>
+        <v>0.248842296075939</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02589442378605172</v>
+        <v>0.02246045632259637</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06037770645175695</v>
+        <v>0.2493082679069905</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01200956398898147</v>
+        <v>0.02481486796520861</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1192327906434479</v>
+        <v>0.2503114279052228</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01242637805789776</v>
+        <v>0.05207576752097462</v>
       </c>
       <c r="M218" t="n">
-        <v>0.117754483312974</v>
+        <v>0.2508368388696192</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02001074488740695</v>
+        <v>0.07933978187940827</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1175254047589991</v>
+        <v>0.2504794164448597</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02520627190430044</v>
+        <v>0.02346856865832785</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06026605518126651</v>
+        <v>0.2509377337103042</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01190061505748864</v>
+        <v>0.02472388692939491</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1200120899286992</v>
+        <v>0.251947450309832</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01218421927154312</v>
+        <v>0.05189517353666795</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1185241204588104</v>
+        <v>0.2524762953328193</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01878268811603745</v>
+        <v>0.07986890054994722</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1182935446593848</v>
+        <v>0.2521165368137803</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0245268360319469</v>
+        <v>0.02347478202629785</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06015440391077605</v>
+        <v>0.2525671995136179</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01179056502264331</v>
+        <v>0.02493087666811797</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1207913892139505</v>
+        <v>0.2535834727144413</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0113675787007281</v>
+        <v>0.05191029992861751</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1192937576046468</v>
+        <v>0.2541157517960194</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01830631553454604</v>
+        <v>0.07929150983168542</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1190616845597704</v>
+        <v>0.253753657182701</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02385643974042201</v>
+        <v>0.02147907642568717</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0600427526402856</v>
+        <v>0.2541966653169315</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01167923536419575</v>
+        <v>0.02483581568162185</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1215706884992018</v>
+        <v>0.2552194951190506</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0106791042646521</v>
+        <v>0.05232110121327865</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1200633947504833</v>
+        <v>0.2557552082592195</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0173864900405194</v>
+        <v>0.07910754068891396</v>
       </c>
       <c r="O221" t="n">
-        <v>0.119829824460156</v>
+        <v>0.2553907775516217</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02319540660115647</v>
+        <v>0.02348143185567669</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05993110136979515</v>
+        <v>0.2558261311202452</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01146644756189622</v>
+        <v>0.02493868247015063</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1223499877844531</v>
+        <v>0.2568555175236599</v>
       </c>
       <c r="L222" t="n">
-        <v>0.009721443882514502</v>
+        <v>0.05192753190710672</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1208330318963197</v>
+        <v>0.2573946647224197</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01612807453154447</v>
+        <v>0.079316924085924</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1205979643605416</v>
+        <v>0.2570278979205423</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02254406018558118</v>
+        <v>0.02147916364493334</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05981945009930469</v>
+        <v>0.2574555969235588</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01135202309549502</v>
+        <v>0.02483888632641854</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1231292870697044</v>
+        <v>0.2584915399282692</v>
       </c>
       <c r="L223" t="n">
-        <v>0.009497245473514715</v>
+        <v>0.05192939735886407</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1216026690421561</v>
+        <v>0.2590341211856198</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01593593190520787</v>
+        <v>0.07991844286874566</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1213661042609272</v>
+        <v>0.258665018289463</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02190272406512703</v>
+        <v>0.02143156083515835</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05970779882881425</v>
+        <v>0.2590850627268725</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01133578344474241</v>
+        <v>0.02479820035881679</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1239085863549556</v>
+        <v>0.2601275623328785</v>
       </c>
       <c r="L224" t="n">
-        <v>0.008909156956852127</v>
+        <v>0.0523549500013617</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1223723061879926</v>
+        <v>0.2606735776488199</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0152149250590965</v>
+        <v>0.07959344098018123</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1221342441613128</v>
+        <v>0.2603021386583836</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02127172181122469</v>
+        <v>0.02332961878371463</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05959614755832379</v>
+        <v>0.2607145285301862</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01101755008938866</v>
+        <v>0.02469826241981626</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1246878856402069</v>
+        <v>0.2617635847374878</v>
       </c>
       <c r="L225" t="n">
-        <v>0.00825982625172611</v>
+        <v>0.05205422741723909</v>
       </c>
       <c r="M225" t="n">
-        <v>0.123141943333829</v>
+        <v>0.2623130341120201</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01396991689079713</v>
+        <v>0.07937773128239134</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1229023840616985</v>
+        <v>0.2619392590273042</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02065137699530512</v>
+        <v>0.02217957261361826</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05948449628783335</v>
+        <v>0.2623439943334999</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01099714450918401</v>
+        <v>0.02444577491605454</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1254671849254582</v>
+        <v>0.2633996071420971</v>
       </c>
       <c r="L226" t="n">
-        <v>0.007651901277336087</v>
+        <v>0.05154140880054059</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1239115804796654</v>
+        <v>0.2639524905752201</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01390577029789664</v>
+        <v>0.07899283520080158</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1236705239620841</v>
+        <v>0.2635763793962249</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02004201318879902</v>
+        <v>0.02198765744788536</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05937284501734288</v>
+        <v>0.2639734601368136</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01077438818387878</v>
+        <v>0.02444744025416917</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1262464842107095</v>
+        <v>0.2650356295467064</v>
       </c>
       <c r="L227" t="n">
-        <v>0.007188029952881425</v>
+        <v>0.05093067334531062</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1246812176255019</v>
+        <v>0.2655919470384203</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01342734817798169</v>
+        <v>0.07806027416083716</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1244386638624697</v>
+        <v>0.2652134997651456</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01944395396313731</v>
+        <v>0.02276010840953201</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05926119374685244</v>
+        <v>0.2656029259401271</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0106491025932232</v>
+        <v>0.02410996084079771</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1270257834959608</v>
+        <v>0.2666716519513157</v>
       </c>
       <c r="L228" t="n">
-        <v>0.006770860197561596</v>
+        <v>0.05093620024559353</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1254508547713383</v>
+        <v>0.2672314035016204</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01253951342863907</v>
+        <v>0.07750156958792365</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1252068037628553</v>
+        <v>0.2668506201340662</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01885752288975071</v>
+        <v>0.02050316062157428</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05914954247636198</v>
+        <v>0.2672323917434408</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01052110921696757</v>
+        <v>0.02374003908257774</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1278050827812121</v>
+        <v>0.268307674355925</v>
       </c>
       <c r="L229" t="n">
-        <v>0.006203039930575943</v>
+        <v>0.05027216869543377</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1262204919171747</v>
+        <v>0.2688708599648205</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01234712894745565</v>
+        <v>0.07603824290748634</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1259749436632409</v>
+        <v>0.2684877405029868</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01828304354007009</v>
+        <v>0.0212230492070283</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05903789120587153</v>
+        <v>0.2688618575467545</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01049023868257765</v>
+        <v>0.0234443773861468</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1285843820664634</v>
+        <v>0.2699436967605343</v>
       </c>
       <c r="L230" t="n">
-        <v>0.006086819261441556</v>
+        <v>0.04925275788887565</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1269901290630112</v>
+        <v>0.2705103164280206</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01245448895136642</v>
+        <v>0.07529181554495062</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1267430835636265</v>
+        <v>0.2701248608719076</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01772083948552634</v>
+        <v>0.01992600928891013</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05892623993538108</v>
+        <v>0.2704913233500681</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01025741215422867</v>
+        <v>0.02332967815814246</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1293636813517147</v>
+        <v>0.2715797191651436</v>
       </c>
       <c r="L231" t="n">
-        <v>0.00599205834799485</v>
+        <v>0.04889214701996364</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1277597662088476</v>
+        <v>0.2721497728912208</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01210498895813999</v>
+        <v>0.07398380892574191</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1275112234640121</v>
+        <v>0.2717619812408282</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01717123429755014</v>
+        <v>0.02061827599023588</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05881458866489062</v>
+        <v>0.2721207891533818</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01012334344224087</v>
+        <v>0.02280264380520228</v>
       </c>
       <c r="K232" t="n">
-        <v>0.130142980636966</v>
+        <v>0.2732157415697529</v>
       </c>
       <c r="L232" t="n">
-        <v>0.005498976561968544</v>
+        <v>0.04800451528274205</v>
       </c>
       <c r="M232" t="n">
-        <v>0.128529403354684</v>
+        <v>0.2737892293544209</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01175866199645409</v>
+        <v>0.07333574447528562</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1282793633643978</v>
+        <v>0.2733991016097488</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01663455154757246</v>
+        <v>0.02130608443402167</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05870293739440018</v>
+        <v>0.2737502549566955</v>
       </c>
       <c r="J233" t="n">
-        <v>0.009988046568967845</v>
+        <v>0.02256997673396383</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1309222799222173</v>
+        <v>0.2748517639743622</v>
       </c>
       <c r="L233" t="n">
-        <v>0.005008012072642759</v>
+        <v>0.04730404187125536</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1292990405005204</v>
+        <v>0.275428685817621</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01201558743575748</v>
+        <v>0.0723691436190072</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1290475032647834</v>
+        <v>0.2750362219786694</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01611111480702399</v>
+        <v>0.01999566974328353</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05859128612390972</v>
+        <v>0.2753797207600092</v>
       </c>
       <c r="J234" t="n">
-        <v>0.00985153555676322</v>
+        <v>0.02213837935106464</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1317015792074686</v>
+        <v>0.2764877863789715</v>
       </c>
       <c r="L234" t="n">
-        <v>0.004819603049297766</v>
+        <v>0.0470049059795479</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1300686776463569</v>
+        <v>0.2770681422808212</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01187584464549896</v>
+        <v>0.07120552778233191</v>
       </c>
       <c r="O234" t="n">
-        <v>0.129815643165169</v>
+        <v>0.2766733423475902</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01560124764733564</v>
+        <v>0.02069326704103758</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05847963485341928</v>
+        <v>0.2770091865633228</v>
       </c>
       <c r="J235" t="n">
-        <v>0.009813824427980587</v>
+        <v>0.02181455406314231</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1324808784927199</v>
+        <v>0.2781238087835808</v>
       </c>
       <c r="L235" t="n">
-        <v>0.004534187661213718</v>
+        <v>0.04612128680166405</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1308383147921933</v>
+        <v>0.2787075987440213</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01123951299512715</v>
+        <v>0.07026641839068526</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1305837830655546</v>
+        <v>0.2783104627165108</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01510527363993815</v>
+        <v>0.01940511145029994</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05836798358292882</v>
+        <v>0.2786386523666365</v>
       </c>
       <c r="J236" t="n">
-        <v>0.009574927204973563</v>
+        <v>0.02150520327683439</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1332601777779712</v>
+        <v>0.2797598311881901</v>
       </c>
       <c r="L236" t="n">
-        <v>0.004152204077670918</v>
+        <v>0.04556736353164823</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1316079519380297</v>
+        <v>0.2803470552072214</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01180667185409101</v>
+        <v>0.06927333686949261</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1313519229659402</v>
+        <v>0.2799475830854314</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01462351635626238</v>
+        <v>0.01913743809408666</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05825633231243837</v>
+        <v>0.2802681181699502</v>
       </c>
       <c r="J237" t="n">
-        <v>0.009534857910095743</v>
+        <v>0.02121702939877844</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1340394770632225</v>
+        <v>0.2813958535927994</v>
       </c>
       <c r="L237" t="n">
-        <v>0.003874090467949537</v>
+        <v>0.04495731536354483</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1323775890838662</v>
+        <v>0.2819865116704215</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0116774005918393</v>
+        <v>0.06854780464417931</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1321200628663259</v>
+        <v>0.281584703454352</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01415629936773921</v>
+        <v>0.01989052381410783</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05814468104194792</v>
+        <v>0.2818975839732638</v>
       </c>
       <c r="J238" t="n">
-        <v>0.00949363056570076</v>
+        <v>0.02105240105503839</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1348187763484738</v>
+        <v>0.2830318759974087</v>
       </c>
       <c r="L238" t="n">
-        <v>0.003900285001329828</v>
+        <v>0.04439808170956616</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1331472262297026</v>
+        <v>0.2836259681336217</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01155177857782075</v>
+        <v>0.06709840396579375</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1328882027667115</v>
+        <v>0.2832218238232727</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01370394624579935</v>
+        <v>0.01964483434143505</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05803302977145747</v>
+        <v>0.2835270497765774</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0092512591941422</v>
+        <v>0.02089051242597148</v>
       </c>
       <c r="K239" t="n">
-        <v>0.135598075633725</v>
+        <v>0.284667898402018</v>
       </c>
       <c r="L239" t="n">
-        <v>0.003431225847091934</v>
+        <v>0.04344647644401534</v>
       </c>
       <c r="M239" t="n">
-        <v>0.133916863375539</v>
+        <v>0.2852654245968217</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0108298851814842</v>
+        <v>0.06655866150080653</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1336563426670971</v>
+        <v>0.2848589441921934</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01326545931186456</v>
+        <v>0.01939821245810104</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05792137850096702</v>
+        <v>0.2851565155798911</v>
       </c>
       <c r="J240" t="n">
-        <v>0.009107757817773683</v>
+        <v>0.02052762711555579</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1363773749189764</v>
+        <v>0.2863039208066273</v>
       </c>
       <c r="L240" t="n">
-        <v>0.003267351174516125</v>
+        <v>0.04299276883706796</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1346865005213755</v>
+        <v>0.2869048810600219</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01131179977227831</v>
+        <v>0.06571572169356804</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1344244825674827</v>
+        <v>0.286496064561114</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01283323463731044</v>
+        <v>0.01915064339286819</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05780972723047656</v>
+        <v>0.2867859813832048</v>
       </c>
       <c r="J241" t="n">
-        <v>0.008863140458948815</v>
+        <v>0.02036372924554146</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1371566742042276</v>
+        <v>0.2879399432112366</v>
       </c>
       <c r="L241" t="n">
-        <v>0.002909099152882622</v>
+        <v>0.04243692529768753</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1354561376672119</v>
+        <v>0.2885443375232221</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01069760171965201</v>
+        <v>0.06506953355902312</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1351926224678683</v>
+        <v>0.2881331849300347</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01240627454355873</v>
+        <v>0.01790211237449886</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05769807595998612</v>
+        <v>0.2884154471865185</v>
       </c>
       <c r="J242" t="n">
-        <v>0.008917421140021191</v>
+        <v>0.02009880293767861</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1379359734894789</v>
+        <v>0.2895759656158459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.002756907951471599</v>
+        <v>0.04207891223483748</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1362257748130483</v>
+        <v>0.2901837939864221</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01098737039305392</v>
+        <v>0.0642200461121169</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1359607623682539</v>
+        <v>0.2897703052989553</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01198490260204017</v>
+        <v>0.01665260463175539</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05758642468949566</v>
+        <v>0.2900449129898321</v>
       </c>
       <c r="J243" t="n">
-        <v>0.008770613883344443</v>
+        <v>0.01973283231371736</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1387152727747302</v>
+        <v>0.2912119880204552</v>
       </c>
       <c r="L243" t="n">
-        <v>0.002511215739563338</v>
+        <v>0.04141869605748139</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1369954119588848</v>
+        <v>0.2918232504496223</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01048118516193297</v>
+        <v>0.06276720836779448</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1367289022686395</v>
+        <v>0.291407425667876</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01156944238418562</v>
+        <v>0.01640210539340013</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05747477341900521</v>
+        <v>0.2916743787931458</v>
       </c>
       <c r="J244" t="n">
-        <v>0.008422732711272161</v>
+        <v>0.01936580149540786</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1394945720599815</v>
+        <v>0.2928480104250645</v>
       </c>
       <c r="L244" t="n">
-        <v>0.002072460686438071</v>
+        <v>0.04085624317458264</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1377650491047212</v>
+        <v>0.2934627069128224</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01027912539573794</v>
+        <v>0.06241096934100099</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1374970421690251</v>
+        <v>0.2930445460367966</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01116021746142594</v>
+        <v>0.01615059988819544</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05736312214851476</v>
+        <v>0.2933038445964595</v>
       </c>
       <c r="J245" t="n">
-        <v>0.008473791646157962</v>
+        <v>0.01909769460450021</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1402738713452328</v>
+        <v>0.2944840328296738</v>
       </c>
       <c r="L245" t="n">
-        <v>0.00224108096137593</v>
+        <v>0.04039151999510485</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1385346862505576</v>
+        <v>0.2951021633760225</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01078127046391752</v>
+        <v>0.06165127804668141</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1382651820694108</v>
+        <v>0.2946816664057173</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01075755140519188</v>
+        <v>0.01689807334490367</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0572514708780243</v>
+        <v>0.2949333103997731</v>
       </c>
       <c r="J246" t="n">
-        <v>0.008323804710355445</v>
+        <v>0.01882849576274456</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1410531706304841</v>
+        <v>0.2961200552342831</v>
       </c>
       <c r="L246" t="n">
-        <v>0.001517514733657216</v>
+        <v>0.03962449292801143</v>
       </c>
       <c r="M246" t="n">
-        <v>0.139304323396394</v>
+        <v>0.2967416198392227</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0100876997359205</v>
+        <v>0.06048808349978085</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1390333219697964</v>
+        <v>0.2963187867746379</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01036176778691432</v>
+        <v>0.01764451099228719</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05713981960753386</v>
+        <v>0.2965627762030868</v>
       </c>
       <c r="J247" t="n">
-        <v>0.008072785926218212</v>
+        <v>0.01865818909189104</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1418324699157354</v>
+        <v>0.2977560776388924</v>
       </c>
       <c r="L247" t="n">
-        <v>0.001502200172562057</v>
+        <v>0.03895512838226592</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1400739605422305</v>
+        <v>0.2983810763024228</v>
       </c>
       <c r="N247" t="n">
-        <v>0.009898492581195684</v>
+        <v>0.0600213347152444</v>
       </c>
       <c r="O247" t="n">
-        <v>0.139801461870182</v>
+        <v>0.2979559071435586</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009973190178024019</v>
+        <v>0.01538989805910833</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0570281683370434</v>
+        <v>0.2981922420064005</v>
       </c>
       <c r="J248" t="n">
-        <v>0.007820749316099905</v>
+        <v>0.01848675871368975</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1426117692009867</v>
+        <v>0.2993921000435017</v>
       </c>
       <c r="L248" t="n">
-        <v>0.001595575447370767</v>
+        <v>0.03878339276683176</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1408435976880669</v>
+        <v>0.3000205327656229</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0100137283691919</v>
+        <v>0.0587509807080171</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1405696017705676</v>
+        <v>0.2995930275124793</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009592142149951854</v>
+        <v>0.01513421977412948</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05691651706655296</v>
+        <v>0.2998217078097141</v>
       </c>
       <c r="J249" t="n">
-        <v>0.007767708902354092</v>
+        <v>0.01821418874989084</v>
       </c>
       <c r="K249" t="n">
-        <v>0.143391068486238</v>
+        <v>0.301028122448111</v>
       </c>
       <c r="L249" t="n">
-        <v>0.001198078727363466</v>
+        <v>0.03810925249067251</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1416132348339033</v>
+        <v>0.301659989228823</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01043348646935777</v>
+        <v>0.05797697049304407</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1413377416709532</v>
+        <v>0.3012301478813999</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009218947274128593</v>
+        <v>0.01587746136611297</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0568048657960625</v>
+        <v>0.3014511736130278</v>
       </c>
       <c r="J250" t="n">
-        <v>0.007613678707334405</v>
+        <v>0.01794046332224442</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1441703677714893</v>
+        <v>0.3026641448527203</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0009101481818204749</v>
+        <v>0.03753267396275162</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1423828719797398</v>
+        <v>0.3032994456920232</v>
       </c>
       <c r="N250" t="n">
-        <v>0.009857846251142333</v>
+        <v>0.05739925308527044</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1421058815713388</v>
+        <v>0.3028672682503206</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008853929121985085</v>
+        <v>0.01561960806382115</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05669321452557204</v>
+        <v>0.3030806394163414</v>
       </c>
       <c r="J251" t="n">
-        <v>0.007558672753394453</v>
+        <v>0.01766556655250062</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1449496670567406</v>
+        <v>0.3043001672573296</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0005322219800219796</v>
+        <v>0.03705362359203263</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1431525091255762</v>
+        <v>0.3049389021552233</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01028688708399422</v>
+        <v>0.05581777749964123</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1428740214717244</v>
+        <v>0.3045043886192412</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008497411264952168</v>
+        <v>0.01536064509601639</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0565815632550816</v>
+        <v>0.3047101052196551</v>
       </c>
       <c r="J252" t="n">
-        <v>0.007402705062887829</v>
+        <v>0.01718948256240958</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1457289663419919</v>
+        <v>0.3059361896619389</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0008647382912481405</v>
+        <v>0.036472067787479</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1439221462714126</v>
+        <v>0.3065783586184234</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01002068833736219</v>
+        <v>0.0555324927511015</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1436421613721101</v>
+        <v>0.3061415089881619</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008149717274460608</v>
+        <v>0.01410055769146104</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05646991198459114</v>
+        <v>0.3063395710229688</v>
       </c>
       <c r="J253" t="n">
-        <v>0.007245789658168154</v>
+        <v>0.01711219547372141</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1465082656272431</v>
+        <v>0.3075722120665482</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0002081352847792539</v>
+        <v>0.03588797295805418</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1446917834172491</v>
+        <v>0.3082178150816235</v>
       </c>
       <c r="N253" t="n">
-        <v>0.009959329380695048</v>
+        <v>0.05414334785459635</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1444103012724957</v>
+        <v>0.3077786293570825</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007811170721941312</v>
+        <v>0.01583933107891745</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0563582607141007</v>
+        <v>0.3079690368262825</v>
       </c>
       <c r="J254" t="n">
-        <v>0.006887940561589041</v>
+        <v>0.01683368940818626</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1472875649124944</v>
+        <v>0.3092082344711575</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0004628511298954974</v>
+        <v>0.03540130551272178</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1454614205630855</v>
+        <v>0.3098572715448237</v>
       </c>
       <c r="N254" t="n">
-        <v>0.009302889583441609</v>
+        <v>0.05345029182507083</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1451784411728813</v>
+        <v>0.3094157497260032</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007482095178824998</v>
+        <v>0.01357695048714799</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05624660944361024</v>
+        <v>0.3095985026295961</v>
       </c>
       <c r="J255" t="n">
-        <v>0.00682917179550406</v>
+        <v>0.01645394848755424</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1480668641977458</v>
+        <v>0.3108442568757668</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0004293239958770845</v>
+        <v>0.03451203186044519</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1462310577089219</v>
+        <v>0.3114967280080238</v>
       </c>
       <c r="N255" t="n">
-        <v>0.00955144831505067</v>
+        <v>0.05245327367747005</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1459465810732669</v>
+        <v>0.3110528700949238</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007162814216542572</v>
+        <v>0.015313401144915</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05613495817311979</v>
+        <v>0.3112279684329097</v>
       </c>
       <c r="J256" t="n">
-        <v>0.006669497382266867</v>
+        <v>0.01627295683357548</v>
       </c>
       <c r="K256" t="n">
-        <v>0.148846163482997</v>
+        <v>0.3124802792803761</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.000192007947995787</v>
+        <v>0.03392011841018797</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1470006948547584</v>
+        <v>0.3131361844712239</v>
       </c>
       <c r="N256" t="n">
-        <v>0.009905084944970888</v>
+        <v>0.05205224242673911</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1467147209736525</v>
+        <v>0.3126899904638445</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006853651406524781</v>
+        <v>0.01504866828098083</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05602330690262933</v>
+        <v>0.3128574342362234</v>
       </c>
       <c r="J257" t="n">
-        <v>0.006608931344231059</v>
+        <v>0.0157906985680001</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1496254627682483</v>
+        <v>0.3141163016849854</v>
       </c>
       <c r="L257" t="n">
-        <v>-7.065324428290332e-07</v>
+        <v>0.03342553157091357</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1477703320005948</v>
+        <v>0.314775640934424</v>
       </c>
       <c r="N257" t="n">
-        <v>0.009663878842651075</v>
+        <v>0.050447147087823</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1474828608740381</v>
+        <v>0.3143271108327651</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006554930320202476</v>
+        <v>0.01478273712410785</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05591165563213888</v>
+        <v>0.3144869000395371</v>
       </c>
       <c r="J258" t="n">
-        <v>0.006247487703750214</v>
+        <v>0.01560715781257824</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1504047620534996</v>
+        <v>0.3157523240895947</v>
       </c>
       <c r="L258" t="n">
-        <v>3.666411816177773e-06</v>
+        <v>0.03292823775158552</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1485399691464312</v>
+        <v>0.3164150973976241</v>
       </c>
       <c r="N258" t="n">
-        <v>0.009227909377540255</v>
+        <v>0.04953793667566686</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1482510007744237</v>
+        <v>0.3159642312016858</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006266974529006514</v>
+        <v>0.0145155929030584</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05580000436164843</v>
+        <v>0.3161163658428507</v>
       </c>
       <c r="J259" t="n">
-        <v>0.006285180483177978</v>
+        <v>0.01532231868906003</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1511840613387509</v>
+        <v>0.317388346494204</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.0004784509459386521</v>
+        <v>0.03232820336116729</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1493096062922677</v>
+        <v>0.3180545538608243</v>
       </c>
       <c r="N259" t="n">
-        <v>0.009297255919086922</v>
+        <v>0.04922456020521582</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1490191406748094</v>
+        <v>0.3176013515706064</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005990107604367662</v>
+        <v>0.01424722084659486</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05568835309115798</v>
+        <v>0.3177458316461644</v>
       </c>
       <c r="J260" t="n">
-        <v>0.006122023704867939</v>
+        <v>0.01513616531919559</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1519633606240022</v>
+        <v>0.3190243688988133</v>
       </c>
       <c r="L260" t="n">
-        <v>-4.662043642700286e-05</v>
+        <v>0.03162539480862236</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1500792434381041</v>
+        <v>0.3196940103240244</v>
       </c>
       <c r="N260" t="n">
-        <v>0.009871997836739921</v>
+        <v>0.04830696669141482</v>
       </c>
       <c r="O260" t="n">
-        <v>0.149787280575195</v>
+        <v>0.3192384719395271</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005724653117716784</v>
+        <v>0.01197760618347955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05557670182066753</v>
+        <v>0.3193752974494781</v>
       </c>
       <c r="J261" t="n">
-        <v>0.005858031391173704</v>
+        <v>0.01474868182473504</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1527426599092535</v>
+        <v>0.3206603913034226</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.0004004038903687168</v>
+        <v>0.03081977850291429</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1508488805839405</v>
+        <v>0.3213334667872245</v>
       </c>
       <c r="N261" t="n">
-        <v>0.00975221449994812</v>
+        <v>0.04728510514920908</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1505554204755806</v>
+        <v>0.3208755923084478</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005470934640484648</v>
+        <v>0.01170673414247485</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05546505055017708</v>
+        <v>0.3210047632527918</v>
       </c>
       <c r="J262" t="n">
-        <v>0.005693217564448891</v>
+        <v>0.01445985232742851</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1535219591945048</v>
+        <v>0.3222964137080319</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.0002393631384835226</v>
+        <v>0.03051132085300656</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1516185177297769</v>
+        <v>0.3229729232504247</v>
       </c>
       <c r="N262" t="n">
-        <v>0.009237985278160166</v>
+        <v>0.04605892459354366</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1513235603759662</v>
+        <v>0.3225127126773684</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005229275744102133</v>
+        <v>0.0124345899523431</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05535339927968663</v>
+        <v>0.3226342290561054</v>
       </c>
       <c r="J263" t="n">
-        <v>0.005427596247047105</v>
+        <v>0.01416966094902614</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1543012584797561</v>
+        <v>0.3239324361126412</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.0005630600114912565</v>
+        <v>0.0299999882678626</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1523881548756134</v>
+        <v>0.3246123797136248</v>
       </c>
       <c r="N263" t="n">
-        <v>0.009529389540825051</v>
+        <v>0.04512837403936348</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1520917002763518</v>
+        <v>0.324149833046289</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01316115884184667</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05524174800919618</v>
+        <v>0.3242636948594191</v>
       </c>
       <c r="J264" t="n">
-        <v>0.00526118146132195</v>
+        <v>0.01387809181127804</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1550805577650074</v>
+        <v>0.3255684585172505</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.000671056340111692</v>
+        <v>0.02918574715644592</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1531577920214498</v>
+        <v>0.3262518361768249</v>
       </c>
       <c r="N264" t="n">
-        <v>0.009326506657391376</v>
+        <v>0.04449340250161371</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1528598401767375</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05522859011445933</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005736000020239766</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05522885864292335</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006468020763919932</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05522912717138736</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007196018561046132</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05522939569985139</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007919949741529049</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0552296642283154</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008639770635374501</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05522993275677941</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009355437572556524</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05523020128524343</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01006690688308006</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05523046981370745</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01077413489685722</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05523073834217147</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.0114770779438931</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05523100687063548</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01217569235416175</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0552312753990995</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01286993445766735</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05523154392756352</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01355976058432349</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05523181245602754</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01424512706413456</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05523208098449155</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01492599022707458</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05523234951295557</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01560230640314695</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05523261804141959</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01627403192226684</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05523288656988361</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01694112311443784</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05523315509834762</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01760353630963399</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05523342362681163</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01826122783785787</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05523369215527566</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01891415402902626</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05523396068373967</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01956227121314195</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05523422921220369</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02020553572017897</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05523449774066771</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02084390388013906</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05523476626913173</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02147733202294071</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05523503479759575</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02210595479785848</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05523530332605976</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.0227307984505023</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05523557185452378</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02335199763014574</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0552358403829878</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02396950866670883</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05523610891145182</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02458328789019268</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05523637743991583</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02519329163057138</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05523664596837984</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02579947621784526</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05523691449684387</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02640179798193561</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05523718302530788</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02700021325284294</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0552374515537719</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02759467836054127</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05523772008223591</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02818514963503031</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05523798861069994</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02877158340623268</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05523825713916395</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02935393600414821</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05523852566762797</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02993216375875096</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05523879419609198</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03050622300003987</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05523906272455601</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03107607005793901</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05523933125302002</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03164166126244752</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05523959978148404</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03220295294353945</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05523986830994805</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03275990143121293</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05524013683841208</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03331246305539363</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05524040536687609</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03386059414607985</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.0552406738953401</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03440425103324568</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05524094242380412</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03494339004688853</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05524121095226815</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03547796751693548</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05524147948073216</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03600793977338419</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05524174800919618</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03600793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05522859011445933</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03660297048035983</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05534077844187781</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03719282106930101</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.0554529667692963</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03777736894667226</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05556515509671479</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03835649151893807</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05567734342413327</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03893006619256291</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05578953175155175</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.0394979703740113</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05590172007897024</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04006008146974774</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05601390840638873</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04061627688623672</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05612609673380722</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04116643402994277</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05623828506122571</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04171043030733029</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.0563504733886442</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04224814312486382</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05646266171606268</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04277944988900788</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05657485004348117</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04330422800622694</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05668703837089965</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.0438223548829855</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05679922669831814</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04433370792574808</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05691141502573662</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04483816454097915</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05702360335315511</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04533560213514319</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.0571357916805736</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04582589811470474</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05724798000799208</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04630892988612825</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05736016833541056</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04678457485587825</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05747235666282905</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04725271043041922</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05758454499024754</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04771321401621566</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05769673331766603</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04816596301973206</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05780892164508451</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04861083484743289</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05792110997250299</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04904820749605274</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05803329829992149</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04948096191367582</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05814548662733997</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04990947609703664</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05825767495475846</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.05033362745259976</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05836986328217695</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.05075329338682961</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05848205160959543</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05116835130619071</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05859423993701392</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05157867861714757</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.0587064282644324</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05198415272616469</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05881861659185089</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05238465103970652</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05893080491926937</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.0527800509642376</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05904299324668786</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.0531702299062224</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05915518157410635</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05355506527212543</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05926736990152483</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05393443446841116</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05937955822894331</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05430821490154412</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.0594917465563618</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05467628397798879</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05960393488378029</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05503851910420965</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05971612321119877</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05539479768667122</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05982831153861726</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05574499713183802</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05994049986603576</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05608899484617447</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06005268819345424</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.0564266682361451</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06016487652087273</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05675789470821442</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06027706484829121</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05708255166884692</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.0603892531757097</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05740051652450706</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06050144150312818</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05771166668165939</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06061362983054667</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05801587954676837</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06072581815796516</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05234391969784558</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06072581815796516</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05812533221630979</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06240172267598948</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05822649191317106</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06407762719401382</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05831968534644651</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06575353171203815</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05840523922523047</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06742943623006248</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05848348025861733</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.0691053407480868</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05855473515570137</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07078124526611114</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05861933062557696</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07245714978413546</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05867759337733847</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07413305430215979</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.0587298501200802</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07580895882018412</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.0587764275628965</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07748486333820846</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05881765241488171</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07916076785623279</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.0588538513851302</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08083667237425711</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05888535118273629</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08251257689228145</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05891247851679432</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08418848141030578</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05893556009639864</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08586438592833011</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05895492263064359</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08754029044635443</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0589708928286235</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08921619496437877</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05898379739943273</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09089209948240309</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05899396305216562</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09256800400042743</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05900171649591648</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09424390851845177</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05900738443977971</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09591981303647609</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05901129359284961</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09759571755450042</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05901377066422052</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09927162207252475</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05901514236298681</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1009475265905491</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.0590157353982428</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1026234311085734</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05901587647908284</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1042993356265977</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.058993893065134</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1059752401446221</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05886846249724652</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1076511446626464</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05863937703569803</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1093270491806707</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05831513131162074</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1110029536986951</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05790421995614679</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1126788582167194</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05741513760040837</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1143547627347437</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05685637887553767</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.116030667252768</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05623643841266684</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1177065717707924</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05556381084292809</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1193824762888167</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05484699079745359</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.121058380806841</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.0540944729073755</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1227342853248654</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.053314751803826</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1244101898428897</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05251632211793726</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.126086094360914</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05170767848084148</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1277619988789384</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05089731552367086</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1294379033969627</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05009372787755752</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.131113807914987</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04930541017363366</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1327897124330114</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04854085704303146</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1344656169510357</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04780856311688311</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.13614152146906</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04711702302632076</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1378174259870844</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.0464747314024766</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1394933305051087</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.0458901828764828</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.141169235023133</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04537187207947158</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1428451395411574</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04492829364257506</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1445210440591817</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04453778756858617</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.146196948577206</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04415815315941925</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1478728530952303</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04378862294825467</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04342886759713457</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.151224662131279</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04307855776810114</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1529005666493033</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04273736412319647</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1545764711673276</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04240495732446266</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.156252375685352</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04208100803394187</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1579282802033763</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04176518691367619</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1596041847214006</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04145716462570781</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.161280089239425</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.0411566118320788</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1629559937574493</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04086319919483131</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1646318982754736</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04057659737600745</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.166307802793498</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04029647703764937</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1679837073115223</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04002250884179917</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1696596118295466</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03975436345049901</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1713355163475709</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03949171152579099</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1730114208655953</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03923422372971724</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1746873253836196</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.0389815707243199</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.176363229901644</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03873342317164108</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1780391344196683</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.0384894517337229</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1797150389376926</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.0382493270726075</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1813909434557169</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03801271985033702</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1830668479737413</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03777930072895359</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1847427524917656</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03754874037049927</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.18641865700979</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03732071580157707</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1880945615278142</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03709526010336077</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1897704660458386</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03687256964338539</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1914463705638629</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03665275347326249</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1931222750818873</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.0364359206446037</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1947981795999116</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03622218020902064</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1964740841179359</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03601164121812489</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1981499886359602</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03580441272352805</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1998258931539846</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03560060377684174</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2015017976720089</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03540032342967754</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2031777021900332</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03520368073364707</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2048536067080576</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03501078474036193</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2065295112260819</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03482174450143372</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2082054157441062</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03463666906847405</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2098813202621306</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03445566749309451</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2115572247801548</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03427884882690672</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2132331292981792</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03410632212152226</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2149090338162035</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03393819642855275</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2165849383342279</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03377458079960979</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2182608428522522</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.033615584286305</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2199367473702765</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03346131594024994</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2216126518883008</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03331188481305626</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2232885564063252</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03316739995633551</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2249644609243495</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03302797042169935</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2266403654423739</v>
-      </c>
-    </row>
+        <v>0.3257869534152096</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1137.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003924170205324956</v>
+        <v>0.001252363792994399</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001629465803313664</v>
+        <v>0.0004987018822441276</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004056240751103515</v>
+        <v>0.002124181334130254</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001636022404609299</v>
+        <v>0.0008373726451982668</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01217568338314279</v>
+        <v>0.005378562607045723</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002054466670146137</v>
+        <v>0.0008246021378989574</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02340134520891374</v>
+        <v>0.009259132936209058</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002272477570457439</v>
+        <v>0.0008214074900408104</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002472878360436331</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003133828780722877</v>
+        <v>0.0009974037644882553</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004114706520719415</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003568749999999996</v>
+        <v>0.001674745290396534</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01484893988802644</v>
+        <v>0.01018318603609225</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00327891292640025</v>
+        <v>0.001649204275797915</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02682363511248981</v>
+        <v>0.01736097081836213</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003274240737841303</v>
+        <v>0.001642814980081621</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008523461038574029</v>
+        <v>0.003629694476773318</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004888397409940991</v>
+        <v>0.001496105646732383</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.008746652091099545</v>
+        <v>0.005752518230013326</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004908067213827897</v>
+        <v>0.002512117935594801</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01806402518038039</v>
+        <v>0.01376381599833534</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004918369389600375</v>
+        <v>0.002322440583643463</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03103451532931195</v>
+        <v>0.02057704492507928</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004911361106761955</v>
+        <v>0.002083243378053239</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007922322657740462</v>
+        <v>0.004690962916452913</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006517863213254655</v>
+        <v>0.001994807528976511</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01003231478087731</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006544089618437196</v>
+        <v>0.003568749999999996</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02051437342958345</v>
+        <v>0.01696057491914357</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006557825852800501</v>
+        <v>0.003298408551595829</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03402372164282824</v>
+        <v>0.02646104750260864</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006548481475682606</v>
+        <v>0.003285629960163241</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01106675053206444</v>
+        <v>0.005624834453922638</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008147329016568318</v>
+        <v>0.002493509411220638</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01116167911346207</v>
+        <v>0.008002512111889334</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008180112023046493</v>
+        <v>0.004186863225991334</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02288991597600717</v>
+        <v>0.0190282264857129</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008197282316000627</v>
+        <v>0.004123010689494787</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0361575257009798</v>
+        <v>0.03054009313872735</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008185601844603258</v>
+        <v>0.004107037450204051</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009401486342168633</v>
+        <v>0.003133828780722877</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01188253222802945</v>
+        <v>0.008835617707827856</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009816134427655793</v>
+        <v>0.005024235871189602</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02458058416002304</v>
+        <v>0.02128305975173245</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00983673877920075</v>
+        <v>0.004947612827393744</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03820219915170803</v>
+        <v>0.0341985388957719</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009822722213523909</v>
+        <v>0.004928444940244862</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01106931331712112</v>
+        <v>0.007029928610942156</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01140626062319565</v>
+        <v>0.003490913175708893</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01259060692783105</v>
+        <v>0.009656967154170047</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01070624999999999</v>
+        <v>0.005861608516387868</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02646887691987565</v>
+        <v>0.0227909084229023</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01138962765957446</v>
+        <v>0.005772214965292702</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04034714691192021</v>
+        <v>0.03633887915406714</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01092474489795918</v>
+        <v>0.005749852430285672</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01202782778217622</v>
+        <v>0.007627723337834007</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01303572642650931</v>
+        <v>0.003989615057953021</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01379556826212726</v>
+        <v>0.01019363889826019</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01308817923687439</v>
+        <v>0.006698981161586135</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02851059149626256</v>
+        <v>0.02451760620492263</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.013115651705601</v>
+        <v>0.006596817103191659</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04379893413364166</v>
+        <v>0.04034714691192021</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01309696295136521</v>
+        <v>0.006807984895598828</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01295460349516627</v>
+        <v>0.008197621061072934</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01466519222982297</v>
+        <v>0.004488316940197148</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01476051279487289</v>
+        <v>0.01077271138744258</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01472420164148369</v>
+        <v>0.007536353806784401</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03034943894796641</v>
+        <v>0.02646887691987565</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01475510816880113</v>
+        <v>0.00744371981937007</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04717860107981403</v>
+        <v>0.04201585555344178</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01473408332028587</v>
+        <v>0.007392667410367293</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01384403453523406</v>
+        <v>0.008737414352085041</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01629465803313664</v>
+        <v>0.004987018822441276</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01581397055667343</v>
+        <v>0.01152126306906152</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01636022404609299</v>
+        <v>0.008373726451982668</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03217147362612605</v>
+        <v>0.0275085544553865</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01639456463200125</v>
+        <v>0.008246021378989573</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04987926466831982</v>
+        <v>0.04435756503322796</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01637120368920652</v>
+        <v>0.008214074900408102</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01569051498152239</v>
+        <v>0.00924489578229646</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.0179241238364503</v>
+        <v>0.005485720704685404</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01684600538810729</v>
+        <v>0.01196637239046128</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01799624645070229</v>
+        <v>0.009211099097180936</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03465581809320156</v>
+        <v>0.029095494351356</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01803402109520138</v>
+        <v>0.00907062351688853</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05276039623388568</v>
+        <v>0.04668955004223069</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01800832405812717</v>
+        <v>0.009035482390448914</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01548843891317406</v>
+        <v>0.009717857923133288</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01955358963976396</v>
+        <v>0.005984422586929531</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01764668112975296</v>
+        <v>0.01259060692783105</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01963226885531159</v>
+        <v>0.00998505077193268</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03648159491165326</v>
+        <v>0.03058429961204023</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0196734775584015</v>
+        <v>0.009895225654787489</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05538146711123826</v>
+        <v>0.04840444198207522</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01964544442704782</v>
+        <v>0.009856889880489723</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01823220040933188</v>
+        <v>0.01015409334602166</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02118305544307763</v>
+        <v>0.006483124469173658</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01840606162218887</v>
+        <v>0.01323524428456803</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02126829125992089</v>
+        <v>0.01088584438757747</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03842792664394137</v>
+        <v>0.03186944100684436</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02131293402160163</v>
+        <v>0.01071982779268645</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05810194863510387</v>
+        <v>0.05069487225438674</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02128256479596847</v>
+        <v>0.01067829737053053</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01891619354913861</v>
+        <v>0.01055139462238768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02281252124639129</v>
+        <v>0.006981826351417786</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0193142107059935</v>
+        <v>0.01385756038568878</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02290431366453018</v>
+        <v>0.01172321703277574</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03967393585252607</v>
+        <v>0.03354538930517342</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02295239048480175</v>
+        <v>0.0115444299305854</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06088131214020948</v>
+        <v>0.05275347226079058</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02291968516488912</v>
+        <v>0.01149970486057134</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01953481241173709</v>
+        <v>0.01090755432365747</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02444198704970495</v>
+        <v>0.007480528233661914</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01996119222174531</v>
+        <v>0.0144980452429137</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02454033606913948</v>
+        <v>0.012560589677974</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04149874509986759</v>
+        <v>0.03520661527643265</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02459184694800188</v>
+        <v>0.01236903206848436</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06357902896128148</v>
+        <v>0.05497287340291196</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02455680553380978</v>
+        <v>0.01232111235061216</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01908245107627009</v>
+        <v>0.01122036502125714</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02607145285301862</v>
+        <v>0.007979230115906042</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02063707001002274</v>
+        <v>0.0149527441629425</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02617635847374878</v>
+        <v>0.01339796232317227</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04288147694842617</v>
+        <v>0.03654758969002711</v>
       </c>
       <c r="M81" t="n">
-        <v>0.026231303411202</v>
+        <v>0.01319363420638332</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0662545704330465</v>
+        <v>0.05794570708237623</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02619392590273042</v>
+        <v>0.01314251984065297</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02055350362188044</v>
+        <v>0.01148761928661281</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02770091865633228</v>
+        <v>0.008477931998150169</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02143190791140427</v>
+        <v>0.01581770245247485</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02781238087835808</v>
+        <v>0.01423533496837054</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0445012539606621</v>
+        <v>0.03796278331536193</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02787075987440213</v>
+        <v>0.01401823634428227</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06826740789023122</v>
+        <v>0.05926460470080847</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02783104627165107</v>
+        <v>0.01396392733069378</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01894236412771089</v>
+        <v>0.0117071096911506</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02933038445964595</v>
+        <v>0.008976633880394297</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02173576976646834</v>
+        <v>0.01638896541821039</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02944840328296738</v>
+        <v>0.0150727076135688</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04573719869903548</v>
+        <v>0.03954666692184233</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02951021633760225</v>
+        <v>0.01484283848218123</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07007701266756211</v>
+        <v>0.06192219765983414</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02946816664057173</v>
+        <v>0.01478533482073459</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02124791287977984</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03095985026295961</v>
+        <v>0.009401486342168633</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0222387194157934</v>
+        <v>0.01716257836684883</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03108442568757668</v>
+        <v>0.01591008025876707</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0461684337260066</v>
+        <v>0.04089371127887326</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03114967280080238</v>
+        <v>0.01566744062008019</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07104285609976585</v>
+        <v>0.06391111736107835</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03110528700949238</v>
+        <v>0.0156067423107754</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02152731243266902</v>
+        <v>0.01202736530651331</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03258931606627327</v>
+        <v>0.009974037644882552</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02265062605785011</v>
+        <v>0.01763458660508978</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03272044809218597</v>
+        <v>0.01674745290396534</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04687985378779846</v>
+        <v>0.04209838715586001</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03278912926400251</v>
+        <v>0.01649204275797915</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07166933116515822</v>
+        <v>0.06572399520616645</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03274240737841303</v>
+        <v>0.0164281498008162</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01979808205044543</v>
+        <v>0.01217553352561287</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03421878186958693</v>
+        <v>0.01047273952712668</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02274616622896103</v>
+        <v>0.01830103543963292</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03435647049679528</v>
+        <v>0.0175848255491636</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04780912783757821</v>
+        <v>0.04325516532220761</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03442858572720263</v>
+        <v>0.0173166448958781</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07332037761713195</v>
+        <v>0.06725346259672366</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03437952774733368</v>
+        <v>0.01724955729085702</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02105839261050262</v>
+        <v>0.01232168433503381</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0358482476729006</v>
+        <v>0.01097144140937081</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02313191117247881</v>
+        <v>0.01915797017717795</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03599249290140458</v>
+        <v>0.01842219819436187</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04811927399553476</v>
+        <v>0.04445851654732122</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03606804219040276</v>
+        <v>0.01814124703377706</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07394074638720988</v>
+        <v>0.06909215093437521</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03601664811625434</v>
+        <v>0.01807096478089783</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02130641499023414</v>
+        <v>0.01246582108750442</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03747771347621427</v>
+        <v>0.01147014329161494</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02350589468445417</v>
+        <v>0.0197014361244245</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03762851530601388</v>
+        <v>0.01925957083956014</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0492061326830518</v>
+        <v>0.04540291160060597</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03770749865360288</v>
+        <v>0.01896584917167602</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07472412399518236</v>
+        <v>0.07123269162074641</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03765376848517499</v>
+        <v>0.01889237227093864</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02054032006703357</v>
+        <v>0.01260794713575298</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03910717927952793</v>
+        <v>0.01196884517385906</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02376615056093787</v>
+        <v>0.02042747858807227</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03926453771062317</v>
+        <v>0.02009694348475841</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04976554432151306</v>
+        <v>0.046682821251467</v>
       </c>
       <c r="M89" t="n">
-        <v>0.039346955116803</v>
+        <v>0.01979045130957498</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07606419696083944</v>
+        <v>0.07276771605746246</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03929088885409564</v>
+        <v>0.01971377976097945</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02075827871829447</v>
+        <v>0.0127480658325078</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04073664508284159</v>
+        <v>0.01246754705610319</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02381071259798062</v>
+        <v>0.02093214287482088</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04090056011523247</v>
+        <v>0.02093431612995667</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05029334933230228</v>
+        <v>0.04749271626930937</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04098641158000313</v>
+        <v>0.02061505344747393</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07605465180397114</v>
+        <v>0.07378985564614859</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04092800922301629</v>
+        <v>0.02053518725102026</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02295846182141043</v>
+        <v>0.01288618053049716</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04236611088615525</v>
+        <v>0.01296624893834732</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02423761459163325</v>
+        <v>0.02141147429137004</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04253658251984177</v>
+        <v>0.02177168877515494</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05028538813680314</v>
+        <v>0.04872706742353833</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04262586804320325</v>
+        <v>0.02143965558537289</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07748917504436775</v>
+        <v>0.07499174178843027</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04256512959193694</v>
+        <v>0.02135659474106107</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02313904025377496</v>
+        <v>0.01302229458244936</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04399557668946892</v>
+        <v>0.01346495082059145</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02444489033794646</v>
+        <v>0.02196151814441939</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04417260492445107</v>
+        <v>0.02260906142035321</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05093750115639931</v>
+        <v>0.04968034548355885</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04426532450640338</v>
+        <v>0.02226425772327185</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07796145320181919</v>
+        <v>0.07596600588593255</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04420224996085759</v>
+        <v>0.02217800223110188</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02129818489278165</v>
+        <v>0.01315641134109267</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04562504249278258</v>
+        <v>0.01396365270283557</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02443057363297099</v>
+        <v>0.02267831974066863</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04580862732906037</v>
+        <v>0.02344643406555147</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0512455288124746</v>
+        <v>0.05004702121877616</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04590478096960351</v>
+        <v>0.02308885986117081</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07816517279611573</v>
+        <v>0.07750527934028073</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04583937032977824</v>
+        <v>0.02299940972114269</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02243406661582407</v>
+        <v>0.01328853415915541</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04725450829609625</v>
+        <v>0.0144623545850797</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02479269827275765</v>
+        <v>0.02305792438681736</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04744464973366967</v>
+        <v>0.02428380671074974</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05190531152641276</v>
+        <v>0.05062156539859541</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04754423743280363</v>
+        <v>0.02391346199906976</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07859402034704738</v>
+        <v>0.07790219355310002</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0474764906986989</v>
+        <v>0.0238208172111835</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0225448563002958</v>
+        <v>0.01341866638936584</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04888397409940991</v>
+        <v>0.01496105646732383</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02492929805335714</v>
+        <v>0.02339637738956531</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04908067213827896</v>
+        <v>0.02512117935594801</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05191268971959737</v>
+        <v>0.05169844879242164</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04918369389600376</v>
+        <v>0.02473806413696872</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07904168237440434</v>
+        <v>0.07854937992601574</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04911361106761955</v>
+        <v>0.02464222470122431</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02262872482359039</v>
+        <v>0.01354681138445227</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05051343990272358</v>
+        <v>0.01545975834956795</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02483840677082022</v>
+        <v>0.02398972405561213</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05071669454288827</v>
+        <v>0.02595855200114627</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05206350381341224</v>
+        <v>0.05217214216965999</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05082315035920388</v>
+        <v>0.02556266627486768</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08000184539797661</v>
+        <v>0.07913946986065312</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05075073143654021</v>
+        <v>0.02546363219126512</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02370952772806101</v>
+        <v>0.01367297249714299</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05214290570603724</v>
+        <v>0.01595846023181208</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02491805822119765</v>
+        <v>0.02413400969165745</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05235271694749757</v>
+        <v>0.02679592464634454</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05225359422924106</v>
+        <v>0.05243711629971567</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05246260682240401</v>
+        <v>0.02638726841276664</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08016819593755442</v>
+        <v>0.08036509475863757</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05238785180546085</v>
+        <v>0.02628503968130593</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02170838189622237</v>
+        <v>0.01379715308016629</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0537723715093509</v>
+        <v>0.01645716211405621</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02518121385566212</v>
+        <v>0.02452527960440098</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05398873935210687</v>
+        <v>0.0276332972915428</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05293775383975127</v>
+        <v>0.05258784195199373</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05410206328560413</v>
+        <v>0.02721187055066559</v>
       </c>
       <c r="N98" t="n">
         <v>0.08069429382384041</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0540249721743815</v>
+        <v>0.02710644717134674</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02370523225059465</v>
+        <v>0.01391935648625044</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05540183731266456</v>
+        <v>0.01695586399630034</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0251811701822179</v>
+        <v>0.02485957910054239</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05562476175671616</v>
+        <v>0.02847066993674107</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05263496571247545</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05574151974880426</v>
+        <v>0.02803647268856455</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08049420564388687</v>
+        <v>0.08039429382384039</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05566209254330215</v>
+        <v>0.02792785466138755</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02368609136358744</v>
+        <v>0.01403958606812376</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05703130311597823</v>
+        <v>0.01745456587854446</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02507152343433858</v>
+        <v>0.02503295348678132</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05726078416132546</v>
+        <v>0.02930804258193934</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05262830556395018</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05738097621200438</v>
+        <v>0.02886107482646351</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0798692377357561</v>
+        <v>0.07999429382384043</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05729921291222281</v>
+        <v>0.02874926215142836</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02265250171353959</v>
+        <v>0.01415784517851453</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05866076891929189</v>
+        <v>0.01795326776078859</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02494572624669805</v>
+        <v>0.02494144806981742</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05889680656593475</v>
+        <v>0.03014541522713761</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05288539006917495</v>
+        <v>0.05283775383975128</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05902043267520451</v>
+        <v>0.02968567696436246</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08039203467949568</v>
+        <v>0.07989429382384039</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05893633328114346</v>
+        <v>0.02957066964146917</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02360542730081366</v>
+        <v>0.01427413717015103</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06029023472260555</v>
+        <v>0.01845196964303272</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02510481486547973</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06053282897054407</v>
+        <v>0.03098278787233587</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05250981842477384</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06065988913840463</v>
+        <v>0.03051027910226142</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08006596875529426</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06057345365006411</v>
+        <v>0.03039207713150998</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02154583212577225</v>
+        <v>0.01438846539576157</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06191970052591923</v>
+        <v>0.01895067152527685</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02504982553686705</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06216885137515336</v>
+        <v>0.03182016051753414</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05250378284863316</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06229934560160476</v>
+        <v>0.03133488124016038</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07949436734929327</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06221057401898476</v>
+        <v>0.0312134846215508</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02147468018877788</v>
+        <v>0.01450083320807442</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06354916632923288</v>
+        <v>0.01944937340752098</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02498179450704345</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06380487377976266</v>
+        <v>0.03265753316273241</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05226947555863937</v>
+        <v>0.05243775383975127</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06393880206480489</v>
+        <v>0.03215948337805934</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07958055784763401</v>
+        <v>0.08039429382384039</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06384769438790543</v>
+        <v>0.03203489211159161</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02139293549019311</v>
+        <v>0.01461124395981789</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06517863213254654</v>
+        <v>0.0199480752897651</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02490175802219237</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06544089618437195</v>
+        <v>0.03349490580793067</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05200908877267876</v>
+        <v>0.05283775383975128</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06557825852800502</v>
+        <v>0.03298408551595829</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07912786763645774</v>
+        <v>0.0802942938238404</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06548481475682606</v>
+        <v>0.03285629960163241</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02330156203038054</v>
+        <v>0.01471970100372026</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06680809793586021</v>
+        <v>0.02044677717200923</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02481075232849721</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06707691858898125</v>
+        <v>0.03433227845312894</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05212481470863781</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06721771499120513</v>
+        <v>0.03380868765385725</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07913962410190567</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06712193512574671</v>
+        <v>0.03367770709167323</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02220152380970271</v>
+        <v>0.01482620769250983</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06843756373917387</v>
+        <v>0.02094547905425336</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02470981367214142</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06871294099359056</v>
+        <v>0.0351696510983272</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05181884558440283</v>
+        <v>0.05243775383975127</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06885717145440526</v>
+        <v>0.03463328979175621</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07841915463011911</v>
+        <v>0.08009429382384042</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06875905549466736</v>
+        <v>0.03449911458171404</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02309378482852219</v>
+        <v>0.01493076737891487</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07006702954248754</v>
+        <v>0.02144418093649749</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02439997829930844</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07034896339819985</v>
+        <v>0.03600702374352547</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05159337361786018</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07049662791760539</v>
+        <v>0.03545789192965516</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07806978660723951</v>
+        <v>0.08049429382384043</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07039617586358801</v>
+        <v>0.03532052207175485</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02297930908720154</v>
+        <v>0.0150333834156637</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07169649534580121</v>
+        <v>0.02194288281874162</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02438228245618169</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07198498580280915</v>
+        <v>0.03684439638872374</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0510505910268963</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07213608438080552</v>
+        <v>0.03628249406755412</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07849484741940799</v>
+        <v>0.08039429382384039</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07203329623250868</v>
+        <v>0.03614192956179565</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02085906058610332</v>
+        <v>0.01513405915548458</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07332596114911487</v>
+        <v>0.02244158470098574</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0242577623889446</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07362100820741845</v>
+        <v>0.03768176903392201</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05119269002939755</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07377554084400563</v>
+        <v>0.03710709620545308</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07789766445276586</v>
+        <v>0.07989429382384039</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07367041660142933</v>
+        <v>0.03696333705183646</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0207340033255901</v>
+        <v>0.01523279795110582</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07495542695242853</v>
+        <v>0.02294028658322987</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02402745434378062</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07525703061202775</v>
+        <v>0.03851914167912027</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05062186284325026</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07541499730720576</v>
+        <v>0.03793169834335203</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07738156509345434</v>
+        <v>0.07989429382384039</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07530753697034998</v>
+        <v>0.03778474454187728</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02260510130602442</v>
+        <v>0.0153296031552557</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07658489275574219</v>
+        <v>0.023438988465474</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02409239456687318</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07689305301663706</v>
+        <v>0.03935651432431855</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05064030168634087</v>
+        <v>0.05283775383975128</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07705445377040589</v>
+        <v>0.03875630048125099</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07684987672761484</v>
+        <v>0.0802942938238404</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07694465733927063</v>
+        <v>0.03860615203191808</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02247331852776889</v>
+        <v>0.01542447812066253</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07821435855905585</v>
+        <v>0.02393769034771812</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02395361930440568</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07852907542124635</v>
+        <v>0.04019388696951681</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0500501987765557</v>
+        <v>0.05283775383975128</v>
       </c>
       <c r="M113" t="n">
-        <v>0.078693910233606</v>
+        <v>0.03958090261914995</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07670592674138871</v>
+        <v>0.08009429382384042</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07858177770819127</v>
+        <v>0.03942755952195889</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02133961899118601</v>
+        <v>0.01551742620005458</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07984382436236952</v>
+        <v>0.02443639222996225</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02371216480256158</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08016509782585564</v>
+        <v>0.04103125961471508</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0500537463317812</v>
+        <v>0.05243775383975127</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08033336669680613</v>
+        <v>0.04040550475704891</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07565304252091704</v>
+        <v>0.07999429382384043</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08021889807711194</v>
+        <v>0.0402489670119997</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02220496669663842</v>
+        <v>0.01560845074616014</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08147329016568318</v>
+        <v>0.02493509411220638</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0236690673075243</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08180112023046494</v>
+        <v>0.04186863225991334</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04985313656990364</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08197282316000626</v>
+        <v>0.04123010689494787</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07509455145234112</v>
+        <v>0.08049429382384043</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08185601844603259</v>
+        <v>0.04107037450204052</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02207032564448862</v>
+        <v>0.01569755511170753</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08310275596899686</v>
+        <v>0.02543379599445051</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02342536306547728</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08343714263507424</v>
+        <v>0.04270600490511161</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0495505617088095</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08361227962320639</v>
+        <v>0.04205470903284683</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07533378092180248</v>
+        <v>0.08039429382384039</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08349313881495324</v>
+        <v>0.04189178199208133</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02093665983509918</v>
+        <v>0.015784742649425</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0847322217723105</v>
+        <v>0.02593249787669463</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02328208832260395</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08507316503968354</v>
+        <v>0.04354337755030988</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04894821396638516</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0852517360864065</v>
+        <v>0.04287931117074578</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07457405831544217</v>
+        <v>0.08049429382384043</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08513025918387389</v>
+        <v>0.04271318948212214</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02180274721867984</v>
+        <v>0.01587001671204086</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08636168757562417</v>
+        <v>0.02643119975893876</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02324027932508774</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08670918744429285</v>
+        <v>0.04438075019550815</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04854828556051685</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08689119254960664</v>
+        <v>0.04370391330864474</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07411871101940148</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08676737955279454</v>
+        <v>0.04353459697216295</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0196519968724654</v>
+        <v>0.01595338065228341</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08799115337893784</v>
+        <v>0.02692990164118289</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02299191122884996</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08834520984890214</v>
+        <v>0.04521812284070641</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04824520652484549</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08853064901280676</v>
+        <v>0.0445285154465437</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07324833791143454</v>
+        <v>0.08019429382384041</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08840449992171519</v>
+        <v>0.04435600446220376</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01948331731073012</v>
+        <v>0.01603483782288093</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0896206191822515</v>
+        <v>0.02742860352342702</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02282275049828292</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08998123225351144</v>
+        <v>0.04605549548590468</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04830160723739502</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09017010547600689</v>
+        <v>0.04535311758444266</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07351199722585994</v>
+        <v>0.07999429382384043</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09004162029063584</v>
+        <v>0.04517741195224457</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02129984936188724</v>
+        <v>0.01611439157656171</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09125008498556517</v>
+        <v>0.02792730540567115</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02273580837413955</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09161725465812073</v>
+        <v>0.04689286813110295</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04741831516169223</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09180956193920702</v>
+        <v>0.04617771972234162</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07241755179941006</v>
+        <v>0.08019429382384041</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09167874065955649</v>
+        <v>0.04599881944228538</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01910473385434999</v>
+        <v>0.01619204526605404</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09287955078887883</v>
+        <v>0.02842600728791527</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02243446107035335</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09325327706273004</v>
+        <v>0.04773024077630121</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04740247280565832</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09344901840240714</v>
+        <v>0.04700232186024057</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07207584265387307</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09331586102847714</v>
+        <v>0.04682022693232619</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01990111161653159</v>
+        <v>0.01626780224408621</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09450901659219249</v>
+        <v>0.0289247091701594</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02212208480085787</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09488929946733933</v>
+        <v>0.04856761342149948</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04666122267721423</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09508847486560726</v>
+        <v>0.04782692399813953</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07129771081103697</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0949529813973978</v>
+        <v>0.047641634422367</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01969212347684529</v>
+        <v>0.01634166586338653</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09613848239550615</v>
+        <v>0.02942341105240353</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02200205577958665</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09652532187194864</v>
+        <v>0.04940498606669774</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04630170728428118</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09672793132880739</v>
+        <v>0.04865152613603849</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07009399729269011</v>
+        <v>0.08039429382384039</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09659010176631845</v>
+        <v>0.04846304191240781</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02048091026370427</v>
+        <v>0.01641363947668326</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09776794819881982</v>
+        <v>0.02992211293464766</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02187775022047327</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09816134427655793</v>
+        <v>0.05024235871189602</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04613106913478016</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09836738779200752</v>
+        <v>0.04947612827393744</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06947554312062065</v>
+        <v>0.07999429382384043</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0982272221352391</v>
+        <v>0.04928444940244862</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01827061280552182</v>
+        <v>0.0164837264367047</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09939741400213348</v>
+        <v>0.03042081481689178</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02145254433745121</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09979736668116723</v>
+        <v>0.05107973135709428</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04545645073663224</v>
+        <v>0.05283775383975128</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1000068442552076</v>
+        <v>0.0503007304118364</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06915318931661663</v>
+        <v>0.08009429382384042</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09986434250415975</v>
+        <v>0.05010585689248943</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02006437193071114</v>
+        <v>0.01655193009617917</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1010268798054472</v>
+        <v>0.03091951669913591</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02122981434445403</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1014333890857765</v>
+        <v>0.05191710400229255</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04508499459775855</v>
+        <v>0.05243775383975127</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1016463007184078</v>
+        <v>0.05112533254973536</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06803777690246621</v>
+        <v>0.08009429382384042</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1015014628730804</v>
+        <v>0.05092726438253024</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01886532846768547</v>
+        <v>0.01661825380783492</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1026563456087608</v>
+        <v>0.03141821858138004</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02121293645541532</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1030694114903858</v>
+        <v>0.05275447664749081</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04442384322608009</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1032857571816079</v>
+        <v>0.05194993468763431</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06744014689995759</v>
+        <v>0.08019429382384041</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1031385832420011</v>
+        <v>0.05174867187257105</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01867497882306056</v>
+        <v>0.01668270092440025</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1042858114120745</v>
+        <v>0.03191692046362417</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02090528688426856</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1047054338949951</v>
+        <v>0.05359184929268908</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04408013912951797</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M129" t="n">
-        <v>0.104925213644808</v>
+        <v>0.05277453682553327</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06677114033087889</v>
+        <v>0.07989429382384039</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1047757036109217</v>
+        <v>0.05257007936261186</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01847211541447032</v>
+        <v>0.01674527479860347</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1059152772153881</v>
+        <v>0.03241562234586829</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02059942199438161</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1063414562996044</v>
+        <v>0.05442922193788734</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04345188722634866</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1065646701080081</v>
+        <v>0.05359913896343223</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06651456016657525</v>
+        <v>0.08019429382384041</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1064128239798423</v>
+        <v>0.05339148685265267</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01725281941402117</v>
+        <v>0.01680597878317287</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1075447430187018</v>
+        <v>0.03291432422811242</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02037439521141364</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1079774787042137</v>
+        <v>0.05526659458308561</v>
       </c>
       <c r="L131" t="n">
-        <v>0.042988719941285</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1082041265712083</v>
+        <v>0.05442374110133118</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06539813718157433</v>
+        <v>0.08049429382384043</v>
       </c>
       <c r="O131" t="n">
-        <v>0.108049944348763</v>
+        <v>0.05421289434269348</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01802158691850671</v>
+        <v>0.0168648162308367</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1091742088220155</v>
+        <v>0.03341302611035655</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02013401269070296</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K132" t="n">
-        <v>0.109613501108823</v>
+        <v>0.05610396722828388</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04289028665506264</v>
+        <v>0.05283775383975128</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1098435830344084</v>
+        <v>0.05524834323923015</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06463105572639966</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1096870647176836</v>
+        <v>0.0550343018327343</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01678291402472065</v>
+        <v>0.0169217904943233</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1108036746253291</v>
+        <v>0.03391172799260068</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01988310748348453</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1112495235134323</v>
+        <v>0.05694133987348214</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04206681186986291</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1114830394976085</v>
+        <v>0.0560729453771291</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06412883472691683</v>
+        <v>0.07999429382384043</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1113241850866043</v>
+        <v>0.0558557093227751</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01854129682945659</v>
+        <v>0.01697690492636094</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1124331404286428</v>
+        <v>0.0344104298748448</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01962651264099323</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1128855459180416</v>
+        <v>0.05777871251868041</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04162852008786724</v>
+        <v>0.05283775383975128</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1131224959608086</v>
+        <v>0.05689754751502806</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06350699310899166</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O134" t="n">
-        <v>0.112961305455525</v>
+        <v>0.05667711681281592</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01730123142950819</v>
+        <v>0.01703016287967792</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1140626062319565</v>
+        <v>0.03490913175708893</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01946906121446407</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1145215683226509</v>
+        <v>0.05861608516387867</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04118563581125709</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1147619524240088</v>
+        <v>0.05772214965292701</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06208104979848966</v>
+        <v>0.08049429382384043</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1145984258244456</v>
+        <v>0.05749852430285672</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01806721392166909</v>
+        <v>0.0170815677070025</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1156920720352701</v>
+        <v>0.03540783363933306</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0193155862551319</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1161575907272602</v>
+        <v>0.05945345780907694</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04064838354221384</v>
+        <v>0.05293775383975127</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1164014088872089</v>
+        <v>0.05854675179082598</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06176652372127645</v>
+        <v>0.08019429382384041</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1162355461933663</v>
+        <v>0.05831993179289754</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01584374040273296</v>
+        <v>0.01713112276106301</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1173215378385838</v>
+        <v>0.03590653552157719</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0189709208142317</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1177936131318695</v>
+        <v>0.06029083045427521</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04002698778291897</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M137" t="n">
-        <v>0.118040865350409</v>
+        <v>0.05937135392872493</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06037893380321763</v>
+        <v>0.08039429382384039</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1178726665622869</v>
+        <v>0.05914133928293835</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01663530696949344</v>
+        <v>0.01717883139458772</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1189510036418975</v>
+        <v>0.03640523740382131</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01863989794299838</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1194296355364788</v>
+        <v>0.06112820309947348</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03953167303555391</v>
+        <v>0.05263775383975128</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1196803218136091</v>
+        <v>0.06019595606662389</v>
       </c>
       <c r="N138" t="n">
-        <v>0.05993379897017909</v>
+        <v>0.07989429382384039</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1195097869312076</v>
+        <v>0.05996274677297915</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01544640971874419</v>
+        <v>0.01722469696030492</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1205804694452111</v>
+        <v>0.03690393928606545</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01852735069266685</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1210656579410881</v>
+        <v>0.06196557574467175</v>
       </c>
       <c r="L139" t="n">
-        <v>0.03907266380229998</v>
+        <v>0.05243775383975127</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1213197782768093</v>
+        <v>0.06102055820452285</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05914663814802618</v>
+        <v>0.08069429382384041</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1211469073001282</v>
+        <v>0.06078415426301997</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01628154474727882</v>
+        <v>0.0172687228109429</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1222099352485248</v>
+        <v>0.03740264116830957</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01823811211447211</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1227016803456974</v>
+        <v>0.06280294838987002</v>
       </c>
       <c r="L140" t="n">
-        <v>0.03846018458533873</v>
+        <v>0.05243775383975127</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1229592347400094</v>
+        <v>0.0618451603424218</v>
       </c>
       <c r="N140" t="n">
-        <v>0.05883297026262457</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1227840276690489</v>
+        <v>0.06160556175306078</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01614520815189101</v>
+        <v>0.01731091229922996</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1238394010518385</v>
+        <v>0.0379013430505537</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01827701525964902</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1243377027503067</v>
+        <v>0.06364032103506828</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03830445988685158</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1245986912032095</v>
+        <v>0.06266976248032076</v>
       </c>
       <c r="N141" t="n">
-        <v>0.05820831423984008</v>
+        <v>0.08049429382384043</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1244211480379695</v>
+        <v>0.06242696924310159</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01504189602937442</v>
+        <v>0.01735126877789439</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1254688668551521</v>
+        <v>0.03840004493279783</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01814889317943254</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K142" t="n">
-        <v>0.125973725154916</v>
+        <v>0.06447769368026655</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03821571420901987</v>
+        <v>0.05253775383975126</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1262381476664096</v>
+        <v>0.06349436461821972</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05808818900553814</v>
+        <v>0.08059429382384042</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1260582684068902</v>
+        <v>0.06324837673314239</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01497610447652267</v>
+        <v>0.01738979559966448</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1270983326584658</v>
+        <v>0.03889874681504196</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01785857892505757</v>
+        <v>0.02498121385566211</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1276097475595253</v>
+        <v>0.06531506632546481</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03780417205402506</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1278776041296098</v>
+        <v>0.06431896675611867</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05768811348558456</v>
+        <v>0.08019429382384041</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1276953887758109</v>
+        <v>0.06406978422318321</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01695232959012941</v>
+        <v>0.01742649611726851</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1287277984617794</v>
+        <v>0.03939744869728608</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01791090554775908</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1292457699641346</v>
+        <v>0.06615243897066309</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03748005792404857</v>
+        <v>0.05273775383975127</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1295170605928099</v>
+        <v>0.06514356889401764</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05742360660584478</v>
+        <v>0.08009429382384042</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1293325091447315</v>
+        <v>0.06489119171322402</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01595547919399119</v>
+        <v>0.01746137368343478</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1303572642650931</v>
+        <v>0.03989615057953021</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01800544194049285</v>
+        <v>0.02508121385566212</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1308817923687439</v>
+        <v>0.06698981161586134</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03755094109963422</v>
+        <v>0.05293772891171472</v>
       </c>
       <c r="M145" t="n">
-        <v>0.13115651705601</v>
+        <v>0.06596817103191659</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05709838799173605</v>
+        <v>0.08029344160805135</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1309696295136521</v>
+        <v>0.06571259920326482</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01596512247531886</v>
+        <v>0.01749443165089158</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1319867300684068</v>
+        <v>0.04039485246177434</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01791247460465528</v>
+        <v>0.02518121385566212</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1325178147733532</v>
+        <v>0.06782718426105962</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03736210291717734</v>
+        <v>0.05283570028549342</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1327959735192101</v>
+        <v>0.06679277316981555</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0573191690517576</v>
+        <v>0.0800881311761194</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1326067498825728</v>
+        <v>0.06653400669330564</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01498091431881612</v>
+        <v>0.0175256733723672</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1336161958717204</v>
+        <v>0.04089355434401847</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01782625808166775</v>
+        <v>0.0249811381808413</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1341538371779625</v>
+        <v>0.06866455690625788</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03788770211370979</v>
+        <v>0.05293050521528644</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1344354299824103</v>
+        <v>0.0676173753077145</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05736170267554713</v>
+        <v>0.0798781149127743</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1342438702514934</v>
+        <v>0.06735541418334645</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01600252435292839</v>
+        <v>0.01755510220058993</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1352456616750341</v>
+        <v>0.04139225622626259</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01794643724068608</v>
+        <v>0.02497985429992353</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1357898595825718</v>
+        <v>0.06950192955145615</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03742698739653577</v>
+        <v>0.052422264502377</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1360748864456104</v>
+        <v>0.06844197744561346</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0570248485380852</v>
+        <v>0.08066357482643188</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1358809906204141</v>
+        <v>0.06817682167338726</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01602962220610103</v>
+        <v>0.01758272148828805</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1368751274783477</v>
+        <v>0.04189095810850672</v>
       </c>
       <c r="J149" t="n">
-        <v>0.017872656950866</v>
+        <v>0.02517702926389193</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1374258819871811</v>
+        <v>0.07033930219665441</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0375792074729594</v>
+        <v>0.05271109894804821</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1377143429088105</v>
+        <v>0.06926657958351241</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05770746631435225</v>
+        <v>0.08044469292550765</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1375181109893347</v>
+        <v>0.06899822916342807</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01506187750677945</v>
+        <v>0.01760853458818988</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1385045932816614</v>
+        <v>0.04238965999075085</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01800456208136336</v>
+        <v>0.02507272324629702</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1390619043917904</v>
+        <v>0.07117667484185268</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0377436110502849</v>
+        <v>0.05269712935358328</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1393537993720106</v>
+        <v>0.07009118172141138</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0578084156793286</v>
+        <v>0.07982165121841733</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1391552313582554</v>
+        <v>0.06981963665346888</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01509895988340904</v>
+        <v>0.01763254485302369</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1401340590849751</v>
+        <v>0.04288836187299497</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01814179750133391</v>
+        <v>0.02516699642068936</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1406979267963997</v>
+        <v>0.07201404748705094</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03761944683581639</v>
+        <v>0.05268047652026531</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1409932558352108</v>
+        <v>0.07091578385931033</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05732655630799482</v>
+        <v>0.07979463171357659</v>
       </c>
       <c r="O151" t="n">
-        <v>0.140792351727176</v>
+        <v>0.07064104414350969</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01614053896443515</v>
+        <v>0.01765475563551776</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1417635248882887</v>
+        <v>0.0433870637552391</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01808400807993341</v>
+        <v>0.02505990896061948</v>
       </c>
       <c r="K152" t="n">
-        <v>0.142333949201009</v>
+        <v>0.07285142013224921</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03780596353685806</v>
+        <v>0.05286126124937751</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1426327122984109</v>
+        <v>0.07174038599720929</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05806074787533133</v>
+        <v>0.07986381641940121</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1424294720960967</v>
+        <v>0.0714624516335505</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01518628437830321</v>
+        <v>0.0176751702884004</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1433929906916024</v>
+        <v>0.04388576563748323</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01823083868631768</v>
+        <v>0.02515152103963796</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1439699716056183</v>
+        <v>0.07368879277744748</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03800240986071413</v>
+        <v>0.05263960434220302</v>
       </c>
       <c r="M153" t="n">
-        <v>0.144272168761611</v>
+        <v>0.07256498813510824</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05800985005631848</v>
+        <v>0.08012938734430669</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1440665924650174</v>
+        <v>0.07228385912359131</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01723586575345859</v>
+        <v>0.0176937921643999</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1450224564949161</v>
+        <v>0.04438446751972736</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01818193418964249</v>
+        <v>0.02494189283129532</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1456059940102276</v>
+        <v>0.07452616542264576</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03830803451468867</v>
+        <v>0.052615626600025</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1459116252248112</v>
+        <v>0.0733895902730072</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05857272252593682</v>
+        <v>0.08039152649670883</v>
       </c>
       <c r="O154" t="n">
-        <v>0.145703712833938</v>
+        <v>0.07310526661363212</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01728895271834668</v>
+        <v>0.01771062461624453</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1466519222982297</v>
+        <v>0.04488316940197148</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01813693945906363</v>
+        <v>0.02513108450914213</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1472420164148369</v>
+        <v>0.07536353806784402</v>
       </c>
       <c r="L155" t="n">
-        <v>0.03852208620608591</v>
+        <v>0.05228944882412662</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1475510816880113</v>
+        <v>0.07421419241090615</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05864822495916677</v>
+        <v>0.08015041588502331</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1473408332028587</v>
+        <v>0.07392667410367293</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01734521490141286</v>
+        <v>0.01772567099666261</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1482813881015434</v>
+        <v>0.04538187128421561</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01839549936373688</v>
+        <v>0.0251191562467289</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1488780388194462</v>
+        <v>0.07620091071304229</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03864381364221003</v>
+        <v>0.052261191815791</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1491905381512114</v>
+        <v>0.07503879454880512</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05873521703098877</v>
+        <v>0.08020623751766581</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1489779535717793</v>
+        <v>0.07474808159371374</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01742744154499328</v>
+        <v>0.0177389346583824</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1499108539048571</v>
+        <v>0.04588057316645974</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01846419280066244</v>
+        <v>0.02500616821760621</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1505140612240555</v>
+        <v>0.07703828335824055</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03867655104444115</v>
+        <v>0.05233097637630132</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1508299946144115</v>
+        <v>0.07586339668670407</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05914861968725488</v>
+        <v>0.07955917340305185</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1506150739407</v>
+        <v>0.07556948908375456</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01656237878690599</v>
+        <v>0.01775041895413223</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1515403197081707</v>
+        <v>0.04637927504870386</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01858517516461755</v>
+        <v>0.02509218059532459</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1521500836286648</v>
+        <v>0.07787565600343882</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03850450529683699</v>
+        <v>0.05229892330694078</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1524694510776116</v>
+        <v>0.07668799882460303</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05952365992928516</v>
+        <v>0.07970940554959732</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1522521943096206</v>
+        <v>0.07639089657379536</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01774031419763481</v>
+        <v>0.01776012723664035</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1531697855114844</v>
+        <v>0.04687797693094799</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01865674710714041</v>
+        <v>0.02507725355343457</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1537861060332741</v>
+        <v>0.07871302864863709</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03904429513469079</v>
+        <v>0.0526651534089925</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1541089075408118</v>
+        <v>0.07751260096250198</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05966348155137902</v>
+        <v>0.07965711596571767</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1538893146785413</v>
+        <v>0.07721230406383617</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01795127465732614</v>
+        <v>0.01776806285863507</v>
       </c>
       <c r="G160" t="n">
-        <v>0.154799251314798</v>
+        <v>0.04737667881319212</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01876818808518298</v>
+        <v>0.02496144726548674</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1554221284378834</v>
+        <v>0.07955040129383535</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03927324084482492</v>
+        <v>0.05252978748373965</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1557483640040119</v>
+        <v>0.07833720310040095</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06023366089346843</v>
+        <v>0.07970248665982882</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1555264350474619</v>
+        <v>0.07803371155387699</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01618528704612638</v>
+        <v>0.01777422917284469</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1564287171181117</v>
+        <v>0.04787538069543625</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01920877755569719</v>
+        <v>0.02494482190503161</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1570581508424927</v>
+        <v>0.08038777393903362</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04026866271406182</v>
+        <v>0.05219294633246535</v>
       </c>
       <c r="M161" t="n">
-        <v>0.157387820467212</v>
+        <v>0.07916180523829991</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06119977429548557</v>
+        <v>0.07964569964034629</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1571635554163825</v>
+        <v>0.07885511904391779</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01643237824418198</v>
+        <v>0.01777862953199748</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1580581829214254</v>
+        <v>0.04837408257768037</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01926779497563506</v>
+        <v>0.02502743764561977</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158694173247102</v>
+        <v>0.08122514658423188</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04060788102922391</v>
+        <v>0.05225475075645283</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1590272769304122</v>
+        <v>0.07998640737619886</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06162739809736262</v>
+        <v>0.07938693691568577</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1588006757853032</v>
+        <v>0.07967652653395861</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01668257513163934</v>
+        <v>0.01778126728882174</v>
       </c>
       <c r="G163" t="n">
-        <v>0.159687648724739</v>
+        <v>0.0488727844599245</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01973451980194853</v>
+        <v>0.0250093546608017</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1603301956517113</v>
+        <v>0.08206251922943016</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04136821607713365</v>
+        <v>0.05221532155698522</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1606667333936123</v>
+        <v>0.08081100951409782</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06298210863903153</v>
+        <v>0.07982638049426305</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1604377961542239</v>
+        <v>0.08049793402399941</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01792590458864488</v>
+        <v>0.01778214579604576</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1613171145280527</v>
+        <v>0.04937148634216863</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01999823149158954</v>
+        <v>0.02479063312412801</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1619662180563206</v>
+        <v>0.08289989187462841</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04182698814461341</v>
+        <v>0.05247477953534566</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1623061898568124</v>
+        <v>0.08163561165199677</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06382948226042462</v>
+        <v>0.07956421238449357</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1620749165231445</v>
+        <v>0.08131934151404023</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01915239349534502</v>
+        <v>0.01778214579604575</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1629465803313664</v>
+        <v>0.04937148634216863</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02004820950151007</v>
+        <v>0.02497133320914921</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1636022404609299</v>
+        <v>0.08373726451982669</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04236151751848566</v>
+        <v>0.0519332454928173</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1639456463200125</v>
+        <v>0.08246021378989574</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06453509530147372</v>
+        <v>0.07920061459479327</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1637120368920652</v>
+        <v>0.08214074900408104</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01835206873188618</v>
+        <v>0.01734175065305258</v>
       </c>
       <c r="G166" t="n">
-        <v>0.16457604613468</v>
+        <v>0.04937121781370462</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02047373328866209</v>
+        <v>0.02495151508941587</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1652382628655392</v>
+        <v>0.08457463716502495</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04284912448557276</v>
+        <v>0.05229084023068339</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1655851027832126</v>
+        <v>0.08328481592779469</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0648645241021113</v>
+        <v>0.07953576913357757</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1653491572609858</v>
+        <v>0.08296215649412184</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0185283638377218</v>
+        <v>0.01690627685443023</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1662055119379937</v>
+        <v>0.0493709492852406</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02056815225485205</v>
+        <v>0.02473123893847851</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1668742852701485</v>
+        <v>0.08541200981022322</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04306978013202359</v>
+        <v>0.05224768455022696</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1672245592464128</v>
+        <v>0.08410941806569365</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06569293040638458</v>
+        <v>0.07976985800926245</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1669862776299065</v>
+        <v>0.08378356398416266</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01769992645449624</v>
+        <v>0.01647635094779971</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1678349777413073</v>
+        <v>0.04937068075677659</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02065287739873307</v>
+        <v>0.02491056492988769</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1685103076747578</v>
+        <v>0.08624938245542148</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04326094473090603</v>
+        <v>0.05180389925273127</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1688640157096129</v>
+        <v>0.0849340202035926</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06618625932505184</v>
+        <v>0.07920306323026333</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1686233979988271</v>
+        <v>0.08460497147420347</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0188674095390518</v>
+        <v>0.0160525994807444</v>
       </c>
       <c r="G169" t="n">
-        <v>0.169464443544621</v>
+        <v>0.04937041222831257</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02103310400604784</v>
+        <v>0.02488955323719397</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1701463300793671</v>
+        <v>0.08708675510061975</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04404246776608683</v>
+        <v>0.05215960513947943</v>
       </c>
       <c r="M169" t="n">
-        <v>0.170503472172813</v>
+        <v>0.08575862234149156</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06676508282311033</v>
+        <v>0.07883556680499598</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1702605183677478</v>
+        <v>0.08542637896424428</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01903112946876721</v>
+        <v>0.01563564900088481</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1710939093479347</v>
+        <v>0.04937014369984855</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02110917216468834</v>
+        <v>0.02476826403394786</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1717823524839764</v>
+        <v>0.08792412774581802</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0443150687063289</v>
+        <v>0.05181492301175461</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1721429286360132</v>
+        <v>0.08658322447939053</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06713049292266521</v>
+        <v>0.07896755074187611</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1718976387366684</v>
+        <v>0.08624778645428509</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02019140262102112</v>
+        <v>0.01522612605580487</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1727233751512483</v>
+        <v>0.04936987517138453</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02138142196254661</v>
+        <v>0.02484675749369994</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1734183748885857</v>
+        <v>0.0887615003910163</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04447946702039535</v>
+        <v>0.05176997367083996</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1737823850992133</v>
+        <v>0.08740782661728948</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06798358164582169</v>
+        <v>0.0788991970493193</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1735347591055891</v>
+        <v>0.0870691939443259</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01934854537319224</v>
+        <v>0.01482465719312447</v>
       </c>
       <c r="G172" t="n">
-        <v>0.174352840954562</v>
+        <v>0.04936960664292051</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02155019348751462</v>
+        <v>0.02462509379000075</v>
       </c>
       <c r="K172" t="n">
-        <v>0.175054397293195</v>
+        <v>0.08959887303621455</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04493638217704923</v>
+        <v>0.05192383220379343</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1754218415624134</v>
+        <v>0.08823242875518844</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0683254410146848</v>
+        <v>0.07892526435562297</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1751718794745097</v>
+        <v>0.08789060143436671</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01950287410265925</v>
+        <v>0.01443186896042823</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1759823067578757</v>
+        <v>0.04936933811445649</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02151582682748435</v>
+        <v>0.02480333293001666</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1766904196978043</v>
+        <v>0.09043624568141283</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04518653364505346</v>
+        <v>0.05176805688674854</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1770612980256135</v>
+        <v>0.0890570308930874</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06875716305135948</v>
+        <v>0.07883471009431459</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1768089998434304</v>
+        <v>0.08871200892440752</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02065470518680085</v>
+        <v>0.0140483879053353</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1776117725611893</v>
+        <v>0.04936906958599248</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02177866207034784</v>
+        <v>0.02457859697360427</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1783264421024136</v>
+        <v>0.09127361832661109</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0459306408931712</v>
+        <v>0.05200179391771986</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1787007544888136</v>
+        <v>0.08988163303098635</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06957983977795129</v>
+        <v>0.07842896292871554</v>
       </c>
       <c r="O174" t="n">
-        <v>0.178446120212351</v>
+        <v>0.08953341641444833</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01880435500299572</v>
+        <v>0.01367484057543109</v>
       </c>
       <c r="G175" t="n">
-        <v>0.179241238364503</v>
+        <v>0.04936880105752846</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02183903930399707</v>
+        <v>0.024548473841273</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1799624645070229</v>
+        <v>0.09211099097180936</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04586942339016534</v>
+        <v>0.05142629984601571</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1803402109520138</v>
+        <v>0.09070623516888532</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06989456321656506</v>
+        <v>0.07890991607173592</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1800832405812717</v>
+        <v>0.09035482390448914</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02095213992862253</v>
+        <v>0.01331185351833392</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1808707041678167</v>
+        <v>0.04936853252906444</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02209729861632405</v>
+        <v>0.02451358944552429</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1815984869116322</v>
+        <v>0.09294836361700762</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04640360060479898</v>
+        <v>0.05174283122094445</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1819796674152139</v>
+        <v>0.09153083730678427</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07030242538930592</v>
+        <v>0.07887946273628565</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1817203609501923</v>
+        <v>0.09117623139452995</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02109837634106002</v>
+        <v>0.01296005328163005</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1825001699711303</v>
+        <v>0.04936826400060042</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02215378009522076</v>
+        <v>0.02457456969885956</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1832345093162415</v>
+        <v>0.09378573626220589</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04673389200583511</v>
+        <v>0.05155264459181436</v>
       </c>
       <c r="M177" t="n">
-        <v>0.183619123878414</v>
+        <v>0.09235543944468323</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07080451831827905</v>
+        <v>0.07803949613527478</v>
       </c>
       <c r="O177" t="n">
-        <v>0.183357481319113</v>
+        <v>0.09199763888457076</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01924528628647018</v>
+        <v>0.01262006641293689</v>
       </c>
       <c r="G178" t="n">
-        <v>0.184129635774444</v>
+        <v>0.04936799547213641</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02230909455190007</v>
+        <v>0.02443204051378027</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1848705317208508</v>
+        <v>0.09462310890740415</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04726101889437326</v>
+        <v>0.05135699650793388</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1852585803416141</v>
+        <v>0.09318004158258218</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07160236032424583</v>
+        <v>0.07829190948161358</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1849946016880336</v>
+        <v>0.09281904637461158</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01940077369431117</v>
+        <v>0.01229251945984172</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1857591015777577</v>
+        <v>0.04936772694367239</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02247181267211668</v>
+        <v>0.02458662780278786</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1865065541254601</v>
+        <v>0.09546048155260242</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04729983392441434</v>
+        <v>0.05115714351861123</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1868980368048143</v>
+        <v>0.09400464372048115</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07212227586872477</v>
+        <v>0.07773859598821187</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1866317220569543</v>
+        <v>0.09364045386465238</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01956101306626191</v>
+        <v>0.01197803896996086</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1873885673810713</v>
+        <v>0.04936745841520838</v>
       </c>
       <c r="J180" t="n">
-        <v>0.022741608530209</v>
+        <v>0.02453895747838379</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1881425765300694</v>
+        <v>0.09629785419780068</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04795579129162186</v>
+        <v>0.0511543421731549</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1885374932680144</v>
+        <v>0.0948292458583801</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07246597217612827</v>
+        <v>0.07798144886797992</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1882688424258749</v>
+        <v>0.09446186135469319</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02172056959696025</v>
+        <v>0.0116772514908827</v>
       </c>
       <c r="G181" t="n">
-        <v>0.189018033184385</v>
+        <v>0.04936718988674436</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02281264001601513</v>
+        <v>0.02448965545306947</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1897785989346787</v>
+        <v>0.09713522684299895</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04781653179159456</v>
+        <v>0.05094984902087316</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1901769497312145</v>
+        <v>0.09565384799627906</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07301469023272039</v>
+        <v>0.07762236133382777</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1899059627947956</v>
+        <v>0.095283268844734</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02187400848104404</v>
+        <v>0.0113907835702224</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1906474989876986</v>
+        <v>0.04936692135828034</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02307906501937317</v>
+        <v>0.02443934763934635</v>
       </c>
       <c r="K182" t="n">
-        <v>0.191414621339288</v>
+        <v>0.09797259948819721</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04846969621993114</v>
+        <v>0.05074492061107433</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1918164061944146</v>
+        <v>0.09647845013417801</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07404967102476551</v>
+        <v>0.07786322659866529</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1915430831637162</v>
+        <v>0.09610467633477481</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02201589491315115</v>
+        <v>0.01111926175557532</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1922769647910123</v>
+        <v>0.04936665282981632</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02313504143012121</v>
+        <v>0.02428865994971589</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1930506437438973</v>
+        <v>0.09880997213339549</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04890292537223023</v>
+        <v>0.05074081349306678</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1934558626576148</v>
+        <v>0.09730305227207697</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07445215553852785</v>
+        <v>0.07710593787540271</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1931802035326369</v>
+        <v>0.09692608382481563</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02014079408791944</v>
+        <v>0.01086331259453812</v>
       </c>
       <c r="G184" t="n">
-        <v>0.193906430594326</v>
+        <v>0.0493663843013523</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02337472713809735</v>
+        <v>0.02413821829667952</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1946866661485066</v>
+        <v>0.09964734477859376</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0488038600440906</v>
+        <v>0.05103878421615887</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1950953191208149</v>
+        <v>0.09812765440997592</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07480338476027176</v>
+        <v>0.07695238837695006</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1948173239015575</v>
+        <v>0.09774749131485642</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0212432711999868</v>
+        <v>0.01062356263472401</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1955358963976396</v>
+        <v>0.04936611577288829</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0233922800331397</v>
+        <v>0.0241886485927387</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1963226885531159</v>
+        <v>0.100484717423792</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04906014103111089</v>
+        <v>0.05074008932965887</v>
       </c>
       <c r="M185" t="n">
-        <v>0.196734775584015</v>
+        <v>0.09895225654787489</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0748845996762616</v>
+        <v>0.07740447131621742</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1964544442704782</v>
+        <v>0.09856889880489725</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02231789150293502</v>
+        <v>0.01040063842372463</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1971653622009533</v>
+        <v>0.04936584724442427</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02348185800508633</v>
+        <v>0.02424057675039483</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1979587109577252</v>
+        <v>0.1013220900689903</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04965940912888978</v>
+        <v>0.05044598538287523</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1983742320472151</v>
+        <v>0.09977685868577384</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07557704127276144</v>
+        <v>0.07736407990611482</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1980915646393988</v>
+        <v>0.09939030629493806</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0213762103745211</v>
+        <v>0.01019516650915175</v>
       </c>
       <c r="G187" t="n">
-        <v>0.198794828004267</v>
+        <v>0.04936557871596026</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0235460869140359</v>
+        <v>0.02399462868214941</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1995947333623345</v>
+        <v>0.1021594627141886</v>
       </c>
       <c r="L187" t="n">
-        <v>0.049599645876925</v>
+        <v>0.05065772892511627</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2000136885104153</v>
+        <v>0.1006014608236728</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07528510507566888</v>
+        <v>0.07693310735955228</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1997286850083195</v>
+        <v>0.1002117137849789</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0214332703045586</v>
+        <v>0.01000777343859852</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2004242938075806</v>
+        <v>0.04936531018749624</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02380734798863997</v>
+        <v>0.02415143030050383</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2012307557669437</v>
+        <v>0.1029968353593868</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04982916039055138</v>
+        <v>0.05027657650569026</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2016531449736154</v>
+        <v>0.1014260629615718</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07558177308738334</v>
+        <v>0.07651344688943995</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2013658053772401</v>
+        <v>0.1010331212750197</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0204890512922284</v>
+        <v>0.00983908575967516</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2020537596108943</v>
+        <v>0.04936504165903222</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02376724633021469</v>
+        <v>0.02401160751795958</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2028667781715531</v>
+        <v>0.1038342080045851</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05005580527031683</v>
+        <v>0.05040378467390561</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2032926014368155</v>
+        <v>0.1022506650994707</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07567407181727498</v>
+        <v>0.07630699170868782</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2030029257461608</v>
+        <v>0.1018545287650605</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02254353333671132</v>
+        <v>0.009687356755542817</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2036832254142079</v>
+        <v>0.0493647731305682</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02382576043900417</v>
+        <v>0.02397578624701807</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2045028005761624</v>
+        <v>0.1046715806497834</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05017953503267664</v>
+        <v>0.05054060997907064</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2049320579000156</v>
+        <v>0.1030752672373697</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07596193222963488</v>
+        <v>0.07651563503020592</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2046400461150815</v>
+        <v>0.1026759362551013</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02159669643718821</v>
+        <v>0.009538903960355456</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2053126912175216</v>
+        <v>0.04936450460210419</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02378286881525246</v>
+        <v>0.02394459240018075</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2061388229807717</v>
+        <v>0.1055089532949816</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05000030419408624</v>
+        <v>0.04998830897049372</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2065715143632158</v>
+        <v>0.1038998693752686</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07684528528875395</v>
+        <v>0.07634126899126115</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2062771664840021</v>
+        <v>0.1034973437451421</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02064852059283992</v>
+        <v>0.00939180323309486</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2069421570208353</v>
+        <v>0.04936423607364017</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02383854995920363</v>
+        <v>0.02401865188994909</v>
       </c>
       <c r="K192" t="n">
-        <v>0.207774845385381</v>
+        <v>0.1063463259401799</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05031806727100108</v>
+        <v>0.05034510617664639</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2082109708264159</v>
+        <v>0.1047244715131676</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07682406195892322</v>
+        <v>0.07647685773892532</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2079142868529228</v>
+        <v>0.1043187512351829</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02169898580284731</v>
+        <v>0.009246495983094676</v>
       </c>
       <c r="G193" t="n">
-        <v>0.208571622824149</v>
+        <v>0.04936396754517616</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02389278237110173</v>
+        <v>0.02379751974083728</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2094108677899903</v>
+        <v>0.1071836985853782</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05033277877987649</v>
+        <v>0.05030363805910765</v>
       </c>
       <c r="M193" t="n">
-        <v>0.209850427289616</v>
+        <v>0.1055490736510665</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07679819320443382</v>
+        <v>0.07651444008992103</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2095514072218434</v>
+        <v>0.1051401587252237</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02074807206639119</v>
+        <v>0.00910342361967581</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2102010886274626</v>
+        <v>0.04936369901671214</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02414554455119086</v>
+        <v>0.02387743069718681</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2110468901945996</v>
+        <v>0.1080210712305764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05024439323716784</v>
+        <v>0.05006345896176501</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2114898837528162</v>
+        <v>0.1063736757889655</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07666760998957678</v>
+        <v>0.07665395537833736</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2111885275907641</v>
+        <v>0.1059615662152645</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02279575938265244</v>
+        <v>0.00896302755217173</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2118305544307763</v>
+        <v>0.04936343048824812</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02409681499971508</v>
+        <v>0.02375797560884139</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2126829125992089</v>
+        <v>0.1088584438757747</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05045286515933056</v>
+        <v>0.04982452861988759</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2131293402160163</v>
+        <v>0.1071982779268645</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07703224327864311</v>
+        <v>0.0766953429382633</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2128256479596847</v>
+        <v>0.1067829737053053</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02184202775081188</v>
+        <v>0.008825749189903587</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2134600202340899</v>
+        <v>0.0493631619597841</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02404657221691843</v>
+        <v>0.02393913441912811</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2143189350038182</v>
+        <v>0.109695816520973</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05075814906282008</v>
+        <v>0.05028680676874445</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2147687966792164</v>
+        <v>0.1080228800647634</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0770920240359238</v>
+        <v>0.07603854210378791</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2144627683286054</v>
+        <v>0.1076043811953462</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02288685717005039</v>
+        <v>0.008692029942204589</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2150894860374036</v>
+        <v>0.04936289343132008</v>
       </c>
       <c r="J197" t="n">
-        <v>0.024194794703045</v>
+        <v>0.02392088707137405</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2159549574084275</v>
+        <v>0.1105331891661712</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05096019946409178</v>
+        <v>0.04985025314360458</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2164082531424165</v>
+        <v>0.1088474822026624</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07704688322570996</v>
+        <v>0.07608349220900013</v>
       </c>
       <c r="O197" t="n">
-        <v>0.216099888697526</v>
+        <v>0.108425788685387</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02093022763954876</v>
+        <v>0.008562311218398934</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2167189518407173</v>
+        <v>0.04936262490285607</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02424146095833886</v>
+        <v>0.02380321350890628</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2175909798130368</v>
+        <v>0.1113705618113695</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05065897087960097</v>
+        <v>0.04971482747973704</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2180477096056166</v>
+        <v>0.1096720843405613</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07739675181229266</v>
+        <v>0.07593013258798903</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2177370090664467</v>
+        <v>0.1092471961754278</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0209721191584879</v>
+        <v>0.008437034427811192</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2183484176440309</v>
+        <v>0.04936235637439205</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02438654948304406</v>
+        <v>0.0238860936750519</v>
       </c>
       <c r="K199" t="n">
-        <v>0.219227002217646</v>
+        <v>0.1122079344565678</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05105441782580314</v>
+        <v>0.0500804895124109</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2196871660688168</v>
+        <v>0.1104966864784603</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07744156075996284</v>
+        <v>0.07567840257484365</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2193741294353673</v>
+        <v>0.1100686036654686</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02101251172604859</v>
+        <v>0.00831664097977404</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2199778834473446</v>
+        <v>0.04936208784592803</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02423003877740468</v>
+        <v>0.02376950751313801</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2208630246222553</v>
+        <v>0.113045307101766</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05104649481915363</v>
+        <v>0.05004719897689511</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2213266225320169</v>
+        <v>0.1113212886163592</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07828124103301159</v>
+        <v>0.07572824150365315</v>
       </c>
       <c r="O200" t="n">
-        <v>0.221011249804288</v>
+        <v>0.1108900111555094</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02305138534141174</v>
+        <v>0.00820157228360948</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2216073492506582</v>
+        <v>0.04936181931746401</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02447190734166478</v>
+        <v>0.02385343496649171</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2224990470268647</v>
+        <v>0.1138826797469643</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05103515637610784</v>
+        <v>0.05001491560845878</v>
       </c>
       <c r="M201" t="n">
-        <v>0.222966078995217</v>
+        <v>0.1121458907542582</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07821572359572998</v>
+        <v>0.07597958870850624</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2226483701732086</v>
+        <v>0.1117114186455502</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02108872000375815</v>
+        <v>0.00809226974864978</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2232368150539719</v>
+        <v>0.049361550789</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02441213367606843</v>
+        <v>0.02373785597844004</v>
       </c>
       <c r="K202" t="n">
-        <v>0.224135069431474</v>
+        <v>0.1147200523921626</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05122035701312119</v>
+        <v>0.0495835991423709</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2246055354584172</v>
+        <v>0.1129704928921571</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07774493941240901</v>
+        <v>0.07633238352349225</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2242854905421293</v>
+        <v>0.112532826135591</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02112449571226871</v>
+        <v>0.007989174784217422</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2248662808572856</v>
+        <v>0.04936128226053598</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02435069628085969</v>
+        <v>0.02372275049231012</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2257710918360832</v>
+        <v>0.1155574250373608</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05160205124664902</v>
+        <v>0.04955320931390053</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2262449919216173</v>
+        <v>0.1137950950300561</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07836881944733964</v>
+        <v>0.07598656528269998</v>
       </c>
       <c r="O203" t="n">
-        <v>0.22592261091105</v>
+        <v>0.1133542336256318</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02315869246612422</v>
+        <v>0.007892728799644123</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2264957466605992</v>
+        <v>0.04936101373207197</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02448757365628264</v>
+        <v>0.02380809845142903</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2274071142406925</v>
+        <v>0.1163947976825591</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05158019359314678</v>
+        <v>0.04992370585831676</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2278844483848174</v>
+        <v>0.1146196971679551</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07808729466481312</v>
+        <v>0.07594207332021857</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2275597312799706</v>
+        <v>0.1141756411156726</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02119129026450552</v>
+        <v>0.007803373204252936</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2281252124639129</v>
+        <v>0.04936074520360795</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02442274430258136</v>
+        <v>0.02359387979912385</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2290431366453018</v>
+        <v>0.1172321703277573</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05175473856906979</v>
+        <v>0.04959504851088853</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2295239048480175</v>
+        <v>0.115444299305854</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07810029602912028</v>
+        <v>0.07609884697013708</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2291968516488913</v>
+        <v>0.1149970486057134</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02222226910659351</v>
+        <v>0.007721549407374996</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2297546782672266</v>
+        <v>0.04936047667514393</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02465618671999989</v>
+        <v>0.0237800744787217</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2306791590499111</v>
+        <v>0.1180695429729556</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05172564069087351</v>
+        <v>0.04956719700688497</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2311633613112176</v>
+        <v>0.116268901443753</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07840775450455229</v>
+        <v>0.07545682556654448</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2308339720178119</v>
+        <v>0.1158184560957543</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02125160899156897</v>
+        <v>0.007647698818333992</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2313841440705402</v>
+        <v>0.04936020814667991</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0246878794087823</v>
+        <v>0.02376666243354962</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2323151814545204</v>
+        <v>0.1189069156181539</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05189285447501332</v>
+        <v>0.0498401110815751</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2328028177744178</v>
+        <v>0.117093503581652</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07840960105540012</v>
+        <v>0.07551594844352971</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2324710923867326</v>
+        <v>0.1166398635857951</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0222792899186128</v>
+        <v>0.007582262846460373</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2330136098738539</v>
+        <v>0.04935993961821589</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02461780086917267</v>
+        <v>0.02365362360693472</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2339512038591297</v>
+        <v>0.1197442882633521</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05185633443794463</v>
+        <v>0.04991375047022792</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2344422742376179</v>
+        <v>0.1179181057195509</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07910576664595481</v>
+        <v>0.07547615493518195</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2341082127556532</v>
+        <v>0.1174612710758359</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02230529188690583</v>
+        <v>0.00752568290107853</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2346430756771676</v>
+        <v>0.04935967108975187</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02454592960141505</v>
+        <v>0.02364093794220408</v>
       </c>
       <c r="K209" t="n">
-        <v>0.235587226263739</v>
+        <v>0.1205816609085504</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05191603509612275</v>
+        <v>0.04978807490811246</v>
       </c>
       <c r="M209" t="n">
-        <v>0.236081730700818</v>
+        <v>0.1187427078574499</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07859618224050741</v>
+        <v>0.07533738437559012</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2357453331245739</v>
+        <v>0.1182826785658767</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0233295948956289</v>
+        <v>0.007478400391518168</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2362725414804812</v>
+        <v>0.04935940256128786</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02477224410575354</v>
+        <v>0.02372858538268482</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2372232486683483</v>
+        <v>0.1214190335537487</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05177191096600312</v>
+        <v>0.04986304413049775</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2377211871640181</v>
+        <v>0.1195673099953488</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07918077880334901</v>
+        <v>0.07549957609884322</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2373824534934945</v>
+        <v>0.1191040860559175</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02135217894396284</v>
+        <v>0.007440856727104497</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2379020072837949</v>
+        <v>0.04935913403282384</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02469672288243216</v>
+        <v>0.02351654587170399</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2388592710729576</v>
+        <v>0.122256406198947</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05172391656404116</v>
+        <v>0.04963861787265292</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2393606436272183</v>
+        <v>0.1203919121332478</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07865948729877043</v>
+        <v>0.07566266943903038</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2390195738624152</v>
+        <v>0.1199254935459583</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02137302403108854</v>
+        <v>0.007413493317166363</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2395314730871085</v>
+        <v>0.04935886550435983</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02481934443169501</v>
+        <v>0.02370479935258868</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2404952934775669</v>
+        <v>0.1230937788441452</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05167200640669223</v>
+        <v>0.04951475586984694</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2410001000904184</v>
+        <v>0.1212165142711467</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07893223869106308</v>
+        <v>0.07582660373024058</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2406566942313358</v>
+        <v>0.1207469010359991</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02139211015618679</v>
+        <v>0.007396751571029835</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2411609388904222</v>
+        <v>0.04935859697589581</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02484008725378617</v>
+        <v>0.02359332576866598</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2421313158821763</v>
+        <v>0.1239311514893435</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05181613501041174</v>
+        <v>0.04929141785734886</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2426395565536185</v>
+        <v>0.1220411164090457</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07909896394451771</v>
+        <v>0.07519131830656284</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2422938146002565</v>
+        <v>0.1215683085260399</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02240941731843848</v>
+        <v>0.007391072898022877</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2427904046937359</v>
+        <v>0.04935832844743179</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02475892984894966</v>
+        <v>0.023482105063263</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2437673382867855</v>
+        <v>0.1247685241345418</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05185625689165513</v>
+        <v>0.04926856357042772</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2442790130168186</v>
+        <v>0.1228657185469446</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07905959402342544</v>
+        <v>0.07545675250208611</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2439309349691771</v>
+        <v>0.1223897160160808</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02142492551702442</v>
+        <v>0.007391072898022877</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2444198704970496</v>
+        <v>0.04935832844743179</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02487585071742959</v>
+        <v>0.02347111717970679</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2454033606913948</v>
+        <v>0.12560589677974</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05229232656687768</v>
+        <v>0.04924615274435251</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2459184694800188</v>
+        <v>0.1236903206848436</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07911405989207732</v>
+        <v>0.07572284565089954</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2455680553380978</v>
+        <v>0.1232111235061216</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0224386147511255</v>
+        <v>0.007140040247772587</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2460493363003632</v>
+        <v>0.04933476050604907</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02479082835947001</v>
+        <v>0.02356034206132447</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2470393830960042</v>
+        <v>0.1264432694249383</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05232429855253487</v>
+        <v>0.04922414511439235</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2475579259432189</v>
+        <v>0.1245149228227426</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0793622925147644</v>
+        <v>0.07528953708709207</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2472051757070184</v>
+        <v>0.1240325309961624</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02245046501992252</v>
+        <v>0.006893858773642875</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2476788021036769</v>
+        <v>0.04931119256466636</v>
       </c>
       <c r="J217" t="n">
-        <v>0.024903841275315</v>
+        <v>0.02354975965144313</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2486754055006134</v>
+        <v>0.1272806420701366</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05225212736508206</v>
+        <v>0.04930250041581621</v>
       </c>
       <c r="M217" t="n">
-        <v>0.249197382406419</v>
+        <v>0.1253395249606415</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07910422285577778</v>
+        <v>0.07505676614475276</v>
       </c>
       <c r="O217" t="n">
-        <v>0.248842296075939</v>
+        <v>0.1248539384862032</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02246045632259637</v>
+        <v>0.006653016246456665</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2493082679069905</v>
+        <v>0.04928762462328364</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02481486796520861</v>
+        <v>0.02353934989338984</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2503114279052228</v>
+        <v>0.1281180147153348</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05207576752097462</v>
+        <v>0.04968117838389322</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2508368388696192</v>
+        <v>0.1261641270985405</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07933978187940827</v>
+        <v>0.07512447215797058</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2504794164448597</v>
+        <v>0.125675345976244</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02346856865832785</v>
+        <v>0.006418000437036886</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2509377337103042</v>
+        <v>0.04926405668190093</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02472388692939491</v>
+        <v>0.02342909273049165</v>
       </c>
       <c r="K219" t="n">
-        <v>0.251947450309832</v>
+        <v>0.1289553873605331</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05189517353666795</v>
+        <v>0.0496601387538923</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2524762953328193</v>
+        <v>0.1269887292364394</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07986890054994722</v>
+        <v>0.07549259446083473</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2521165368137803</v>
+        <v>0.1264967534662848</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02347478202629785</v>
+        <v>0.006189299116206623</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2525671995136179</v>
+        <v>0.04924048874051821</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02493087666811797</v>
+        <v>0.02341896810607572</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2535834727144413</v>
+        <v>0.1297927600057314</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05191029992861751</v>
+        <v>0.04913934126108255</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2541157517960194</v>
+        <v>0.1278133313743384</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07929150983168542</v>
+        <v>0.07536107238743389</v>
       </c>
       <c r="O220" t="n">
-        <v>0.253753657182701</v>
+        <v>0.1273181609563256</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02147907642568717</v>
+        <v>0.005967400054788734</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2541966653169315</v>
+        <v>0.04921692079913549</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02483581568162185</v>
+        <v>0.02340895596346909</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2552194951190506</v>
+        <v>0.1306301326509296</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05232110121327865</v>
+        <v>0.04941874564073304</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2557552082592195</v>
+        <v>0.1286379335122373</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07910754068891396</v>
+        <v>0.07552984527185747</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2553907775516217</v>
+        <v>0.1281395684463664</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02348143185567669</v>
+        <v>0.005752791023606325</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2558261311202452</v>
+        <v>0.04919335285775278</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02493868247015063</v>
+        <v>0.02359903624599886</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2568555175236599</v>
+        <v>0.1314675052961279</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05192753190710672</v>
+        <v>0.04959831162811273</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2573946647224197</v>
+        <v>0.1294625356501363</v>
       </c>
       <c r="N222" t="n">
-        <v>0.079316924085924</v>
+        <v>0.07489885244819428</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2570278979205423</v>
+        <v>0.1289609759364072</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02147916364493334</v>
+        <v>0.005545959793482248</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2574555969235588</v>
+        <v>0.04916978491637006</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02483888632641854</v>
+        <v>0.02358918889699213</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2584915399282692</v>
+        <v>0.1323048779413262</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05192939735886407</v>
+        <v>0.04937799895849074</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2590341211856198</v>
+        <v>0.1302871377880353</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07991844286874566</v>
+        <v>0.07536803325053337</v>
       </c>
       <c r="O223" t="n">
-        <v>0.258665018289463</v>
+        <v>0.129782383426448</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02143156083515835</v>
+        <v>0.005347394135239596</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2590850627268725</v>
+        <v>0.04914621697498735</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02479820035881679</v>
+        <v>0.02347939385977597</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2601275623328785</v>
+        <v>0.1331422505865244</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0523549500013617</v>
+        <v>0.04905776736713607</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2606735776488199</v>
+        <v>0.1311117399259342</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07959344098018123</v>
+        <v>0.07493732701296379</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2603021386583836</v>
+        <v>0.1306037909164889</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02332961878371463</v>
+        <v>0.005157581819701246</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2607145285301862</v>
+        <v>0.04912264903360462</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02469826241981626</v>
+        <v>0.02346963107767747</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2617635847374878</v>
+        <v>0.1339796232317227</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05205422741723909</v>
+        <v>0.04923757658931771</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2623130341120201</v>
+        <v>0.1319363420638332</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07937773128239134</v>
+        <v>0.07550667306957448</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2619392590273042</v>
+        <v>0.1314251984065296</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02217957261361826</v>
+        <v>0.004977010617690271</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2623439943334999</v>
+        <v>0.04909908109222191</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02444577491605454</v>
+        <v>0.02355988049402373</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2633996071420971</v>
+        <v>0.134816995876921</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05154140880054059</v>
+        <v>0.04921738636030479</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2639524905752201</v>
+        <v>0.1327609442017322</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07899283520080158</v>
+        <v>0.07507601075445458</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2635763793962249</v>
+        <v>0.1322466058965705</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02198765744788536</v>
+        <v>0.004806168300029556</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2639734601368136</v>
+        <v>0.04907551315083919</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02444744025416917</v>
+        <v>0.02335012205214181</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2650356295467064</v>
+        <v>0.1356543685221192</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05093067334531062</v>
+        <v>0.04949715641536628</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2655919470384203</v>
+        <v>0.1335855463396311</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07806027416083716</v>
+        <v>0.07474527940169312</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2652134997651456</v>
+        <v>0.1330680133866113</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02276010840953201</v>
+        <v>0.004645542637542167</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2656029259401271</v>
+        <v>0.04905194520945648</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02410996084079771</v>
+        <v>0.02334033569535882</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2666716519513157</v>
+        <v>0.1364917411673175</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05093620024559353</v>
+        <v>0.04917684648977125</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2672314035016204</v>
+        <v>0.1344101484775301</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07750156958792365</v>
+        <v>0.07471441834537901</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2668506201340662</v>
+        <v>0.1338894208766521</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02050316062157428</v>
+        <v>0.004495621401051003</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2672323917434408</v>
+        <v>0.04902837726807376</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02374003908257774</v>
+        <v>0.02353050136700184</v>
       </c>
       <c r="K229" t="n">
-        <v>0.268307674355925</v>
+        <v>0.1373291138125158</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05027216869543377</v>
+        <v>0.04935641631878876</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2688708599648205</v>
+        <v>0.135234750615429</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07603824290748634</v>
+        <v>0.0752833669196013</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2684877405029868</v>
+        <v>0.1347108283666929</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0212230492070283</v>
+        <v>0.004356892361379115</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2688618575467545</v>
+        <v>0.04900480932669105</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0234443773861468</v>
+        <v>0.02332059901039797</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2699436967605343</v>
+        <v>0.138166486457714</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04925275788887565</v>
+        <v>0.04933582563768776</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2705103164280206</v>
+        <v>0.136059352753328</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07529181554495062</v>
+        <v>0.07455206445844903</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2701248608719076</v>
+        <v>0.1355322358567337</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01992600928891013</v>
+        <v>0.00422984328934941</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2704913233500681</v>
+        <v>0.04898124138530833</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02332967815814246</v>
+        <v>0.02341060856887428</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2715797191651436</v>
+        <v>0.1390038591029123</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04889214701996364</v>
+        <v>0.04891503418173737</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2721497728912208</v>
+        <v>0.1368839548912269</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07398380892574191</v>
+        <v>0.07522045029601138</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2717619812408282</v>
+        <v>0.1363536433467745</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02061827599023588</v>
+        <v>0.004114961955784931</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2721207891533818</v>
+        <v>0.04895767344392561</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02280264380520228</v>
+        <v>0.02340051127197622</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2732157415697529</v>
+        <v>0.1398412317481106</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04800451528274205</v>
+        <v>0.04919408292118277</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2737892293544209</v>
+        <v>0.1377085570291259</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07333574447528562</v>
+        <v>0.07478864404857649</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2733991016097488</v>
+        <v>0.1371750508368153</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02130608443402167</v>
+        <v>0.004012736131508605</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2737502549566955</v>
+        <v>0.04893410550254289</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02256997673396383</v>
+        <v>0.02349041861998162</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2748517639743622</v>
+        <v>0.1406786043933088</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04730404187125536</v>
+        <v>0.04927327575315971</v>
       </c>
       <c r="M233" t="n">
-        <v>0.275428685817621</v>
+        <v>0.1385331591670248</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0723691436190072</v>
+        <v>0.07495708320552047</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2750362219786694</v>
+        <v>0.1379964583268561</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01999566974328353</v>
+        <v>0.003923653587343444</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2753797207600092</v>
+        <v>0.04891053756116018</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02213837935106464</v>
+        <v>0.02348041365004847</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2764877863789715</v>
+        <v>0.1415159770385071</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0470049059795479</v>
+        <v>0.04925264901471121</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2770681422808212</v>
+        <v>0.1393577613049238</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07120552778233191</v>
+        <v>0.07502579590343073</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2766733423475902</v>
+        <v>0.138817865816897</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02069326704103758</v>
+        <v>0.0038482020941124</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2770091865633228</v>
+        <v>0.04888696961977746</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02181455406314231</v>
+        <v>0.02337049810271526</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2781238087835808</v>
+        <v>0.1423533496837054</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04612128680166405</v>
+        <v>0.04913220620005165</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2787075987440213</v>
+        <v>0.1401823634428228</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07026641839068526</v>
+        <v>0.0749947874069567</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2783104627165108</v>
+        <v>0.1396392733069378</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01940511145029994</v>
+        <v>0.003786869422638492</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2786386523666365</v>
+        <v>0.04886340167839474</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02150520327683439</v>
+        <v>0.02336067371852059</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2797598311881901</v>
+        <v>0.1431907223289036</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04556736353164823</v>
+        <v>0.0492119508033956</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2803470552072214</v>
+        <v>0.1410069655807217</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06927333686949261</v>
+        <v>0.0748640629807481</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2799475830854314</v>
+        <v>0.1404606807969786</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01913743809408666</v>
+        <v>0.003740143343744645</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2802681181699502</v>
+        <v>0.04883983373701203</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02121702939877844</v>
+        <v>0.02335094223800301</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2813958535927994</v>
+        <v>0.1440280949741019</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04495731536354483</v>
+        <v>0.04909188631895747</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2819865116704215</v>
+        <v>0.1418315677186207</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06854780464417931</v>
+        <v>0.0748336278894548</v>
       </c>
       <c r="O237" t="n">
-        <v>0.281584703454352</v>
+        <v>0.1412820882870194</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01989052381410783</v>
+        <v>0.003708511628253877</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2818975839732638</v>
+        <v>0.04881626579562931</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02105240105503839</v>
+        <v>0.02324130540170105</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2830318759974087</v>
+        <v>0.1448654676193002</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04439808170956616</v>
+        <v>0.04917201624095177</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2836259681336217</v>
+        <v>0.1426561698565196</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06709840396579375</v>
+        <v>0.07470348739772648</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2832218238232727</v>
+        <v>0.1421034957770602</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01964483434143505</v>
+        <v>0.003692462046989149</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2835270497765774</v>
+        <v>0.04879269785424659</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02089051242597148</v>
+        <v>0.02343176495015332</v>
       </c>
       <c r="K239" t="n">
-        <v>0.284667898402018</v>
+        <v>0.1457028402644984</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04344647644401534</v>
+        <v>0.04895234406359289</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2852654245968217</v>
+        <v>0.1434807719944186</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06655866150080653</v>
+        <v>0.07457364677021272</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2848589441921934</v>
+        <v>0.142924903267101</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01939821245810104</v>
+        <v>0.003690490639912947</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2851565155798911</v>
+        <v>0.04876912991286388</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02052762711555579</v>
+        <v>0.02332232262389833</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2863039208066273</v>
+        <v>0.1465402129096967</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04299276883706796</v>
+        <v>0.04893287328109536</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2869048810600219</v>
+        <v>0.1443053741323175</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06571572169356804</v>
+        <v>0.07494411127156325</v>
       </c>
       <c r="O240" t="n">
-        <v>0.286496064561114</v>
+        <v>0.1437463107571418</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01915064339286819</v>
+        <v>0.003691134792685284</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2867859813832048</v>
+        <v>0.04874556197148116</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02036372924554146</v>
+        <v>0.02321298016347464</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2879399432112366</v>
+        <v>0.147377585554895</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04243692529768753</v>
+        <v>0.04871360738767364</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2885443375232221</v>
+        <v>0.1451299762702165</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06506953355902312</v>
+        <v>0.07431488616642784</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2881331849300347</v>
+        <v>0.1445677182471826</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01790211237449886</v>
+        <v>0.003692890545268654</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2884154471865185</v>
+        <v>0.04872199403009845</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02009880293767861</v>
+        <v>0.02330373930942084</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2895759656158459</v>
+        <v>0.1482149582000933</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04207891223483748</v>
+        <v>0.04919454987754221</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2901837939864221</v>
+        <v>0.1459545784081155</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0642200461121169</v>
+        <v>0.07418597671945604</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2897703052989553</v>
+        <v>0.1453891257372234</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01665260463175539</v>
+        <v>0.003696245668486024</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2900449129898321</v>
+        <v>0.04869842608871573</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01973283231371736</v>
+        <v>0.02339460180227544</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2912119880204552</v>
+        <v>0.1490523308452915</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04141869605748139</v>
+        <v>0.04907570424491547</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2918232504496223</v>
+        <v>0.1467791805460144</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06276720836779448</v>
+        <v>0.07435738819529775</v>
       </c>
       <c r="O243" t="n">
-        <v>0.291407425667876</v>
+        <v>0.1462105332272642</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01640210539340013</v>
+        <v>0.003701687933160371</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2916743787931458</v>
+        <v>0.04867485814733302</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01936580149540786</v>
+        <v>0.02338556938257701</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2928480104250645</v>
+        <v>0.1498897034904898</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04085624317458264</v>
+        <v>0.04875707398400797</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2934627069128224</v>
+        <v>0.1476037826839134</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06241096934100099</v>
+        <v>0.07422912585860258</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2930445460367966</v>
+        <v>0.147031940717305</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01615059988819544</v>
+        <v>0.003709705110114682</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2933038445964595</v>
+        <v>0.04865129020595029</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01909769460450021</v>
+        <v>0.02327664379086411</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2944840328296738</v>
+        <v>0.150727076135688</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04039151999510485</v>
+        <v>0.04913866258903413</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2951021633760225</v>
+        <v>0.1484283848218123</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06165127804668141</v>
+        <v>0.07480119497402021</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2946816664057173</v>
+        <v>0.1478533482073459</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01689807334490367</v>
+        <v>0.003720784970171934</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2949333103997731</v>
+        <v>0.04862772226456758</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01882849576274456</v>
+        <v>0.02326782676767529</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2961200552342831</v>
+        <v>0.1515644487808863</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03962449292801143</v>
+        <v>0.04902047355420847</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2967416198392227</v>
+        <v>0.1492529869597113</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06048808349978085</v>
+        <v>0.07407360080620029</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2963187867746379</v>
+        <v>0.1486747556973867</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01764451099228719</v>
+        <v>0.003735415284155108</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2965627762030868</v>
+        <v>0.04860415432318486</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01865818909189104</v>
+        <v>0.02315912005354913</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2977560776388924</v>
+        <v>0.1524018214260846</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03895512838226592</v>
+        <v>0.04910251037374533</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2983810763024228</v>
+        <v>0.1500775890976102</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0600213347152444</v>
+        <v>0.07434634861979272</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2979559071435586</v>
+        <v>0.1494961631874275</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01538989805910833</v>
+        <v>0.003754083822887166</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2981922420064005</v>
+        <v>0.04858058638180215</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01848675871368975</v>
+        <v>0.02335052538902416</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2993921000435017</v>
+        <v>0.1532391940712828</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03878339276683176</v>
+        <v>0.04898477654185934</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3000205327656229</v>
+        <v>0.1509021912355092</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0587509807080171</v>
+        <v>0.07481944367944698</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2995930275124793</v>
+        <v>0.1503175706774683</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01513421977412948</v>
+        <v>0.003777278357191112</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2998217078097141</v>
+        <v>0.04855701844041943</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01821418874989084</v>
+        <v>0.02334204451463892</v>
       </c>
       <c r="K249" t="n">
-        <v>0.301028122448111</v>
+        <v>0.1540765667164811</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03810925249067251</v>
+        <v>0.04886727555276485</v>
       </c>
       <c r="M249" t="n">
-        <v>0.301659989228823</v>
+        <v>0.1517267933734081</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05797697049304407</v>
+        <v>0.07469289124981293</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3012301478813999</v>
+        <v>0.1511389781675091</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01587746136611297</v>
+        <v>0.003805486657889892</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3014511736130278</v>
+        <v>0.04853345049903671</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01794046332224442</v>
+        <v>0.02313367917093202</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3026641448527203</v>
+        <v>0.1549139393616794</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03753267396275162</v>
+        <v>0.04875001090067638</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3032994456920232</v>
+        <v>0.1525513955113071</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05739925308527044</v>
+        <v>0.07446669659554012</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3028672682503206</v>
+        <v>0.1519603856575499</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01561960806382115</v>
+        <v>0.00383919649580651</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3030806394163414</v>
+        <v>0.048509882557654</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01766556655250062</v>
+        <v>0.02312543109844196</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3043001672573296</v>
+        <v>0.1557513120068776</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03705362359203263</v>
+        <v>0.04853298607980838</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3049389021552233</v>
+        <v>0.1533759976492061</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05581777749964123</v>
+        <v>0.07464086498127842</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3045043886192412</v>
+        <v>0.1527817931475907</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01536064509601639</v>
+        <v>0.003878895641763927</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3047101052196551</v>
+        <v>0.04848631461627128</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01718948256240958</v>
+        <v>0.02321730203770733</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3059361896619389</v>
+        <v>0.1565886846520759</v>
       </c>
       <c r="L252" t="n">
-        <v>0.036472067787479</v>
+        <v>0.04881620458437533</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3065783586184234</v>
+        <v>0.154200599787105</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0555324927511015</v>
+        <v>0.07421540167167745</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3061415089881619</v>
+        <v>0.1536032006376316</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01410055769146104</v>
+        <v>0.003925071866585139</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3063395710229688</v>
+        <v>0.04846274667488856</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01711219547372141</v>
+        <v>0.02320929372926665</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3075722120665482</v>
+        <v>0.1574260572972742</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03588797295805418</v>
+        <v>0.04859966990859169</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3082178150816235</v>
+        <v>0.155025201925004</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05414334785459635</v>
+        <v>0.0742903119313868</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3077786293570825</v>
+        <v>0.1544246081276723</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01583933107891745</v>
+        <v>0.003978212941093108</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3079690368262825</v>
+        <v>0.04843917873350585</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01683368940818626</v>
+        <v>0.02330140791365851</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3092082344711575</v>
+        <v>0.1582634299424724</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03540130551272178</v>
+        <v>0.04858338554667196</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3098572715448237</v>
+        <v>0.1558498040629029</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05345029182507083</v>
+        <v>0.07386560102505635</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3094157497260032</v>
+        <v>0.1552460156177131</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01357695048714799</v>
+        <v>0.00403880663611083</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3095985026295961</v>
+        <v>0.04841561079212313</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01645394848755424</v>
+        <v>0.02319364633142144</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3108442568757668</v>
+        <v>0.1591008025876707</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03451203186044519</v>
+        <v>0.04846735499283053</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3114967280080238</v>
+        <v>0.1566744062008019</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05245327367747005</v>
+        <v>0.07444127421733571</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3110528700949238</v>
+        <v>0.156067423107754</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.015313401144915</v>
+        <v>0.004107340722461252</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3112279684329097</v>
+        <v>0.04839204285074041</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01627295683357548</v>
+        <v>0.02308601072309403</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3124802792803761</v>
+        <v>0.159938175232869</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03392011841018797</v>
+        <v>0.04845158174128195</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3131361844712239</v>
+        <v>0.1574990083387008</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05205224242673911</v>
+        <v>0.07451733677287464</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3126899904638445</v>
+        <v>0.1568888305977948</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01504866828098083</v>
+        <v>0.004184302970967391</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3128574342362234</v>
+        <v>0.04836847490935769</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0157906985680001</v>
+        <v>0.0231785028292148</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3141163016849854</v>
+        <v>0.1607755478780672</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03342553157091357</v>
+        <v>0.04843606928624064</v>
       </c>
       <c r="M257" t="n">
-        <v>0.314775640934424</v>
+        <v>0.1583236104765998</v>
       </c>
       <c r="N257" t="n">
-        <v>0.050447147087823</v>
+        <v>0.07449379395632272</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3143271108327651</v>
+        <v>0.1577102380878356</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01478273712410785</v>
+        <v>0.004270181152452188</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3144869000395371</v>
+        <v>0.04834490696797498</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01560715781257824</v>
+        <v>0.02327112439032235</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3157523240895947</v>
+        <v>0.1616129205232655</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03292823775158552</v>
+        <v>0.04872082112192105</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3164150973976241</v>
+        <v>0.1591482126144988</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04953793667566686</v>
+        <v>0.07417065103232973</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3159642312016858</v>
+        <v>0.1585316455778764</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0145155929030584</v>
+        <v>0.004365463037738673</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3161163658428507</v>
+        <v>0.04832133902659226</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01532231868906003</v>
+        <v>0.02306387714695515</v>
       </c>
       <c r="K259" t="n">
-        <v>0.317388346494204</v>
+        <v>0.1624502931684638</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03232820336116729</v>
+        <v>0.04850584074253769</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3180545538608243</v>
+        <v>0.1599728147523977</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04922456020521582</v>
+        <v>0.07434791326554546</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3176013515706064</v>
+        <v>0.1593530530679172</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01424722084659486</v>
+        <v>0.00447063639764974</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3177458316461644</v>
+        <v>0.04829777108520955</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01513616531919559</v>
+        <v>0.02305676283965184</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3190243688988133</v>
+        <v>0.163287665813662</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03162539480862236</v>
+        <v>0.04859113164230505</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3196940103240244</v>
+        <v>0.1607974168902967</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04830696669141482</v>
+        <v>0.07392558592061943</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3192384719395271</v>
+        <v>0.160174460557958</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01197760618347955</v>
+        <v>0.004586189003008466</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3193752974494781</v>
+        <v>0.04827420314382683</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01474868182473504</v>
+        <v>0.02324978320895095</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3206603913034226</v>
+        <v>0.1641250384588603</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03081977850291429</v>
+        <v>0.04837669731543751</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3213334667872245</v>
+        <v>0.1616220190281956</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04728510514920908</v>
+        <v>0.07390367426220151</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3208755923084478</v>
+        <v>0.1609958680479988</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01170673414247485</v>
+        <v>0.004712608624637744</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3210047632527918</v>
+        <v>0.04825063520244412</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01445985232742851</v>
+        <v>0.02304293999539102</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3222964137080319</v>
+        <v>0.1649624111040586</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03051132085300656</v>
+        <v>0.04846254125614963</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3229729232504247</v>
+        <v>0.1624466211660946</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04605892459354366</v>
+        <v>0.07448218355494124</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3225127126773684</v>
+        <v>0.1618172755380397</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0124345899523431</v>
+        <v>0.004850383033360613</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3226342290561054</v>
+        <v>0.04822706726106139</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01416966094902614</v>
+        <v>0.02323623493951062</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3239324361126412</v>
+        <v>0.1657997837492568</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0299999882678626</v>
+        <v>0.04864866695865577</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3246123797136248</v>
+        <v>0.1632712233039935</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04512837403936348</v>
+        <v>0.07386111906348847</v>
       </c>
       <c r="O263" t="n">
-        <v>0.324149833046289</v>
+        <v>0.1626386830280805</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01316115884184667</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3242636948594191</v>
+        <v>0.04820349931967868</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01387809181127804</v>
+        <v>0.02322966978184829</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3255684585172505</v>
+        <v>0.1666371563944551</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02918574715644592</v>
+        <v>0.04853507791717054</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3262518361768249</v>
+        <v>0.1640958254418925</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04449340250161371</v>
+        <v>0.07434048605249277</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3257869534152096</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1634600905181212</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04819034142494184</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005298950073203912</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04819060995340586</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005594953756207333</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04819087848186988</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005887919107759813</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04819114701033389</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006177754186636603</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04819141553879791</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006464367051587566</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04819168406726192</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006747665761387626</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04819195259572594</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007027558374786941</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04819222112418996</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007303952950560175</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04819248965265398</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007576757547457749</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04819275818111799</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007845880224254025</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04819302670958201</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008111229039699776</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04819329523804603</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008372712052568988</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04819356376651005</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008630237321612784</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04819383229497406</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008883712905604829</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04819410082343809</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009133046863296572</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0481943693519021</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009378147253461339</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04819463788036612</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009618922134850938</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04819490640883013</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009855279566233222</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04819517493729415</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01008712760637566</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04819544346575817</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01031437431403064</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04819571199422218</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01053692774797053</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0481959805226862</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01075469596694811</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04819624905115022</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01096758702973532</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04819651757961424</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01117550899508539</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04819678610807825</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01137874534848975</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04819705463654227</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01157945670902142</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04819732316500629</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01177792656217148</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04819759169347031</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01197406296669375</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04819786022193432</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01216777398135928</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04819812875039834</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01235896766492208</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04819839727886235</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01254755207615296</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04819866580732637</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01273343527380617</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04819893433579039</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01291652531664834</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04819920286425441</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01309673026344583</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04819947139271843</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01327395817295327</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04819973992118244</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01344811710394084</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04820000844964646</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01361911511516346</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04820027697811047</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01378686026539099</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0482005455065745</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01395126061337867</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04820081403503851</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01411222421789608</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04820108256350253</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0142696591376987</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04820135109196654</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01442347343155587</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04820161962043056</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01457357515822336</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04820188814889458</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01471987237647016</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0482021566773586</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01486227314505242</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04820242520582261</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01500068552273876</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04820269373428663</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01513501756828566</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04820296226275065</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01526517734046143</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04820323079121467</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01539107289802288</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04820349931967868</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01539107289802288</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04819034142494184</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01551652263845882</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04821444642325259</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01564000821688571</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04823855142156334</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01576124585911459</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04826265641987409</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01587995179095654</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04828676141818485</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01599584223822264</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0483108664164956</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.016108633426724</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04833497141480635</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01621804158227163</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0483590764131171</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01632378293067665</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04838318141142785</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01642557369775016</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0484072864097386</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0165231301093032</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04843139140804935</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01661616839114687</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0484554964063601</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01670440476909222</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04847960140467085</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01678755546895036</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04850370640298161</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01686533671653234</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04852781140129235</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01693746473764923</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0485519163996031</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01700365575811216</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04857602139791386</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01706362600373216</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0486001263962246</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01711709170032032</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04862423139453536</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01716376907368773</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0486483363928461</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01720337434964546</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04867244139115686</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01723562375400456</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04869654638946761</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01726023351257614</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04872065138777835</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01727691985117127</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04874475638608911</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01728539899560104</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04876886138439986</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01728646790386624</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04879296638271061</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01728635644957205</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04881707138102136</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01728593635261701</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04884117637933211</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01728500185122723</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04886528137764286</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01728334718362881</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04888938637595362</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01728076658804786</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04891349137426437</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01727705430271047</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04893759637257512</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01727200456584276</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04896170137088587</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01726541161567083</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04898580636919662</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01725706969042077</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04900991136750737</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01724677302831869</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04903401636581812</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01723431586759071</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04905812136412887</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01721949244646291</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04908222636243962</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0172020970031614</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04910633136075037</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01718192377591229</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04913043635906113</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01715876700294169</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04915454135737187</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01713242092247567</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04917864635568263</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01710267977274038</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04920275135399338</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0170693377919619</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04922685635230412</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01703218921836631</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04925096135061488</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01699102829017976</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04927506634892562</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01694564924562831</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04929917134723638</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.0168958463229381</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04932327634554713</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0168414137603352</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04934738134385788</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01678214579604576</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04937148634216863</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01678214579604576</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04937148634216863</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01712125953216974</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05095383084340623</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01745361945425247</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05253617534464383</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01777908118357494</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05411851984588143</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01809750034141815</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05570086434711904</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01840873254906314</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05728320884835663</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01871263342779088</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05886555334959423</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01900905859888238</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06044789785083184</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01929786368361866</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06203024235206944</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01957890430328071</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06361258685330702</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01985203607914955</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06519493135454463</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02011711463250618</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06677727585578223</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0203739955846316</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06835962035701984</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02062253455680681</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06994196485825743</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02086258717031282</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07152430935949503</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02109400904643063</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07310665386073263</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02131665580644126</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07468899836197024</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02153038307162569</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07627134286320784</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02173504646326496</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07785368736444544</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02193050160264003</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07943603186568303</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02211660411103195</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08101837636692064</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0222932096097217</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08260072086815824</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02246017371999029</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08418306536939583</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02261735206311873</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08576540987063344</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.022764600260388</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08734775437187103</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02290177393307914</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08893009887310864</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02302872870247315</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09051244337434623</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02314532018985099</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09209478787558383</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02325140401649374</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09367713237682145</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02334683580368231</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09525947687805904</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02343147117269781</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09684182137929664</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02350516574482117</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09842416588053424</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02356777514133342</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1000065103817718</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02361915498351556</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1015888548830094</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02365916089264861</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.103171199384247</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02368764849001356</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1047535438854846</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02370952772806101</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1063358883867222</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02370951111942017</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1079182328879598</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02370644234517078</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1095005773891975</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02369833996212735</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.111082921890435</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02368558626536021</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1126652663916726</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02366856354993964</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1142476108929102</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02364765411093595</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1158299553941478</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02362324024341941</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1174122998953854</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02359570424246035</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.118994644396623</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02356542840312907</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1205769888978606</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02353279502049585</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1221593333990982</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02349818638963098</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1237416779003358</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02346198480560478</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1253240224015734</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02342457256348757</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.126906366902811</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02338633195834959</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1284887114040486</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02334738746193291</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1300710559052863</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02329628276026313</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1316534004065238</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.0232295621831304</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1332357449077614</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02315120228271686</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1348180894089991</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02306517961120486</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1364004339102366</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02297547072077658</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1379827784114742</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02288605216361431</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1395651229127118</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02280090049190028</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1411474674139494</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02272399225781677</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.142729811915187</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02265930401354599</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1443121564164246</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02261081231127024</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1458945009176623</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02257455901169435</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1474768454188999</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02254052115472788</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1490591899201374</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02250848171171865</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02247831325845602</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1522238789226126</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02244988837072932</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1538062234238503</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02242307962432792</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1553885679250878</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02239775959504112</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1569709124263255</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02237380085865825</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1585532569275631</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02235107599096871</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1601356014288007</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02232945756776177</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1617179459300383</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0223088181648268</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1633002904312758</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02228903035795313</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1648826349325135</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02226996672293009</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.166464979433751</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02225149983554706</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1680473239349886</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02223350227159332</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1696296684362263</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02221584660685824</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1712120129374639</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02219840541713114</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1727943574387014</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.0221810512782014</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1743767019399391</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02216365676585831</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1759590464411767</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0221460944558912</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1775413909424143</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02212823692408945</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1791237354436518</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02211032996953113</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1807060799448894</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02209272227094902</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1822884244461271</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02207542490616003</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1838707689473646</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02205844893316727</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1854531134486023</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02204180540997389</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1870354579498399</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02202550539458294</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1886178024510775</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02200955994499758</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.190200146952315</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02199398011922093</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1917824914535526</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02197877697525609</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1933648359547903</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02196396157110618</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1949471804560279</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02194954496477429</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1965295249572654</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02193553821426356</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1981118694585031</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02192195237757709</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1996942139597407</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02190879851271803</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2012765584609783</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02189608767768947</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2028589029622159</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02188383093049449</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2044412474634535</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02187203932913628</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2060235919646911</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
